--- a/export_xls/liste_livre_category.xlsx
+++ b/export_xls/liste_livre_category.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q110"/>
+  <dimension ref="A1:T111"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -515,10 +515,25 @@
       </c>
       <c r="P1" s="1" t="inlineStr">
         <is>
+          <t>categorie1</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>categorie2</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>nbr pages category</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
           <t>oeuvre</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>categorie</t>
         </is>
@@ -580,10 +595,25 @@
       </c>
       <c r="P2" t="inlineStr">
         <is>
+          <t>fiction</t>
+        </is>
+      </c>
+      <c r="Q2" t="inlineStr">
+        <is>
+          <t>SF</t>
+        </is>
+      </c>
+      <c r="R2" t="inlineStr">
+        <is>
+          <t>500-750</t>
+        </is>
+      </c>
+      <c r="S2" t="inlineStr">
+        <is>
           <t>A Princess of Mars - Edgar Rice Burroughs</t>
         </is>
       </c>
-      <c r="Q2" t="inlineStr">
+      <c r="T2" t="inlineStr">
         <is>
           <t>fiction/SF</t>
         </is>
@@ -645,10 +675,25 @@
       </c>
       <c r="P3" t="inlineStr">
         <is>
+          <t>non-fiction</t>
+        </is>
+      </c>
+      <c r="Q3" t="inlineStr">
+        <is>
+          <t>lifestyle</t>
+        </is>
+      </c>
+      <c r="R3" t="inlineStr">
+        <is>
+          <t>250-500</t>
+        </is>
+      </c>
+      <c r="S3" t="inlineStr">
+        <is>
           <t>Atomic Habits: An Easy &amp; Proven Way to Build Good Habits &amp; Break Bad Ones - James Clear</t>
         </is>
       </c>
-      <c r="Q3" t="inlineStr">
+      <c r="T3" t="inlineStr">
         <is>
           <t>non-fiction/lifestyle</t>
         </is>
@@ -710,10 +755,25 @@
       </c>
       <c r="P4" t="inlineStr">
         <is>
+          <t>fiction</t>
+        </is>
+      </c>
+      <c r="Q4" t="inlineStr">
+        <is>
+          <t>SF</t>
+        </is>
+      </c>
+      <c r="R4" t="inlineStr">
+        <is>
+          <t>Moins de 250</t>
+        </is>
+      </c>
+      <c r="S4" t="inlineStr">
+        <is>
           <t>Black Destroyer - A. E. Van Vogt</t>
         </is>
       </c>
-      <c r="Q4" t="inlineStr">
+      <c r="T4" t="inlineStr">
         <is>
           <t>fiction/SF</t>
         </is>
@@ -779,10 +839,25 @@
       </c>
       <c r="P5" t="inlineStr">
         <is>
+          <t>fiction</t>
+        </is>
+      </c>
+      <c r="Q5" t="inlineStr">
+        <is>
+          <t>fantastique</t>
+        </is>
+      </c>
+      <c r="R5" t="inlineStr">
+        <is>
+          <t>Moins de 250</t>
+        </is>
+      </c>
+      <c r="S5" t="inlineStr">
+        <is>
           <t>Blackwater 1 - La crue: L'épique saga de la famille Caskey - Michael McDowell</t>
         </is>
       </c>
-      <c r="Q5" t="inlineStr">
+      <c r="T5" t="inlineStr">
         <is>
           <t>fiction/fantastique</t>
         </is>
@@ -792,28 +867,28 @@
       <c r="A6" t="inlineStr"/>
       <c r="B6" t="inlineStr">
         <is>
-          <t>49</t>
+          <t>69</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>CN4 Jeux d'ombres</t>
+          <t>Blackwater 3 – La Maison: L'épique saga de la famille Caskey</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Glen Cook</t>
+          <t>Michael McDowell</t>
         </is>
       </c>
       <c r="E6" t="n">
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>542</v>
+        <v>213</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Les Annales de la Compagnie Noire #4</t>
+          <t>Blackwater #3</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
@@ -822,14 +897,14 @@
         </is>
       </c>
       <c r="I6" t="n">
-        <v>7</v>
+        <v>63</v>
       </c>
       <c r="J6" s="2" t="n">
-        <v>45454</v>
+        <v>45571</v>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>000049</t>
+          <t>000069</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
@@ -840,7 +915,7 @@
       <c r="M6" t="inlineStr"/>
       <c r="N6" t="inlineStr">
         <is>
-          <t>Glen Cook</t>
+          <t>Michael McDowell</t>
         </is>
       </c>
       <c r="O6" t="n">
@@ -848,12 +923,23 @@
       </c>
       <c r="P6" t="inlineStr">
         <is>
-          <t>CN4 Jeux d'ombres - Glen Cook</t>
-        </is>
-      </c>
-      <c r="Q6" t="inlineStr">
-        <is>
-          <t>fiction/fantasy</t>
+          <t>fiction</t>
+        </is>
+      </c>
+      <c r="Q6" t="inlineStr"/>
+      <c r="R6" t="inlineStr">
+        <is>
+          <t>Moins de 250</t>
+        </is>
+      </c>
+      <c r="S6" t="inlineStr">
+        <is>
+          <t>Blackwater 3 – La Maison: L'épique saga de la famille Caskey - Michael McDowell</t>
+        </is>
+      </c>
+      <c r="T6" t="inlineStr">
+        <is>
+          <t>fiction/fantastique</t>
         </is>
       </c>
     </row>
@@ -861,66 +947,83 @@
       <c r="A7" t="inlineStr"/>
       <c r="B7" t="inlineStr">
         <is>
-          <t>A4</t>
+          <t>49</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Coraline</t>
+          <t>CN4 Jeux d'ombres</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Neil Gaiman</t>
+          <t>Glen Cook</t>
         </is>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>176</v>
-      </c>
-      <c r="G7" t="inlineStr"/>
+        <v>542</v>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Les Annales de la Compagnie Noire #4</t>
+        </is>
+      </c>
       <c r="H7" t="inlineStr">
         <is>
           <t>fr</t>
         </is>
       </c>
       <c r="I7" t="n">
-        <v>176</v>
+        <v>7</v>
       </c>
       <c r="J7" s="2" t="n">
-        <v>45233</v>
+        <v>45454</v>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>A4</t>
+          <t>000049</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>papier</t>
-        </is>
-      </c>
-      <c r="M7" t="n">
-        <v>1</v>
-      </c>
+          <t>ebook</t>
+        </is>
+      </c>
+      <c r="M7" t="inlineStr"/>
       <c r="N7" t="inlineStr">
         <is>
-          <t>Neil Gaiman</t>
+          <t>Glen Cook</t>
         </is>
       </c>
       <c r="O7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P7" t="inlineStr">
         <is>
-          <t>Coraline - Neil Gaiman</t>
+          <t>fiction</t>
         </is>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>fiction/fantastique</t>
+          <t>fantasy</t>
+        </is>
+      </c>
+      <c r="R7" t="inlineStr">
+        <is>
+          <t>500-750</t>
+        </is>
+      </c>
+      <c r="S7" t="inlineStr">
+        <is>
+          <t>CN4 Jeux d'ombres - Glen Cook</t>
+        </is>
+      </c>
+      <c r="T7" t="inlineStr">
+        <is>
+          <t>fiction/fantasy</t>
         </is>
       </c>
     </row>
@@ -928,24 +1031,24 @@
       <c r="A8" t="inlineStr"/>
       <c r="B8" t="inlineStr">
         <is>
-          <t>A32</t>
+          <t>A4</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Cormoran Strike 1 - L'Appel du coucou</t>
+          <t>Coraline</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Robert Galbraith (JKR)</t>
+          <t>Neil Gaiman</t>
         </is>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>700</v>
+        <v>176</v>
       </c>
       <c r="G8" t="inlineStr"/>
       <c r="H8" t="inlineStr">
@@ -954,14 +1057,14 @@
         </is>
       </c>
       <c r="I8" t="n">
-        <v>700</v>
+        <v>176</v>
       </c>
       <c r="J8" s="2" t="n">
-        <v>44872</v>
+        <v>45233</v>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>A32</t>
+          <t>A4</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
@@ -974,7 +1077,7 @@
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>Robert Galbraith</t>
+          <t>Neil Gaiman</t>
         </is>
       </c>
       <c r="O8" t="n">
@@ -982,12 +1085,27 @@
       </c>
       <c r="P8" t="inlineStr">
         <is>
-          <t>Cormoran Strike 1 - L'Appel du coucou - Robert Galbraith (JKR)</t>
+          <t>fiction</t>
         </is>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>fiction/policier</t>
+          <t>fantastique</t>
+        </is>
+      </c>
+      <c r="R8" t="inlineStr">
+        <is>
+          <t>Moins de 250</t>
+        </is>
+      </c>
+      <c r="S8" t="inlineStr">
+        <is>
+          <t>Coraline - Neil Gaiman</t>
+        </is>
+      </c>
+      <c r="T8" t="inlineStr">
+        <is>
+          <t>fiction/fantastique</t>
         </is>
       </c>
     </row>
@@ -995,24 +1113,24 @@
       <c r="A9" t="inlineStr"/>
       <c r="B9" t="inlineStr">
         <is>
-          <t>A22</t>
+          <t>A32</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>De bons présages (Good Omens)</t>
+          <t>Cormoran Strike 1 - L'Appel du coucou</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Neil Gaiman</t>
+          <t>Robert Galbraith (JKR)</t>
         </is>
       </c>
       <c r="E9" t="n">
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>439</v>
+        <v>700</v>
       </c>
       <c r="G9" t="inlineStr"/>
       <c r="H9" t="inlineStr">
@@ -1021,14 +1139,14 @@
         </is>
       </c>
       <c r="I9" t="n">
-        <v>439</v>
+        <v>700</v>
       </c>
       <c r="J9" s="2" t="n">
-        <v>45018</v>
+        <v>44872</v>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>A22</t>
+          <t>A32</t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
@@ -1041,7 +1159,7 @@
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>Neil Gaiman</t>
+          <t>Robert Galbraith</t>
         </is>
       </c>
       <c r="O9" t="n">
@@ -1049,12 +1167,27 @@
       </c>
       <c r="P9" t="inlineStr">
         <is>
-          <t>De bons présages (Good Omens) - Neil Gaiman</t>
+          <t>fiction</t>
         </is>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>fiction/fantasy</t>
+          <t>policier</t>
+        </is>
+      </c>
+      <c r="R9" t="inlineStr">
+        <is>
+          <t>500-750</t>
+        </is>
+      </c>
+      <c r="S9" t="inlineStr">
+        <is>
+          <t>Cormoran Strike 1 - L'Appel du coucou - Robert Galbraith (JKR)</t>
+        </is>
+      </c>
+      <c r="T9" t="inlineStr">
+        <is>
+          <t>fiction/policier</t>
         </is>
       </c>
     </row>
@@ -1062,66 +1195,81 @@
       <c r="A10" t="inlineStr"/>
       <c r="B10" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>A22</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Disciplina sin lágrimas / No-Drama Discipline</t>
+          <t>De bons présages (Good Omens)</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Daniel Siegel_x000D_
-Tina Payne Bryson</t>
+          <t>Neil Gaiman</t>
         </is>
       </c>
       <c r="E10" t="n">
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>29</v>
+        <v>439</v>
       </c>
       <c r="G10" t="inlineStr"/>
       <c r="H10" t="inlineStr">
         <is>
-          <t>es</t>
+          <t>fr</t>
         </is>
       </c>
       <c r="I10" t="n">
-        <v>1</v>
+        <v>439</v>
       </c>
       <c r="J10" s="2" t="n">
-        <v>45310</v>
+        <v>45018</v>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>000018</t>
+          <t>A22</t>
         </is>
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>ebook</t>
-        </is>
-      </c>
-      <c r="M10" t="inlineStr"/>
+          <t>papier</t>
+        </is>
+      </c>
+      <c r="M10" t="n">
+        <v>1</v>
+      </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t>Daniel Siegel</t>
+          <t>Neil Gaiman</t>
         </is>
       </c>
       <c r="O10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P10" t="inlineStr">
         <is>
-          <t>Disciplina sin lágrimas / No-Drama Discipline - Daniel Siegel_x000D_
-Tina Payne Bryson</t>
+          <t>fiction</t>
         </is>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>non-fiction/parenting</t>
+          <t>fantasy</t>
+        </is>
+      </c>
+      <c r="R10" t="inlineStr">
+        <is>
+          <t>250-500</t>
+        </is>
+      </c>
+      <c r="S10" t="inlineStr">
+        <is>
+          <t>De bons présages (Good Omens) - Neil Gaiman</t>
+        </is>
+      </c>
+      <c r="T10" t="inlineStr">
+        <is>
+          <t>fiction/fantasy</t>
         </is>
       </c>
     </row>
@@ -1129,66 +1277,81 @@
       <c r="A11" t="inlineStr"/>
       <c r="B11" t="inlineStr">
         <is>
-          <t>A21</t>
+          <t>18</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Eclat de L'aube (Roshar 3.5)</t>
+          <t>Disciplina sin lágrimas / No-Drama Discipline</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Brandon Sanderson</t>
+          <t>Daniel Siegel_x000D_
+Tina Payne Bryson</t>
         </is>
       </c>
       <c r="E11" t="n">
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>320</v>
+        <v>29</v>
       </c>
       <c r="G11" t="inlineStr"/>
       <c r="H11" t="inlineStr">
         <is>
-          <t>fr</t>
+          <t>es</t>
         </is>
       </c>
       <c r="I11" t="n">
-        <v>320</v>
+        <v>1</v>
       </c>
       <c r="J11" s="2" t="n">
-        <v>45023</v>
+        <v>45310</v>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>A21</t>
+          <t>000018</t>
         </is>
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>papier</t>
-        </is>
-      </c>
-      <c r="M11" t="n">
-        <v>1</v>
-      </c>
+          <t>ebook</t>
+        </is>
+      </c>
+      <c r="M11" t="inlineStr"/>
       <c r="N11" t="inlineStr">
         <is>
-          <t>Brandon Sanderson</t>
+          <t>Daniel Siegel</t>
         </is>
       </c>
       <c r="O11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P11" t="inlineStr">
         <is>
-          <t>Eclat de L'aube (Roshar 3.5) - Brandon Sanderson</t>
+          <t>non-fiction</t>
         </is>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>fiction/fantasy</t>
+          <t>parenting</t>
+        </is>
+      </c>
+      <c r="R11" t="inlineStr">
+        <is>
+          <t>Moins de 250</t>
+        </is>
+      </c>
+      <c r="S11" t="inlineStr">
+        <is>
+          <t>Disciplina sin lágrimas / No-Drama Discipline - Daniel Siegel_x000D_
+Tina Payne Bryson</t>
+        </is>
+      </c>
+      <c r="T11" t="inlineStr">
+        <is>
+          <t>non-fiction/parenting</t>
         </is>
       </c>
     </row>
@@ -1196,12 +1359,12 @@
       <c r="A12" t="inlineStr"/>
       <c r="B12" t="inlineStr">
         <is>
-          <t>A9</t>
+          <t>A21</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Fils des brumes, Tome 1 : L'empire ultime</t>
+          <t>Eclat de L'aube (Roshar 3.5)</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -1213,7 +1376,7 @@
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>616</v>
+        <v>320</v>
       </c>
       <c r="G12" t="inlineStr"/>
       <c r="H12" t="inlineStr">
@@ -1222,14 +1385,14 @@
         </is>
       </c>
       <c r="I12" t="n">
-        <v>616</v>
+        <v>320</v>
       </c>
       <c r="J12" s="2" t="n">
-        <v>45199</v>
+        <v>45023</v>
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>A9</t>
+          <t>A21</t>
         </is>
       </c>
       <c r="L12" t="inlineStr">
@@ -1250,10 +1413,25 @@
       </c>
       <c r="P12" t="inlineStr">
         <is>
-          <t>Fils des brumes, Tome 1 : L'empire ultime - Brandon Sanderson</t>
+          <t>fiction</t>
         </is>
       </c>
       <c r="Q12" t="inlineStr">
+        <is>
+          <t>fantasy</t>
+        </is>
+      </c>
+      <c r="R12" t="inlineStr">
+        <is>
+          <t>250-500</t>
+        </is>
+      </c>
+      <c r="S12" t="inlineStr">
+        <is>
+          <t>Eclat de L'aube (Roshar 3.5) - Brandon Sanderson</t>
+        </is>
+      </c>
+      <c r="T12" t="inlineStr">
         <is>
           <t>fiction/fantasy</t>
         </is>
@@ -1263,12 +1441,12 @@
       <c r="A13" t="inlineStr"/>
       <c r="B13" t="inlineStr">
         <is>
-          <t>A8</t>
+          <t>A9</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Fils des brumes, Tome 2 : Le puits de l'ascension</t>
+          <t>Fils des brumes, Tome 1 : L'empire ultime</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -1280,7 +1458,7 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>1080</v>
+        <v>616</v>
       </c>
       <c r="G13" t="inlineStr"/>
       <c r="H13" t="inlineStr">
@@ -1289,14 +1467,14 @@
         </is>
       </c>
       <c r="I13" t="n">
-        <v>1080</v>
+        <v>616</v>
       </c>
       <c r="J13" s="2" t="n">
-        <v>45218</v>
+        <v>45199</v>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>A8</t>
+          <t>A9</t>
         </is>
       </c>
       <c r="L13" t="inlineStr">
@@ -1317,10 +1495,25 @@
       </c>
       <c r="P13" t="inlineStr">
         <is>
-          <t>Fils des brumes, Tome 2 : Le puits de l'ascension - Brandon Sanderson</t>
+          <t>fiction</t>
         </is>
       </c>
       <c r="Q13" t="inlineStr">
+        <is>
+          <t>fantasy</t>
+        </is>
+      </c>
+      <c r="R13" t="inlineStr">
+        <is>
+          <t>500-750</t>
+        </is>
+      </c>
+      <c r="S13" t="inlineStr">
+        <is>
+          <t>Fils des brumes, Tome 1 : L'empire ultime - Brandon Sanderson</t>
+        </is>
+      </c>
+      <c r="T13" t="inlineStr">
         <is>
           <t>fiction/fantasy</t>
         </is>
@@ -1330,12 +1523,12 @@
       <c r="A14" t="inlineStr"/>
       <c r="B14" t="inlineStr">
         <is>
-          <t>A7</t>
+          <t>A8</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Fils des brumes, Tome 3 : Le héros des siècles</t>
+          <t>Fils des brumes, Tome 2 : Le puits de l'ascension</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -1347,7 +1540,7 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>1032</v>
+        <v>1080</v>
       </c>
       <c r="G14" t="inlineStr"/>
       <c r="H14" t="inlineStr">
@@ -1356,14 +1549,14 @@
         </is>
       </c>
       <c r="I14" t="n">
-        <v>1032</v>
+        <v>1080</v>
       </c>
       <c r="J14" s="2" t="n">
-        <v>45229</v>
+        <v>45218</v>
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>A7</t>
+          <t>A8</t>
         </is>
       </c>
       <c r="L14" t="inlineStr">
@@ -1384,10 +1577,25 @@
       </c>
       <c r="P14" t="inlineStr">
         <is>
-          <t>Fils des brumes, Tome 3 : Le héros des siècles - Brandon Sanderson</t>
+          <t>fiction</t>
         </is>
       </c>
       <c r="Q14" t="inlineStr">
+        <is>
+          <t>fantasy</t>
+        </is>
+      </c>
+      <c r="R14" t="inlineStr">
+        <is>
+          <t>1000-1250</t>
+        </is>
+      </c>
+      <c r="S14" t="inlineStr">
+        <is>
+          <t>Fils des brumes, Tome 2 : Le puits de l'ascension - Brandon Sanderson</t>
+        </is>
+      </c>
+      <c r="T14" t="inlineStr">
         <is>
           <t>fiction/fantasy</t>
         </is>
@@ -1397,12 +1605,12 @@
       <c r="A15" t="inlineStr"/>
       <c r="B15" t="inlineStr">
         <is>
-          <t>A24</t>
+          <t>A7</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Fils des brumes, tome 4 :  L'alliage de la justice</t>
+          <t>Fils des brumes, Tome 3 : Le héros des siècles</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -1414,7 +1622,7 @@
         <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>456</v>
+        <v>1032</v>
       </c>
       <c r="G15" t="inlineStr"/>
       <c r="H15" t="inlineStr">
@@ -1423,14 +1631,14 @@
         </is>
       </c>
       <c r="I15" t="n">
-        <v>456</v>
+        <v>1032</v>
       </c>
       <c r="J15" s="2" t="n">
-        <v>44968</v>
+        <v>45229</v>
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>A24</t>
+          <t>A7</t>
         </is>
       </c>
       <c r="L15" t="inlineStr">
@@ -1451,10 +1659,25 @@
       </c>
       <c r="P15" t="inlineStr">
         <is>
-          <t>Fils des brumes, tome 4 :  L'alliage de la justice - Brandon Sanderson</t>
+          <t>fiction</t>
         </is>
       </c>
       <c r="Q15" t="inlineStr">
+        <is>
+          <t>fantasy</t>
+        </is>
+      </c>
+      <c r="R15" t="inlineStr">
+        <is>
+          <t>1000-1250</t>
+        </is>
+      </c>
+      <c r="S15" t="inlineStr">
+        <is>
+          <t>Fils des brumes, Tome 3 : Le héros des siècles - Brandon Sanderson</t>
+        </is>
+      </c>
+      <c r="T15" t="inlineStr">
         <is>
           <t>fiction/fantasy</t>
         </is>
@@ -1464,12 +1687,12 @@
       <c r="A16" t="inlineStr"/>
       <c r="B16" t="inlineStr">
         <is>
-          <t>A23</t>
+          <t>A24</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Fils des brumes, tome 5 : Jeux de masques</t>
+          <t>Fils des brumes, tome 4 :  L'alliage de la justice</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -1481,7 +1704,7 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>576</v>
+        <v>456</v>
       </c>
       <c r="G16" t="inlineStr"/>
       <c r="H16" t="inlineStr">
@@ -1490,14 +1713,14 @@
         </is>
       </c>
       <c r="I16" t="n">
-        <v>576</v>
+        <v>456</v>
       </c>
       <c r="J16" s="2" t="n">
-        <v>44983</v>
+        <v>44968</v>
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>A23</t>
+          <t>A24</t>
         </is>
       </c>
       <c r="L16" t="inlineStr">
@@ -1518,10 +1741,25 @@
       </c>
       <c r="P16" t="inlineStr">
         <is>
-          <t>Fils des brumes, tome 5 : Jeux de masques - Brandon Sanderson</t>
+          <t>fiction</t>
         </is>
       </c>
       <c r="Q16" t="inlineStr">
+        <is>
+          <t>fantasy</t>
+        </is>
+      </c>
+      <c r="R16" t="inlineStr">
+        <is>
+          <t>250-500</t>
+        </is>
+      </c>
+      <c r="S16" t="inlineStr">
+        <is>
+          <t>Fils des brumes, tome 4 :  L'alliage de la justice - Brandon Sanderson</t>
+        </is>
+      </c>
+      <c r="T16" t="inlineStr">
         <is>
           <t>fiction/fantasy</t>
         </is>
@@ -1531,52 +1769,81 @@
       <c r="A17" t="inlineStr"/>
       <c r="B17" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>A23</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Guide de démarrage rapide de KOReader</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr"/>
+          <t>Fils des brumes, tome 5 : Jeux de masques</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>Brandon Sanderson</t>
+        </is>
+      </c>
       <c r="E17" t="n">
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>10</v>
+        <v>576</v>
       </c>
       <c r="G17" t="inlineStr"/>
-      <c r="H17" t="inlineStr"/>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>fr</t>
+        </is>
+      </c>
       <c r="I17" t="n">
-        <v>3</v>
+        <v>576</v>
       </c>
       <c r="J17" s="2" t="n">
-        <v>45300</v>
+        <v>44983</v>
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>000013</t>
+          <t>A23</t>
         </is>
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>ebook</t>
-        </is>
-      </c>
-      <c r="M17" t="inlineStr"/>
-      <c r="N17" t="inlineStr"/>
+          <t>papier</t>
+        </is>
+      </c>
+      <c r="M17" t="n">
+        <v>1</v>
+      </c>
+      <c r="N17" t="inlineStr">
+        <is>
+          <t>Brandon Sanderson</t>
+        </is>
+      </c>
       <c r="O17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P17" t="inlineStr">
         <is>
-          <t>Guide de démarrage rapide de KOReader - nan</t>
+          <t>fiction</t>
         </is>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>non-fiction/technologie</t>
+          <t>fantasy</t>
+        </is>
+      </c>
+      <c r="R17" t="inlineStr">
+        <is>
+          <t>500-750</t>
+        </is>
+      </c>
+      <c r="S17" t="inlineStr">
+        <is>
+          <t>Fils des brumes, tome 5 : Jeux de masques - Brandon Sanderson</t>
+        </is>
+      </c>
+      <c r="T17" t="inlineStr">
+        <is>
+          <t>fiction/fantasy</t>
         </is>
       </c>
     </row>
@@ -1584,44 +1851,32 @@
       <c r="A18" t="inlineStr"/>
       <c r="B18" t="inlineStr">
         <is>
-          <t>66</t>
+          <t>13</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Histoires de moine et de robot T2 : Une prière pour les cimes timides</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>Becky Chambers</t>
-        </is>
-      </c>
+          <t>Guide de démarrage rapide de KOReader</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr"/>
       <c r="E18" t="n">
         <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>139</v>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>Histoires de moine et de robot #2</t>
-        </is>
-      </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>fr</t>
-        </is>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="G18" t="inlineStr"/>
+      <c r="H18" t="inlineStr"/>
       <c r="I18" t="n">
-        <v>135</v>
+        <v>3</v>
       </c>
       <c r="J18" s="2" t="n">
-        <v>45558</v>
+        <v>45300</v>
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>000066</t>
+          <t>000013</t>
         </is>
       </c>
       <c r="L18" t="inlineStr">
@@ -1630,22 +1885,33 @@
         </is>
       </c>
       <c r="M18" t="inlineStr"/>
-      <c r="N18" t="inlineStr">
-        <is>
-          <t>Becky Chambers</t>
-        </is>
-      </c>
+      <c r="N18" t="inlineStr"/>
       <c r="O18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P18" t="inlineStr">
         <is>
-          <t>Histoires de moine et de robot T2 : Une prière pour les cimes timides - Becky Chambers</t>
+          <t>non-fiction</t>
         </is>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
-          <t>fiction/SF</t>
+          <t>technologie</t>
+        </is>
+      </c>
+      <c r="R18" t="inlineStr">
+        <is>
+          <t>Moins de 250</t>
+        </is>
+      </c>
+      <c r="S18" t="inlineStr">
+        <is>
+          <t>Guide de démarrage rapide de KOReader - nan</t>
+        </is>
+      </c>
+      <c r="T18" t="inlineStr">
+        <is>
+          <t>non-fiction/technologie</t>
         </is>
       </c>
     </row>
@@ -1653,40 +1919,44 @@
       <c r="A19" t="inlineStr"/>
       <c r="B19" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>66</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Hommage à la Catalogne</t>
+          <t>Histoires de moine et de robot T2 : Une prière pour les cimes timides</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>George Orwell</t>
+          <t>Becky Chambers</t>
         </is>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>400</v>
-      </c>
-      <c r="G19" t="inlineStr"/>
+        <v>139</v>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>Histoires de moine et de robot #2</t>
+        </is>
+      </c>
       <c r="H19" t="inlineStr">
         <is>
           <t>fr</t>
         </is>
       </c>
       <c r="I19" t="n">
-        <v>12</v>
+        <v>135</v>
       </c>
       <c r="J19" s="2" t="n">
-        <v>45360</v>
+        <v>45558</v>
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>000028</t>
+          <t>000066</t>
         </is>
       </c>
       <c r="L19" t="inlineStr">
@@ -1697,20 +1967,35 @@
       <c r="M19" t="inlineStr"/>
       <c r="N19" t="inlineStr">
         <is>
-          <t>George Orwell</t>
+          <t>Becky Chambers</t>
         </is>
       </c>
       <c r="O19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P19" t="inlineStr">
         <is>
-          <t>Hommage à la Catalogne - George Orwell</t>
+          <t>fiction</t>
         </is>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
-          <t>non-fiction/histoire</t>
+          <t>SF</t>
+        </is>
+      </c>
+      <c r="R19" t="inlineStr">
+        <is>
+          <t>Moins de 250</t>
+        </is>
+      </c>
+      <c r="S19" t="inlineStr">
+        <is>
+          <t>Histoires de moine et de robot T2 : Une prière pour les cimes timides - Becky Chambers</t>
+        </is>
+      </c>
+      <c r="T19" t="inlineStr">
+        <is>
+          <t>fiction/SF</t>
         </is>
       </c>
     </row>
@@ -1718,44 +2003,40 @@
       <c r="A20" t="inlineStr"/>
       <c r="B20" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>28</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Hypérion 1</t>
+          <t>Hommage à la Catalogne</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Dan Simmons</t>
+          <t>George Orwell</t>
         </is>
       </c>
       <c r="E20" t="n">
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>457</v>
-      </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>Les Cantos d'Hyperion #1</t>
-        </is>
-      </c>
+        <v>400</v>
+      </c>
+      <c r="G20" t="inlineStr"/>
       <c r="H20" t="inlineStr">
         <is>
           <t>fr</t>
         </is>
       </c>
       <c r="I20" t="n">
-        <v>414</v>
+        <v>12</v>
       </c>
       <c r="J20" s="2" t="n">
-        <v>45310</v>
+        <v>45360</v>
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>000015</t>
+          <t>000028</t>
         </is>
       </c>
       <c r="L20" t="inlineStr">
@@ -1766,20 +2047,35 @@
       <c r="M20" t="inlineStr"/>
       <c r="N20" t="inlineStr">
         <is>
-          <t>Dan Simmons</t>
+          <t>George Orwell</t>
         </is>
       </c>
       <c r="O20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P20" t="inlineStr">
         <is>
-          <t>Hypérion 1 - Dan Simmons</t>
+          <t>non-fiction</t>
         </is>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
-          <t>fiction/SF</t>
+          <t>histoire</t>
+        </is>
+      </c>
+      <c r="R20" t="inlineStr">
+        <is>
+          <t>250-500</t>
+        </is>
+      </c>
+      <c r="S20" t="inlineStr">
+        <is>
+          <t>Hommage à la Catalogne - George Orwell</t>
+        </is>
+      </c>
+      <c r="T20" t="inlineStr">
+        <is>
+          <t>non-fiction/histoire</t>
         </is>
       </c>
     </row>
@@ -1787,12 +2083,12 @@
       <c r="A21" t="inlineStr"/>
       <c r="B21" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>15</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Hypérion 2</t>
+          <t>Hypérion 1</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -1804,23 +2100,27 @@
         <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>1332</v>
-      </c>
-      <c r="G21" t="inlineStr"/>
+        <v>457</v>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>Les Cantos d'Hyperion #1</t>
+        </is>
+      </c>
       <c r="H21" t="inlineStr">
         <is>
           <t>fr</t>
         </is>
       </c>
       <c r="I21" t="n">
-        <v>1125</v>
+        <v>414</v>
       </c>
       <c r="J21" s="2" t="n">
-        <v>45344</v>
+        <v>45310</v>
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>000023</t>
+          <t>000015</t>
         </is>
       </c>
       <c r="L21" t="inlineStr">
@@ -1839,10 +2139,25 @@
       </c>
       <c r="P21" t="inlineStr">
         <is>
-          <t>Hypérion 2 - Dan Simmons</t>
+          <t>fiction</t>
         </is>
       </c>
       <c r="Q21" t="inlineStr">
+        <is>
+          <t>SF</t>
+        </is>
+      </c>
+      <c r="R21" t="inlineStr">
+        <is>
+          <t>250-500</t>
+        </is>
+      </c>
+      <c r="S21" t="inlineStr">
+        <is>
+          <t>Hypérion 1 - Dan Simmons</t>
+        </is>
+      </c>
+      <c r="T21" t="inlineStr">
         <is>
           <t>fiction/SF</t>
         </is>
@@ -1852,36 +2167,40 @@
       <c r="A22" t="inlineStr"/>
       <c r="B22" t="inlineStr">
         <is>
-          <t>46</t>
+          <t>23</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Héroïsme, tribulations et passe-temps dangereux</t>
+          <t>Hypérion 2</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>J. K. Rowling</t>
+          <t>Dan Simmons</t>
         </is>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>58</v>
+        <v>1332</v>
       </c>
       <c r="G22" t="inlineStr"/>
-      <c r="H22" t="inlineStr"/>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>fr</t>
+        </is>
+      </c>
       <c r="I22" t="n">
-        <v>46</v>
+        <v>1125</v>
       </c>
       <c r="J22" s="2" t="n">
-        <v>45453</v>
+        <v>45344</v>
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>000046</t>
+          <t>000023</t>
         </is>
       </c>
       <c r="L22" t="inlineStr">
@@ -1892,7 +2211,7 @@
       <c r="M22" t="inlineStr"/>
       <c r="N22" t="inlineStr">
         <is>
-          <t>Rowling J.</t>
+          <t>Dan Simmons</t>
         </is>
       </c>
       <c r="O22" t="n">
@@ -1900,12 +2219,27 @@
       </c>
       <c r="P22" t="inlineStr">
         <is>
-          <t>Héroïsme, tribulations et passe-temps dangereux - J. K. Rowling</t>
+          <t>fiction</t>
         </is>
       </c>
       <c r="Q22" t="inlineStr">
         <is>
-          <t>fiction/fantastique</t>
+          <t>SF</t>
+        </is>
+      </c>
+      <c r="R22" t="inlineStr">
+        <is>
+          <t>&gt; 1250, WTF</t>
+        </is>
+      </c>
+      <c r="S22" t="inlineStr">
+        <is>
+          <t>Hypérion 2 - Dan Simmons</t>
+        </is>
+      </c>
+      <c r="T22" t="inlineStr">
+        <is>
+          <t>fiction/SF</t>
         </is>
       </c>
     </row>
@@ -1913,44 +2247,36 @@
       <c r="A23" t="inlineStr"/>
       <c r="B23" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>46</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Janua Vera</t>
+          <t>Héroïsme, tribulations et passe-temps dangereux</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Jean-Philippe Jaworski</t>
+          <t>J. K. Rowling</t>
         </is>
       </c>
       <c r="E23" t="n">
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>744</v>
-      </c>
-      <c r="G23" t="inlineStr">
-        <is>
-          <t>Récits du Vieux Royaume #1</t>
-        </is>
-      </c>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t>fr</t>
-        </is>
-      </c>
+        <v>58</v>
+      </c>
+      <c r="G23" t="inlineStr"/>
+      <c r="H23" t="inlineStr"/>
       <c r="I23" t="n">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J23" s="2" t="n">
-        <v>45450</v>
+        <v>45453</v>
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>000045</t>
+          <t>000046</t>
         </is>
       </c>
       <c r="L23" t="inlineStr">
@@ -1961,20 +2287,35 @@
       <c r="M23" t="inlineStr"/>
       <c r="N23" t="inlineStr">
         <is>
-          <t>Jean-Philippe Jaworski</t>
+          <t>Rowling J.</t>
         </is>
       </c>
       <c r="O23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P23" t="inlineStr">
         <is>
-          <t>Janua Vera - Jean-Philippe Jaworski</t>
+          <t>fiction</t>
         </is>
       </c>
       <c r="Q23" t="inlineStr">
         <is>
-          <t>fiction/fantasy</t>
+          <t>fantastique</t>
+        </is>
+      </c>
+      <c r="R23" t="inlineStr">
+        <is>
+          <t>Moins de 250</t>
+        </is>
+      </c>
+      <c r="S23" t="inlineStr">
+        <is>
+          <t>Héroïsme, tribulations et passe-temps dangereux - J. K. Rowling</t>
+        </is>
+      </c>
+      <c r="T23" t="inlineStr">
+        <is>
+          <t>fiction/fantastique</t>
         </is>
       </c>
     </row>
@@ -1982,53 +2323,55 @@
       <c r="A24" t="inlineStr"/>
       <c r="B24" t="inlineStr">
         <is>
-          <t>A11</t>
+          <t>45</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Je suis une légende</t>
+          <t>Janua Vera</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Richard Matheson</t>
+          <t>Jean-Philippe Jaworski</t>
         </is>
       </c>
       <c r="E24" t="n">
         <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
-      </c>
-      <c r="G24" t="inlineStr"/>
+        <v>744</v>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>Récits du Vieux Royaume #1</t>
+        </is>
+      </c>
       <c r="H24" t="inlineStr">
         <is>
           <t>fr</t>
         </is>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>47</v>
       </c>
       <c r="J24" s="2" t="n">
-        <v>45177</v>
+        <v>45450</v>
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>A11</t>
+          <t>000045</t>
         </is>
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>papier</t>
-        </is>
-      </c>
-      <c r="M24" t="n">
-        <v>1</v>
-      </c>
+          <t>ebook</t>
+        </is>
+      </c>
+      <c r="M24" t="inlineStr"/>
       <c r="N24" t="inlineStr">
         <is>
-          <t>Richard Matheson</t>
+          <t>Jean-Philippe Jaworski</t>
         </is>
       </c>
       <c r="O24" t="n">
@@ -2036,12 +2379,27 @@
       </c>
       <c r="P24" t="inlineStr">
         <is>
-          <t>Je suis une légende - Richard Matheson</t>
+          <t>fiction</t>
         </is>
       </c>
       <c r="Q24" t="inlineStr">
         <is>
-          <t>fiction/SF</t>
+          <t>fantasy</t>
+        </is>
+      </c>
+      <c r="R24" t="inlineStr">
+        <is>
+          <t>500-750</t>
+        </is>
+      </c>
+      <c r="S24" t="inlineStr">
+        <is>
+          <t>Janua Vera - Jean-Philippe Jaworski</t>
+        </is>
+      </c>
+      <c r="T24" t="inlineStr">
+        <is>
+          <t>fiction/fantasy</t>
         </is>
       </c>
     </row>
@@ -2049,52 +2407,81 @@
       <c r="A25" t="inlineStr"/>
       <c r="B25" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>A11</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>KOReader Quickstart Guide</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr"/>
+          <t>Je suis une légende</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>Richard Matheson</t>
+        </is>
+      </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="G25" t="inlineStr"/>
-      <c r="H25" t="inlineStr"/>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>fr</t>
+        </is>
+      </c>
       <c r="I25" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J25" s="2" t="n">
-        <v>45251</v>
+        <v>45177</v>
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>00001</t>
+          <t>A11</t>
         </is>
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>ebook</t>
-        </is>
-      </c>
-      <c r="M25" t="inlineStr"/>
-      <c r="N25" t="inlineStr"/>
+          <t>papier</t>
+        </is>
+      </c>
+      <c r="M25" t="n">
+        <v>1</v>
+      </c>
+      <c r="N25" t="inlineStr">
+        <is>
+          <t>Richard Matheson</t>
+        </is>
+      </c>
       <c r="O25" t="n">
         <v>0</v>
       </c>
       <c r="P25" t="inlineStr">
         <is>
-          <t>KOReader Quickstart Guide - nan</t>
+          <t>fiction</t>
         </is>
       </c>
       <c r="Q25" t="inlineStr">
         <is>
-          <t>non-fiction/technologie</t>
+          <t>SF</t>
+        </is>
+      </c>
+      <c r="R25" t="inlineStr">
+        <is>
+          <t>Moins de 250</t>
+        </is>
+      </c>
+      <c r="S25" t="inlineStr">
+        <is>
+          <t>Je suis une légende - Richard Matheson</t>
+        </is>
+      </c>
+      <c r="T25" t="inlineStr">
+        <is>
+          <t>fiction/SF</t>
         </is>
       </c>
     </row>
@@ -2102,66 +2489,67 @@
       <c r="A26" t="inlineStr"/>
       <c r="B26" t="inlineStr">
         <is>
-          <t>A12</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>L'Ickabog</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>J K Rowling</t>
-        </is>
-      </c>
+          <t>KOReader Quickstart Guide</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr"/>
       <c r="E26" t="n">
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="G26" t="inlineStr"/>
-      <c r="H26" t="inlineStr">
-        <is>
-          <t>fr</t>
-        </is>
-      </c>
+      <c r="H26" t="inlineStr"/>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J26" s="2" t="n">
-        <v>45162</v>
+        <v>45251</v>
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>A12</t>
+          <t>00001</t>
         </is>
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>papier</t>
-        </is>
-      </c>
-      <c r="M26" t="n">
-        <v>1</v>
-      </c>
-      <c r="N26" t="inlineStr">
-        <is>
-          <t>Rowling J</t>
-        </is>
-      </c>
+          <t>ebook</t>
+        </is>
+      </c>
+      <c r="M26" t="inlineStr"/>
+      <c r="N26" t="inlineStr"/>
       <c r="O26" t="n">
         <v>0</v>
       </c>
       <c r="P26" t="inlineStr">
         <is>
-          <t>L'Ickabog - J K Rowling</t>
+          <t>non-fiction</t>
         </is>
       </c>
       <c r="Q26" t="inlineStr">
         <is>
-          <t>fiction/fantasy</t>
+          <t>technologie</t>
+        </is>
+      </c>
+      <c r="R26" t="inlineStr">
+        <is>
+          <t>Moins de 250</t>
+        </is>
+      </c>
+      <c r="S26" t="inlineStr">
+        <is>
+          <t>KOReader Quickstart Guide - nan</t>
+        </is>
+      </c>
+      <c r="T26" t="inlineStr">
+        <is>
+          <t>non-fiction/technologie</t>
         </is>
       </c>
     </row>
@@ -2169,24 +2557,24 @@
       <c r="A27" t="inlineStr"/>
       <c r="B27" t="inlineStr">
         <is>
-          <t>A25</t>
+          <t>A12</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>L'Océan au bout du chemin</t>
+          <t>L'Ickabog</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Neil Gaiman</t>
+          <t>J K Rowling</t>
         </is>
       </c>
       <c r="E27" t="n">
         <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>181</v>
+        <v>0</v>
       </c>
       <c r="G27" t="inlineStr"/>
       <c r="H27" t="inlineStr">
@@ -2195,14 +2583,14 @@
         </is>
       </c>
       <c r="I27" t="n">
-        <v>181</v>
+        <v>0</v>
       </c>
       <c r="J27" s="2" t="n">
-        <v>44962</v>
+        <v>45162</v>
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>A25</t>
+          <t>A12</t>
         </is>
       </c>
       <c r="L27" t="inlineStr">
@@ -2215,20 +2603,35 @@
       </c>
       <c r="N27" t="inlineStr">
         <is>
-          <t>Neil Gaiman</t>
+          <t>Rowling J</t>
         </is>
       </c>
       <c r="O27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P27" t="inlineStr">
         <is>
-          <t>L'Océan au bout du chemin - Neil Gaiman</t>
+          <t>fiction</t>
         </is>
       </c>
       <c r="Q27" t="inlineStr">
         <is>
-          <t>fiction/fantastique</t>
+          <t>fantasy</t>
+        </is>
+      </c>
+      <c r="R27" t="inlineStr">
+        <is>
+          <t>Moins de 250</t>
+        </is>
+      </c>
+      <c r="S27" t="inlineStr">
+        <is>
+          <t>L'Ickabog - J K Rowling</t>
+        </is>
+      </c>
+      <c r="T27" t="inlineStr">
+        <is>
+          <t>fiction/fantasy</t>
         </is>
       </c>
     </row>
@@ -2236,24 +2639,24 @@
       <c r="A28" t="inlineStr"/>
       <c r="B28" t="inlineStr">
         <is>
-          <t>53</t>
+          <t>A25</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>L'hôtel de verre</t>
+          <t>L'Océan au bout du chemin</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Emily St. John Mandel</t>
+          <t>Neil Gaiman</t>
         </is>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>462</v>
+        <v>181</v>
       </c>
       <c r="G28" t="inlineStr"/>
       <c r="H28" t="inlineStr">
@@ -2262,25 +2665,27 @@
         </is>
       </c>
       <c r="I28" t="n">
-        <v>435</v>
+        <v>181</v>
       </c>
       <c r="J28" s="2" t="n">
-        <v>45472</v>
+        <v>44962</v>
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>000053</t>
+          <t>A25</t>
         </is>
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>ebook</t>
-        </is>
-      </c>
-      <c r="M28" t="inlineStr"/>
+          <t>papier</t>
+        </is>
+      </c>
+      <c r="M28" t="n">
+        <v>1</v>
+      </c>
       <c r="N28" t="inlineStr">
         <is>
-          <t>Emily St.</t>
+          <t>Neil Gaiman</t>
         </is>
       </c>
       <c r="O28" t="n">
@@ -2288,10 +2693,25 @@
       </c>
       <c r="P28" t="inlineStr">
         <is>
-          <t>L'hôtel de verre - Emily St. John Mandel</t>
+          <t>fiction</t>
         </is>
       </c>
       <c r="Q28" t="inlineStr">
+        <is>
+          <t>fantastique</t>
+        </is>
+      </c>
+      <c r="R28" t="inlineStr">
+        <is>
+          <t>Moins de 250</t>
+        </is>
+      </c>
+      <c r="S28" t="inlineStr">
+        <is>
+          <t>L'Océan au bout du chemin - Neil Gaiman</t>
+        </is>
+      </c>
+      <c r="T28" t="inlineStr">
         <is>
           <t>fiction/fantastique</t>
         </is>
@@ -2301,24 +2721,24 @@
       <c r="A29" t="inlineStr"/>
       <c r="B29" t="inlineStr">
         <is>
-          <t>A38</t>
+          <t>53</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>L'étrange vie de Nobody Owens</t>
+          <t>L'hôtel de verre</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Neil Gaiman</t>
+          <t>Emily St. John Mandel</t>
         </is>
       </c>
       <c r="E29" t="n">
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>250</v>
+        <v>462</v>
       </c>
       <c r="G29" t="inlineStr"/>
       <c r="H29" t="inlineStr">
@@ -2327,27 +2747,25 @@
         </is>
       </c>
       <c r="I29" t="n">
-        <v>250</v>
+        <v>435</v>
       </c>
       <c r="J29" s="2" t="n">
-        <v>44617</v>
+        <v>45472</v>
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>A38</t>
+          <t>000053</t>
         </is>
       </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>papier</t>
-        </is>
-      </c>
-      <c r="M29" t="n">
-        <v>1</v>
-      </c>
+          <t>ebook</t>
+        </is>
+      </c>
+      <c r="M29" t="inlineStr"/>
       <c r="N29" t="inlineStr">
         <is>
-          <t>Neil Gaiman</t>
+          <t>Emily St.</t>
         </is>
       </c>
       <c r="O29" t="n">
@@ -2355,10 +2773,25 @@
       </c>
       <c r="P29" t="inlineStr">
         <is>
-          <t>L'étrange vie de Nobody Owens - Neil Gaiman</t>
+          <t>fiction</t>
         </is>
       </c>
       <c r="Q29" t="inlineStr">
+        <is>
+          <t>fantastique</t>
+        </is>
+      </c>
+      <c r="R29" t="inlineStr">
+        <is>
+          <t>250-500</t>
+        </is>
+      </c>
+      <c r="S29" t="inlineStr">
+        <is>
+          <t>L'hôtel de verre - Emily St. John Mandel</t>
+        </is>
+      </c>
+      <c r="T29" t="inlineStr">
         <is>
           <t>fiction/fantastique</t>
         </is>
@@ -2368,24 +2801,24 @@
       <c r="A30" t="inlineStr"/>
       <c r="B30" t="inlineStr">
         <is>
-          <t>A41</t>
+          <t>A38</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>La Belgariade T1 - Le pion blanc des présages</t>
+          <t>L'étrange vie de Nobody Owens</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>David Eddings</t>
+          <t>Neil Gaiman</t>
         </is>
       </c>
       <c r="E30" t="n">
         <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>440</v>
+        <v>250</v>
       </c>
       <c r="G30" t="inlineStr"/>
       <c r="H30" t="inlineStr">
@@ -2394,14 +2827,14 @@
         </is>
       </c>
       <c r="I30" t="n">
-        <v>440</v>
+        <v>250</v>
       </c>
       <c r="J30" s="2" t="n">
-        <v>44571</v>
+        <v>44617</v>
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>A41</t>
+          <t>A38</t>
         </is>
       </c>
       <c r="L30" t="inlineStr">
@@ -2414,7 +2847,7 @@
       </c>
       <c r="N30" t="inlineStr">
         <is>
-          <t>David Eddings</t>
+          <t>Neil Gaiman</t>
         </is>
       </c>
       <c r="O30" t="n">
@@ -2422,12 +2855,27 @@
       </c>
       <c r="P30" t="inlineStr">
         <is>
-          <t>La Belgariade T1 - Le pion blanc des présages - David Eddings</t>
+          <t>fiction</t>
         </is>
       </c>
       <c r="Q30" t="inlineStr">
         <is>
-          <t>fiction/fantasy</t>
+          <t>fantastique</t>
+        </is>
+      </c>
+      <c r="R30" t="inlineStr">
+        <is>
+          <t>Moins de 250</t>
+        </is>
+      </c>
+      <c r="S30" t="inlineStr">
+        <is>
+          <t>L'étrange vie de Nobody Owens - Neil Gaiman</t>
+        </is>
+      </c>
+      <c r="T30" t="inlineStr">
+        <is>
+          <t>fiction/fantastique</t>
         </is>
       </c>
     </row>
@@ -2435,24 +2883,24 @@
       <c r="A31" t="inlineStr"/>
       <c r="B31" t="inlineStr">
         <is>
-          <t>A26</t>
+          <t>A41</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>La Guerre des clans #1 - Retour à l'état sauvage</t>
+          <t>La Belgariade T1 - Le pion blanc des présages</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Erin Hunter</t>
+          <t>David Eddings</t>
         </is>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>306</v>
+        <v>440</v>
       </c>
       <c r="G31" t="inlineStr"/>
       <c r="H31" t="inlineStr">
@@ -2461,14 +2909,14 @@
         </is>
       </c>
       <c r="I31" t="n">
-        <v>306</v>
+        <v>440</v>
       </c>
       <c r="J31" s="2" t="n">
-        <v>44956</v>
+        <v>44571</v>
       </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>A26</t>
+          <t>A41</t>
         </is>
       </c>
       <c r="L31" t="inlineStr">
@@ -2481,7 +2929,7 @@
       </c>
       <c r="N31" t="inlineStr">
         <is>
-          <t>Erin Hunter</t>
+          <t>David Eddings</t>
         </is>
       </c>
       <c r="O31" t="n">
@@ -2489,10 +2937,25 @@
       </c>
       <c r="P31" t="inlineStr">
         <is>
-          <t>La Guerre des clans #1 - Retour à l'état sauvage - Erin Hunter</t>
+          <t>fiction</t>
         </is>
       </c>
       <c r="Q31" t="inlineStr">
+        <is>
+          <t>fantasy</t>
+        </is>
+      </c>
+      <c r="R31" t="inlineStr">
+        <is>
+          <t>250-500</t>
+        </is>
+      </c>
+      <c r="S31" t="inlineStr">
+        <is>
+          <t>La Belgariade T1 - Le pion blanc des présages - David Eddings</t>
+        </is>
+      </c>
+      <c r="T31" t="inlineStr">
         <is>
           <t>fiction/fantasy</t>
         </is>
@@ -2502,24 +2965,24 @@
       <c r="A32" t="inlineStr"/>
       <c r="B32" t="inlineStr">
         <is>
-          <t>A31</t>
+          <t>A26</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>La Guerre éternelle #1</t>
+          <t>La Guerre des clans #1 - Retour à l'état sauvage</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Joe Haldeman</t>
+          <t>Erin Hunter</t>
         </is>
       </c>
       <c r="E32" t="n">
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>281</v>
+        <v>306</v>
       </c>
       <c r="G32" t="inlineStr"/>
       <c r="H32" t="inlineStr">
@@ -2528,14 +2991,14 @@
         </is>
       </c>
       <c r="I32" t="n">
-        <v>281</v>
+        <v>306</v>
       </c>
       <c r="J32" s="2" t="n">
-        <v>44878</v>
+        <v>44956</v>
       </c>
       <c r="K32" t="inlineStr">
         <is>
-          <t>A31</t>
+          <t>A26</t>
         </is>
       </c>
       <c r="L32" t="inlineStr">
@@ -2548,7 +3011,7 @@
       </c>
       <c r="N32" t="inlineStr">
         <is>
-          <t>Joe Haldeman</t>
+          <t>Erin Hunter</t>
         </is>
       </c>
       <c r="O32" t="n">
@@ -2556,12 +3019,27 @@
       </c>
       <c r="P32" t="inlineStr">
         <is>
-          <t>La Guerre éternelle #1 - Joe Haldeman</t>
+          <t>fiction</t>
         </is>
       </c>
       <c r="Q32" t="inlineStr">
         <is>
-          <t>fiction/SF</t>
+          <t>fantasy</t>
+        </is>
+      </c>
+      <c r="R32" t="inlineStr">
+        <is>
+          <t>250-500</t>
+        </is>
+      </c>
+      <c r="S32" t="inlineStr">
+        <is>
+          <t>La Guerre des clans #1 - Retour à l'état sauvage - Erin Hunter</t>
+        </is>
+      </c>
+      <c r="T32" t="inlineStr">
+        <is>
+          <t>fiction/fantasy</t>
         </is>
       </c>
     </row>
@@ -2569,24 +3047,24 @@
       <c r="A33" t="inlineStr"/>
       <c r="B33" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>A31</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>La chute d'Hypérion</t>
+          <t>La Guerre éternelle #1</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Dan Simmons</t>
+          <t>Joe Haldeman</t>
         </is>
       </c>
       <c r="E33" t="n">
         <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>765</v>
+        <v>281</v>
       </c>
       <c r="G33" t="inlineStr"/>
       <c r="H33" t="inlineStr">
@@ -2595,36 +3073,53 @@
         </is>
       </c>
       <c r="I33" t="n">
-        <v>2</v>
+        <v>281</v>
       </c>
       <c r="J33" s="2" t="n">
-        <v>45326</v>
+        <v>44878</v>
       </c>
       <c r="K33" t="inlineStr">
         <is>
-          <t>000022</t>
+          <t>A31</t>
         </is>
       </c>
       <c r="L33" t="inlineStr">
         <is>
-          <t>ebook</t>
-        </is>
-      </c>
-      <c r="M33" t="inlineStr"/>
+          <t>papier</t>
+        </is>
+      </c>
+      <c r="M33" t="n">
+        <v>1</v>
+      </c>
       <c r="N33" t="inlineStr">
         <is>
-          <t>Dan Simmons</t>
+          <t>Joe Haldeman</t>
         </is>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P33" t="inlineStr">
         <is>
-          <t>La chute d'Hypérion - Dan Simmons</t>
+          <t>fiction</t>
         </is>
       </c>
       <c r="Q33" t="inlineStr">
+        <is>
+          <t>SF</t>
+        </is>
+      </c>
+      <c r="R33" t="inlineStr">
+        <is>
+          <t>250-500</t>
+        </is>
+      </c>
+      <c r="S33" t="inlineStr">
+        <is>
+          <t>La Guerre éternelle #1 - Joe Haldeman</t>
+        </is>
+      </c>
+      <c r="T33" t="inlineStr">
         <is>
           <t>fiction/SF</t>
         </is>
@@ -2634,24 +3129,24 @@
       <c r="A34" t="inlineStr"/>
       <c r="B34" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>22</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>La faune de l'espace</t>
+          <t>La chute d'Hypérion</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Van Vogt,Alfred E</t>
+          <t>Dan Simmons</t>
         </is>
       </c>
       <c r="E34" t="n">
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>809</v>
+        <v>765</v>
       </c>
       <c r="G34" t="inlineStr"/>
       <c r="H34" t="inlineStr">
@@ -2660,14 +3155,14 @@
         </is>
       </c>
       <c r="I34" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J34" s="2" t="n">
-        <v>45299</v>
+        <v>45326</v>
       </c>
       <c r="K34" t="inlineStr">
         <is>
-          <t>000011</t>
+          <t>000022</t>
         </is>
       </c>
       <c r="L34" t="inlineStr">
@@ -2678,7 +3173,7 @@
       <c r="M34" t="inlineStr"/>
       <c r="N34" t="inlineStr">
         <is>
-          <t>Van Vogt,Alfred</t>
+          <t>Dan Simmons</t>
         </is>
       </c>
       <c r="O34" t="n">
@@ -2686,10 +3181,25 @@
       </c>
       <c r="P34" t="inlineStr">
         <is>
-          <t>La faune de l'espace - Van Vogt,Alfred E</t>
+          <t>fiction</t>
         </is>
       </c>
       <c r="Q34" t="inlineStr">
+        <is>
+          <t>SF</t>
+        </is>
+      </c>
+      <c r="R34" t="inlineStr">
+        <is>
+          <t>750-1000</t>
+        </is>
+      </c>
+      <c r="S34" t="inlineStr">
+        <is>
+          <t>La chute d'Hypérion - Dan Simmons</t>
+        </is>
+      </c>
+      <c r="T34" t="inlineStr">
         <is>
           <t>fiction/SF</t>
         </is>
@@ -2753,10 +3263,25 @@
       </c>
       <c r="P35" t="inlineStr">
         <is>
+          <t>fiction</t>
+        </is>
+      </c>
+      <c r="Q35" t="inlineStr">
+        <is>
+          <t>SF</t>
+        </is>
+      </c>
+      <c r="R35" t="inlineStr">
+        <is>
+          <t>Moins de 250</t>
+        </is>
+      </c>
+      <c r="S35" t="inlineStr">
+        <is>
           <t>La faune de l'espace - A.E Van Vogt</t>
         </is>
       </c>
-      <c r="Q35" t="inlineStr">
+      <c r="T35" t="inlineStr">
         <is>
           <t>fiction/SF</t>
         </is>
@@ -2766,24 +3291,24 @@
       <c r="A36" t="inlineStr"/>
       <c r="B36" t="inlineStr">
         <is>
-          <t>55</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>La mer de la tranquillité</t>
+          <t>La faune de l'espace</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Emily St. John Mandel</t>
+          <t>Van Vogt,Alfred E</t>
         </is>
       </c>
       <c r="E36" t="n">
         <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>342</v>
+        <v>809</v>
       </c>
       <c r="G36" t="inlineStr"/>
       <c r="H36" t="inlineStr">
@@ -2792,14 +3317,14 @@
         </is>
       </c>
       <c r="I36" t="n">
-        <v>325</v>
+        <v>1</v>
       </c>
       <c r="J36" s="2" t="n">
-        <v>45480</v>
+        <v>45299</v>
       </c>
       <c r="K36" t="inlineStr">
         <is>
-          <t>000055</t>
+          <t>000011</t>
         </is>
       </c>
       <c r="L36" t="inlineStr">
@@ -2810,18 +3335,33 @@
       <c r="M36" t="inlineStr"/>
       <c r="N36" t="inlineStr">
         <is>
-          <t>Emily St.</t>
+          <t>Van Vogt,Alfred</t>
         </is>
       </c>
       <c r="O36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P36" t="inlineStr">
         <is>
-          <t>La mer de la tranquillité - Emily St. John Mandel</t>
+          <t>fiction</t>
         </is>
       </c>
       <c r="Q36" t="inlineStr">
+        <is>
+          <t>SF</t>
+        </is>
+      </c>
+      <c r="R36" t="inlineStr">
+        <is>
+          <t>750-1000</t>
+        </is>
+      </c>
+      <c r="S36" t="inlineStr">
+        <is>
+          <t>La faune de l'espace - Van Vogt,Alfred E</t>
+        </is>
+      </c>
+      <c r="T36" t="inlineStr">
         <is>
           <t>fiction/SF</t>
         </is>
@@ -2831,40 +3371,40 @@
       <c r="A37" t="inlineStr"/>
       <c r="B37" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>55</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>La nuit des temps</t>
+          <t>La mer de la tranquillité</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Barjavel,René</t>
+          <t>Emily St. John Mandel</t>
         </is>
       </c>
       <c r="E37" t="n">
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>449</v>
+        <v>342</v>
       </c>
       <c r="G37" t="inlineStr"/>
       <c r="H37" t="inlineStr">
         <is>
-          <t>und</t>
+          <t>fr</t>
         </is>
       </c>
       <c r="I37" t="n">
-        <v>288</v>
+        <v>325</v>
       </c>
       <c r="J37" s="2" t="n">
-        <v>45299</v>
+        <v>45480</v>
       </c>
       <c r="K37" t="inlineStr">
         <is>
-          <t>00004</t>
+          <t>000055</t>
         </is>
       </c>
       <c r="L37" t="inlineStr">
@@ -2875,7 +3415,7 @@
       <c r="M37" t="inlineStr"/>
       <c r="N37" t="inlineStr">
         <is>
-          <t>Barjavel,René</t>
+          <t>Emily St.</t>
         </is>
       </c>
       <c r="O37" t="n">
@@ -2883,10 +3423,25 @@
       </c>
       <c r="P37" t="inlineStr">
         <is>
-          <t>La nuit des temps - Barjavel,René</t>
+          <t>fiction</t>
         </is>
       </c>
       <c r="Q37" t="inlineStr">
+        <is>
+          <t>SF</t>
+        </is>
+      </c>
+      <c r="R37" t="inlineStr">
+        <is>
+          <t>250-500</t>
+        </is>
+      </c>
+      <c r="S37" t="inlineStr">
+        <is>
+          <t>La mer de la tranquillité - Emily St. John Mandel</t>
+        </is>
+      </c>
+      <c r="T37" t="inlineStr">
         <is>
           <t>fiction/SF</t>
         </is>
@@ -2948,10 +3503,25 @@
       </c>
       <c r="P38" t="inlineStr">
         <is>
+          <t>fiction</t>
+        </is>
+      </c>
+      <c r="Q38" t="inlineStr">
+        <is>
+          <t>SF</t>
+        </is>
+      </c>
+      <c r="R38" t="inlineStr">
+        <is>
+          <t>250-500</t>
+        </is>
+      </c>
+      <c r="S38" t="inlineStr">
+        <is>
           <t>La nuit des temps - René Barjavel</t>
         </is>
       </c>
-      <c r="Q38" t="inlineStr">
+      <c r="T38" t="inlineStr">
         <is>
           <t>fiction/SF</t>
         </is>
@@ -2961,53 +3531,51 @@
       <c r="A39" t="inlineStr"/>
       <c r="B39" t="inlineStr">
         <is>
-          <t>A14</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>La part des Ombres 1</t>
+          <t>La nuit des temps</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Gabriel Katz</t>
+          <t>Barjavel,René</t>
         </is>
       </c>
       <c r="E39" t="n">
         <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>346</v>
+        <v>449</v>
       </c>
       <c r="G39" t="inlineStr"/>
       <c r="H39" t="inlineStr">
         <is>
-          <t>fr</t>
+          <t>und</t>
         </is>
       </c>
       <c r="I39" t="n">
-        <v>346</v>
+        <v>288</v>
       </c>
       <c r="J39" s="2" t="n">
-        <v>45143</v>
+        <v>45299</v>
       </c>
       <c r="K39" t="inlineStr">
         <is>
-          <t>A14</t>
+          <t>00004</t>
         </is>
       </c>
       <c r="L39" t="inlineStr">
         <is>
-          <t>papier</t>
-        </is>
-      </c>
-      <c r="M39" t="n">
-        <v>1</v>
-      </c>
+          <t>ebook</t>
+        </is>
+      </c>
+      <c r="M39" t="inlineStr"/>
       <c r="N39" t="inlineStr">
         <is>
-          <t>Gabriel Katz</t>
+          <t>Barjavel,René</t>
         </is>
       </c>
       <c r="O39" t="n">
@@ -3015,12 +3583,27 @@
       </c>
       <c r="P39" t="inlineStr">
         <is>
-          <t>La part des Ombres 1 - Gabriel Katz</t>
+          <t>fiction</t>
         </is>
       </c>
       <c r="Q39" t="inlineStr">
         <is>
-          <t>fiction/fantasy</t>
+          <t>SF</t>
+        </is>
+      </c>
+      <c r="R39" t="inlineStr">
+        <is>
+          <t>250-500</t>
+        </is>
+      </c>
+      <c r="S39" t="inlineStr">
+        <is>
+          <t>La nuit des temps - Barjavel,René</t>
+        </is>
+      </c>
+      <c r="T39" t="inlineStr">
+        <is>
+          <t>fiction/SF</t>
         </is>
       </c>
     </row>
@@ -3028,55 +3611,53 @@
       <c r="A40" t="inlineStr"/>
       <c r="B40" t="inlineStr">
         <is>
-          <t>37</t>
+          <t>A14</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Le Chasch</t>
+          <t>La part des Ombres 1</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Vance,Jack</t>
+          <t>Gabriel Katz</t>
         </is>
       </c>
       <c r="E40" t="n">
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>266</v>
-      </c>
-      <c r="G40" t="inlineStr">
-        <is>
-          <t>Cycle de Tschaï #1</t>
-        </is>
-      </c>
+        <v>346</v>
+      </c>
+      <c r="G40" t="inlineStr"/>
       <c r="H40" t="inlineStr">
         <is>
           <t>fr</t>
         </is>
       </c>
       <c r="I40" t="n">
-        <v>260</v>
+        <v>346</v>
       </c>
       <c r="J40" s="2" t="n">
-        <v>45415</v>
+        <v>45143</v>
       </c>
       <c r="K40" t="inlineStr">
         <is>
-          <t>000037</t>
+          <t>A14</t>
         </is>
       </c>
       <c r="L40" t="inlineStr">
         <is>
-          <t>ebook</t>
-        </is>
-      </c>
-      <c r="M40" t="inlineStr"/>
+          <t>papier</t>
+        </is>
+      </c>
+      <c r="M40" t="n">
+        <v>1</v>
+      </c>
       <c r="N40" t="inlineStr">
         <is>
-          <t>Vance,Jack</t>
+          <t>Gabriel Katz</t>
         </is>
       </c>
       <c r="O40" t="n">
@@ -3084,12 +3665,27 @@
       </c>
       <c r="P40" t="inlineStr">
         <is>
-          <t>Le Chasch - Vance,Jack</t>
+          <t>fiction</t>
         </is>
       </c>
       <c r="Q40" t="inlineStr">
         <is>
-          <t>fiction/SF</t>
+          <t>fantasy</t>
+        </is>
+      </c>
+      <c r="R40" t="inlineStr">
+        <is>
+          <t>250-500</t>
+        </is>
+      </c>
+      <c r="S40" t="inlineStr">
+        <is>
+          <t>La part des Ombres 1 - Gabriel Katz</t>
+        </is>
+      </c>
+      <c r="T40" t="inlineStr">
+        <is>
+          <t>fiction/fantasy</t>
         </is>
       </c>
     </row>
@@ -3097,53 +3693,55 @@
       <c r="A41" t="inlineStr"/>
       <c r="B41" t="inlineStr">
         <is>
-          <t>A5</t>
+          <t>37</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Le Crime de l'Orient-Express</t>
+          <t>Le Chasch</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>Agatha Christie</t>
+          <t>Vance,Jack</t>
         </is>
       </c>
       <c r="E41" t="n">
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>44</v>
-      </c>
-      <c r="G41" t="inlineStr"/>
+        <v>266</v>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>Cycle de Tschaï #1</t>
+        </is>
+      </c>
       <c r="H41" t="inlineStr">
         <is>
           <t>fr</t>
         </is>
       </c>
       <c r="I41" t="n">
-        <v>44</v>
+        <v>260</v>
       </c>
       <c r="J41" s="2" t="n">
-        <v>45257</v>
+        <v>45415</v>
       </c>
       <c r="K41" t="inlineStr">
         <is>
-          <t>A5</t>
+          <t>000037</t>
         </is>
       </c>
       <c r="L41" t="inlineStr">
         <is>
-          <t>papier</t>
-        </is>
-      </c>
-      <c r="M41" t="n">
-        <v>1</v>
-      </c>
+          <t>ebook</t>
+        </is>
+      </c>
+      <c r="M41" t="inlineStr"/>
       <c r="N41" t="inlineStr">
         <is>
-          <t>Agatha Christie</t>
+          <t>Vance,Jack</t>
         </is>
       </c>
       <c r="O41" t="n">
@@ -3151,12 +3749,27 @@
       </c>
       <c r="P41" t="inlineStr">
         <is>
-          <t>Le Crime de l'Orient-Express - Agatha Christie</t>
+          <t>fiction</t>
         </is>
       </c>
       <c r="Q41" t="inlineStr">
         <is>
-          <t>fiction/policier</t>
+          <t>SF</t>
+        </is>
+      </c>
+      <c r="R41" t="inlineStr">
+        <is>
+          <t>250-500</t>
+        </is>
+      </c>
+      <c r="S41" t="inlineStr">
+        <is>
+          <t>Le Chasch - Vance,Jack</t>
+        </is>
+      </c>
+      <c r="T41" t="inlineStr">
+        <is>
+          <t>fiction/SF</t>
         </is>
       </c>
     </row>
@@ -3164,24 +3777,24 @@
       <c r="A42" t="inlineStr"/>
       <c r="B42" t="inlineStr">
         <is>
-          <t>A30</t>
+          <t>A5</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Le Meilleur des mondes</t>
+          <t>Le Crime de l'Orient-Express</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Aldous Huxley</t>
+          <t>Agatha Christie</t>
         </is>
       </c>
       <c r="E42" t="n">
         <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>285</v>
+        <v>44</v>
       </c>
       <c r="G42" t="inlineStr"/>
       <c r="H42" t="inlineStr">
@@ -3190,14 +3803,14 @@
         </is>
       </c>
       <c r="I42" t="n">
-        <v>285</v>
+        <v>44</v>
       </c>
       <c r="J42" s="2" t="n">
-        <v>44893</v>
+        <v>45257</v>
       </c>
       <c r="K42" t="inlineStr">
         <is>
-          <t>A30</t>
+          <t>A5</t>
         </is>
       </c>
       <c r="L42" t="inlineStr">
@@ -3210,7 +3823,7 @@
       </c>
       <c r="N42" t="inlineStr">
         <is>
-          <t>Aldous Huxley</t>
+          <t>Agatha Christie</t>
         </is>
       </c>
       <c r="O42" t="n">
@@ -3218,12 +3831,27 @@
       </c>
       <c r="P42" t="inlineStr">
         <is>
-          <t>Le Meilleur des mondes - Aldous Huxley</t>
+          <t>fiction</t>
         </is>
       </c>
       <c r="Q42" t="inlineStr">
         <is>
-          <t>fiction/SF</t>
+          <t>policier</t>
+        </is>
+      </c>
+      <c r="R42" t="inlineStr">
+        <is>
+          <t>Moins de 250</t>
+        </is>
+      </c>
+      <c r="S42" t="inlineStr">
+        <is>
+          <t>Le Crime de l'Orient-Express - Agatha Christie</t>
+        </is>
+      </c>
+      <c r="T42" t="inlineStr">
+        <is>
+          <t>fiction/policier</t>
         </is>
       </c>
     </row>
@@ -3231,24 +3859,24 @@
       <c r="A43" t="inlineStr"/>
       <c r="B43" t="inlineStr">
         <is>
-          <t>A36</t>
+          <t>A30</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Le Monde du fleuve - Le Fleuve de l'éternité, tome 1</t>
+          <t>Le Meilleur des mondes</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>Philip José Farmer</t>
+          <t>Aldous Huxley</t>
         </is>
       </c>
       <c r="E43" t="n">
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="G43" t="inlineStr"/>
       <c r="H43" t="inlineStr">
@@ -3257,14 +3885,14 @@
         </is>
       </c>
       <c r="I43" t="n">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="J43" s="2" t="n">
-        <v>44722</v>
+        <v>44893</v>
       </c>
       <c r="K43" t="inlineStr">
         <is>
-          <t>A36</t>
+          <t>A30</t>
         </is>
       </c>
       <c r="L43" t="inlineStr">
@@ -3277,7 +3905,7 @@
       </c>
       <c r="N43" t="inlineStr">
         <is>
-          <t>Philip José</t>
+          <t>Aldous Huxley</t>
         </is>
       </c>
       <c r="O43" t="n">
@@ -3285,10 +3913,25 @@
       </c>
       <c r="P43" t="inlineStr">
         <is>
-          <t>Le Monde du fleuve - Le Fleuve de l'éternité, tome 1 - Philip José Farmer</t>
+          <t>fiction</t>
         </is>
       </c>
       <c r="Q43" t="inlineStr">
+        <is>
+          <t>SF</t>
+        </is>
+      </c>
+      <c r="R43" t="inlineStr">
+        <is>
+          <t>250-500</t>
+        </is>
+      </c>
+      <c r="S43" t="inlineStr">
+        <is>
+          <t>Le Meilleur des mondes - Aldous Huxley</t>
+        </is>
+      </c>
+      <c r="T43" t="inlineStr">
         <is>
           <t>fiction/SF</t>
         </is>
@@ -3298,24 +3941,24 @@
       <c r="A44" t="inlineStr"/>
       <c r="B44" t="inlineStr">
         <is>
-          <t>A13</t>
+          <t>A36</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Le Porteur de lumière tome 1</t>
+          <t>Le Monde du fleuve - Le Fleuve de l'éternité, tome 1</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>Brent Weeks</t>
+          <t>Philip José Farmer</t>
         </is>
       </c>
       <c r="E44" t="n">
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>576</v>
+        <v>284</v>
       </c>
       <c r="G44" t="inlineStr"/>
       <c r="H44" t="inlineStr">
@@ -3324,14 +3967,14 @@
         </is>
       </c>
       <c r="I44" t="n">
-        <v>576</v>
+        <v>284</v>
       </c>
       <c r="J44" s="2" t="n">
-        <v>45165</v>
+        <v>44722</v>
       </c>
       <c r="K44" t="inlineStr">
         <is>
-          <t>A13</t>
+          <t>A36</t>
         </is>
       </c>
       <c r="L44" t="inlineStr">
@@ -3344,7 +3987,7 @@
       </c>
       <c r="N44" t="inlineStr">
         <is>
-          <t>Brent Weeks</t>
+          <t>Philip José</t>
         </is>
       </c>
       <c r="O44" t="n">
@@ -3352,12 +3995,27 @@
       </c>
       <c r="P44" t="inlineStr">
         <is>
-          <t>Le Porteur de lumière tome 1 - Brent Weeks</t>
+          <t>fiction</t>
         </is>
       </c>
       <c r="Q44" t="inlineStr">
         <is>
-          <t>fiction/fantasy</t>
+          <t>SF</t>
+        </is>
+      </c>
+      <c r="R44" t="inlineStr">
+        <is>
+          <t>250-500</t>
+        </is>
+      </c>
+      <c r="S44" t="inlineStr">
+        <is>
+          <t>Le Monde du fleuve - Le Fleuve de l'éternité, tome 1 - Philip José Farmer</t>
+        </is>
+      </c>
+      <c r="T44" t="inlineStr">
+        <is>
+          <t>fiction/SF</t>
         </is>
       </c>
     </row>
@@ -3365,12 +4023,12 @@
       <c r="A45" t="inlineStr"/>
       <c r="B45" t="inlineStr">
         <is>
-          <t>A10</t>
+          <t>A13</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Le Porteur de lumière tome 2</t>
+          <t>Le Porteur de lumière tome 1</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
@@ -3382,7 +4040,7 @@
         <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>0</v>
+        <v>576</v>
       </c>
       <c r="G45" t="inlineStr"/>
       <c r="H45" t="inlineStr">
@@ -3391,14 +4049,14 @@
         </is>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>576</v>
       </c>
       <c r="J45" s="2" t="n">
-        <v>45185</v>
+        <v>45165</v>
       </c>
       <c r="K45" t="inlineStr">
         <is>
-          <t>A10</t>
+          <t>A13</t>
         </is>
       </c>
       <c r="L45" t="inlineStr">
@@ -3415,14 +4073,29 @@
         </is>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P45" t="inlineStr">
         <is>
-          <t>Le Porteur de lumière tome 2 - Brent Weeks</t>
+          <t>fiction</t>
         </is>
       </c>
       <c r="Q45" t="inlineStr">
+        <is>
+          <t>fantasy</t>
+        </is>
+      </c>
+      <c r="R45" t="inlineStr">
+        <is>
+          <t>500-750</t>
+        </is>
+      </c>
+      <c r="S45" t="inlineStr">
+        <is>
+          <t>Le Porteur de lumière tome 1 - Brent Weeks</t>
+        </is>
+      </c>
+      <c r="T45" t="inlineStr">
         <is>
           <t>fiction/fantasy</t>
         </is>
@@ -3432,24 +4105,24 @@
       <c r="A46" t="inlineStr"/>
       <c r="B46" t="inlineStr">
         <is>
-          <t>A28</t>
+          <t>A10</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Le Prieuré de l'Oranger T1 partie 1</t>
+          <t>Le Porteur de lumière tome 2</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>Samantha Shannon</t>
+          <t>Brent Weeks</t>
         </is>
       </c>
       <c r="E46" t="n">
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>572</v>
+        <v>0</v>
       </c>
       <c r="G46" t="inlineStr"/>
       <c r="H46" t="inlineStr">
@@ -3458,14 +4131,14 @@
         </is>
       </c>
       <c r="I46" t="n">
-        <v>572</v>
+        <v>0</v>
       </c>
       <c r="J46" s="2" t="n">
-        <v>44933</v>
+        <v>45185</v>
       </c>
       <c r="K46" t="inlineStr">
         <is>
-          <t>A28</t>
+          <t>A10</t>
         </is>
       </c>
       <c r="L46" t="inlineStr">
@@ -3478,18 +4151,33 @@
       </c>
       <c r="N46" t="inlineStr">
         <is>
-          <t>Samantha Shannon</t>
+          <t>Brent Weeks</t>
         </is>
       </c>
       <c r="O46" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P46" t="inlineStr">
         <is>
-          <t>Le Prieuré de l'Oranger T1 partie 1 - Samantha Shannon</t>
+          <t>fiction</t>
         </is>
       </c>
       <c r="Q46" t="inlineStr">
+        <is>
+          <t>fantasy</t>
+        </is>
+      </c>
+      <c r="R46" t="inlineStr">
+        <is>
+          <t>Moins de 250</t>
+        </is>
+      </c>
+      <c r="S46" t="inlineStr">
+        <is>
+          <t>Le Porteur de lumière tome 2 - Brent Weeks</t>
+        </is>
+      </c>
+      <c r="T46" t="inlineStr">
         <is>
           <t>fiction/fantasy</t>
         </is>
@@ -3499,12 +4187,12 @@
       <c r="A47" t="inlineStr"/>
       <c r="B47" t="inlineStr">
         <is>
-          <t>A27</t>
+          <t>A28</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Le Prieuré de l'Oranger T1 partie 2</t>
+          <t>Le Prieuré de l'Oranger T1 partie 1</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
@@ -3516,7 +4204,7 @@
         <v>0</v>
       </c>
       <c r="F47" t="n">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="G47" t="inlineStr"/>
       <c r="H47" t="inlineStr">
@@ -3525,14 +4213,14 @@
         </is>
       </c>
       <c r="I47" t="n">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="J47" s="2" t="n">
-        <v>44947</v>
+        <v>44933</v>
       </c>
       <c r="K47" t="inlineStr">
         <is>
-          <t>A27</t>
+          <t>A28</t>
         </is>
       </c>
       <c r="L47" t="inlineStr">
@@ -3553,10 +4241,25 @@
       </c>
       <c r="P47" t="inlineStr">
         <is>
-          <t>Le Prieuré de l'Oranger T1 partie 2 - Samantha Shannon</t>
+          <t>fiction</t>
         </is>
       </c>
       <c r="Q47" t="inlineStr">
+        <is>
+          <t>fantasy</t>
+        </is>
+      </c>
+      <c r="R47" t="inlineStr">
+        <is>
+          <t>500-750</t>
+        </is>
+      </c>
+      <c r="S47" t="inlineStr">
+        <is>
+          <t>Le Prieuré de l'Oranger T1 partie 1 - Samantha Shannon</t>
+        </is>
+      </c>
+      <c r="T47" t="inlineStr">
         <is>
           <t>fiction/fantasy</t>
         </is>
@@ -3566,24 +4269,24 @@
       <c r="A48" t="inlineStr"/>
       <c r="B48" t="inlineStr">
         <is>
-          <t>A43</t>
+          <t>A27</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>Le Temps désarticulé</t>
+          <t>Le Prieuré de l'Oranger T1 partie 2</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>Philip K. Dick</t>
+          <t>Samantha Shannon</t>
         </is>
       </c>
       <c r="E48" t="n">
         <v>0</v>
       </c>
       <c r="F48" t="n">
-        <v>256</v>
+        <v>569</v>
       </c>
       <c r="G48" t="inlineStr"/>
       <c r="H48" t="inlineStr">
@@ -3592,14 +4295,14 @@
         </is>
       </c>
       <c r="I48" t="n">
-        <v>256</v>
+        <v>569</v>
       </c>
       <c r="J48" s="2" t="n">
-        <v>44551</v>
+        <v>44947</v>
       </c>
       <c r="K48" t="inlineStr">
         <is>
-          <t>A43</t>
+          <t>A27</t>
         </is>
       </c>
       <c r="L48" t="inlineStr">
@@ -3612,7 +4315,7 @@
       </c>
       <c r="N48" t="inlineStr">
         <is>
-          <t>Philip Dick</t>
+          <t>Samantha Shannon</t>
         </is>
       </c>
       <c r="O48" t="n">
@@ -3620,12 +4323,27 @@
       </c>
       <c r="P48" t="inlineStr">
         <is>
-          <t>Le Temps désarticulé - Philip K. Dick</t>
+          <t>fiction</t>
         </is>
       </c>
       <c r="Q48" t="inlineStr">
         <is>
-          <t>fiction/SF</t>
+          <t>fantasy</t>
+        </is>
+      </c>
+      <c r="R48" t="inlineStr">
+        <is>
+          <t>500-750</t>
+        </is>
+      </c>
+      <c r="S48" t="inlineStr">
+        <is>
+          <t>Le Prieuré de l'Oranger T1 partie 2 - Samantha Shannon</t>
+        </is>
+      </c>
+      <c r="T48" t="inlineStr">
+        <is>
+          <t>fiction/fantasy</t>
         </is>
       </c>
     </row>
@@ -3633,24 +4351,24 @@
       <c r="A49" t="inlineStr"/>
       <c r="B49" t="inlineStr">
         <is>
-          <t>65</t>
+          <t>A43</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>Le livre des choses perdues</t>
+          <t>Le Temps désarticulé</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>John Connolly</t>
+          <t>Philip K. Dick</t>
         </is>
       </c>
       <c r="E49" t="n">
         <v>0</v>
       </c>
       <c r="F49" t="n">
-        <v>480</v>
+        <v>256</v>
       </c>
       <c r="G49" t="inlineStr"/>
       <c r="H49" t="inlineStr">
@@ -3659,25 +4377,27 @@
         </is>
       </c>
       <c r="I49" t="n">
-        <v>467</v>
+        <v>256</v>
       </c>
       <c r="J49" s="2" t="n">
-        <v>45544</v>
+        <v>44551</v>
       </c>
       <c r="K49" t="inlineStr">
         <is>
-          <t>000065</t>
+          <t>A43</t>
         </is>
       </c>
       <c r="L49" t="inlineStr">
         <is>
-          <t>ebook</t>
-        </is>
-      </c>
-      <c r="M49" t="inlineStr"/>
+          <t>papier</t>
+        </is>
+      </c>
+      <c r="M49" t="n">
+        <v>1</v>
+      </c>
       <c r="N49" t="inlineStr">
         <is>
-          <t>John Connolly</t>
+          <t>Philip Dick</t>
         </is>
       </c>
       <c r="O49" t="n">
@@ -3685,12 +4405,27 @@
       </c>
       <c r="P49" t="inlineStr">
         <is>
-          <t>Le livre des choses perdues - John Connolly</t>
+          <t>fiction</t>
         </is>
       </c>
       <c r="Q49" t="inlineStr">
         <is>
-          <t>fiction/fantasy</t>
+          <t>SF</t>
+        </is>
+      </c>
+      <c r="R49" t="inlineStr">
+        <is>
+          <t>250-500</t>
+        </is>
+      </c>
+      <c r="S49" t="inlineStr">
+        <is>
+          <t>Le Temps désarticulé - Philip K. Dick</t>
+        </is>
+      </c>
+      <c r="T49" t="inlineStr">
+        <is>
+          <t>fiction/SF</t>
         </is>
       </c>
     </row>
@@ -3698,44 +4433,40 @@
       <c r="A50" t="inlineStr"/>
       <c r="B50" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>65</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>Le troupeau aveugle, 1</t>
+          <t>Le livre des choses perdues</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>John Brunner</t>
+          <t>John Connolly</t>
         </is>
       </c>
       <c r="E50" t="n">
         <v>0</v>
       </c>
       <c r="F50" t="n">
-        <v>382</v>
-      </c>
-      <c r="G50" t="inlineStr">
-        <is>
-          <t>Le troupeau aveugle #1</t>
-        </is>
-      </c>
+        <v>480</v>
+      </c>
+      <c r="G50" t="inlineStr"/>
       <c r="H50" t="inlineStr">
         <is>
           <t>fr</t>
         </is>
       </c>
       <c r="I50" t="n">
-        <v>13</v>
+        <v>467</v>
       </c>
       <c r="J50" s="2" t="n">
-        <v>45361</v>
+        <v>45544</v>
       </c>
       <c r="K50" t="inlineStr">
         <is>
-          <t>000029</t>
+          <t>000065</t>
         </is>
       </c>
       <c r="L50" t="inlineStr">
@@ -3746,20 +4477,35 @@
       <c r="M50" t="inlineStr"/>
       <c r="N50" t="inlineStr">
         <is>
-          <t>John Brunner</t>
+          <t>John Connolly</t>
         </is>
       </c>
       <c r="O50" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P50" t="inlineStr">
         <is>
-          <t>Le troupeau aveugle, 1 - John Brunner</t>
+          <t>fiction</t>
         </is>
       </c>
       <c r="Q50" t="inlineStr">
         <is>
-          <t>fiction/SF</t>
+          <t>fantasy</t>
+        </is>
+      </c>
+      <c r="R50" t="inlineStr">
+        <is>
+          <t>250-500</t>
+        </is>
+      </c>
+      <c r="S50" t="inlineStr">
+        <is>
+          <t>Le livre des choses perdues - John Connolly</t>
+        </is>
+      </c>
+      <c r="T50" t="inlineStr">
+        <is>
+          <t>fiction/fantasy</t>
         </is>
       </c>
     </row>
@@ -3767,53 +4513,55 @@
       <c r="A51" t="inlineStr"/>
       <c r="B51" t="inlineStr">
         <is>
-          <t>A19</t>
+          <t>29</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>Les Annales de la Compagnie Noire, Tome 2</t>
+          <t>Le troupeau aveugle, 1</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>Glen Cook</t>
+          <t>John Brunner</t>
         </is>
       </c>
       <c r="E51" t="n">
         <v>0</v>
       </c>
       <c r="F51" t="n">
-        <v>0</v>
-      </c>
-      <c r="G51" t="inlineStr"/>
+        <v>382</v>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>Le troupeau aveugle #1</t>
+        </is>
+      </c>
       <c r="H51" t="inlineStr">
         <is>
           <t>fr</t>
         </is>
       </c>
       <c r="I51" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="J51" s="2" t="n">
-        <v>45067</v>
+        <v>45361</v>
       </c>
       <c r="K51" t="inlineStr">
         <is>
-          <t>A19</t>
+          <t>000029</t>
         </is>
       </c>
       <c r="L51" t="inlineStr">
         <is>
-          <t>papier</t>
-        </is>
-      </c>
-      <c r="M51" t="n">
-        <v>1</v>
-      </c>
+          <t>ebook</t>
+        </is>
+      </c>
+      <c r="M51" t="inlineStr"/>
       <c r="N51" t="inlineStr">
         <is>
-          <t>Glen Cook</t>
+          <t>John Brunner</t>
         </is>
       </c>
       <c r="O51" t="n">
@@ -3821,12 +4569,27 @@
       </c>
       <c r="P51" t="inlineStr">
         <is>
-          <t>Les Annales de la Compagnie Noire, Tome 2 - Glen Cook</t>
+          <t>fiction</t>
         </is>
       </c>
       <c r="Q51" t="inlineStr">
         <is>
-          <t>fiction/fantasy</t>
+          <t>SF</t>
+        </is>
+      </c>
+      <c r="R51" t="inlineStr">
+        <is>
+          <t>250-500</t>
+        </is>
+      </c>
+      <c r="S51" t="inlineStr">
+        <is>
+          <t>Le troupeau aveugle, 1 - John Brunner</t>
+        </is>
+      </c>
+      <c r="T51" t="inlineStr">
+        <is>
+          <t>fiction/SF</t>
         </is>
       </c>
     </row>
@@ -3834,12 +4597,12 @@
       <c r="A52" t="inlineStr"/>
       <c r="B52" t="inlineStr">
         <is>
-          <t>A18</t>
+          <t>A19</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>Les Annales de la Compagnie Noire, Tome 3</t>
+          <t>Les Annales de la Compagnie Noire, Tome 2</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
@@ -3863,11 +4626,11 @@
         <v>0</v>
       </c>
       <c r="J52" s="2" t="n">
-        <v>45087</v>
+        <v>45067</v>
       </c>
       <c r="K52" t="inlineStr">
         <is>
-          <t>A18</t>
+          <t>A19</t>
         </is>
       </c>
       <c r="L52" t="inlineStr">
@@ -3888,10 +4651,25 @@
       </c>
       <c r="P52" t="inlineStr">
         <is>
-          <t>Les Annales de la Compagnie Noire, Tome 3 - Glen Cook</t>
+          <t>fiction</t>
         </is>
       </c>
       <c r="Q52" t="inlineStr">
+        <is>
+          <t>fantasy</t>
+        </is>
+      </c>
+      <c r="R52" t="inlineStr">
+        <is>
+          <t>Moins de 250</t>
+        </is>
+      </c>
+      <c r="S52" t="inlineStr">
+        <is>
+          <t>Les Annales de la Compagnie Noire, Tome 2 - Glen Cook</t>
+        </is>
+      </c>
+      <c r="T52" t="inlineStr">
         <is>
           <t>fiction/fantasy</t>
         </is>
@@ -3901,25 +4679,24 @@
       <c r="A53" t="inlineStr"/>
       <c r="B53" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>A18</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>Les Oiseaux du Temps</t>
+          <t>Les Annales de la Compagnie Noire, Tome 3</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>Amal El-Mohtar_x000D_
-Max Gladstone</t>
+          <t>Glen Cook</t>
         </is>
       </c>
       <c r="E53" t="n">
         <v>0</v>
       </c>
       <c r="F53" t="n">
-        <v>277</v>
+        <v>0</v>
       </c>
       <c r="G53" t="inlineStr"/>
       <c r="H53" t="inlineStr">
@@ -3928,37 +4705,53 @@
         </is>
       </c>
       <c r="I53" t="n">
-        <v>266</v>
+        <v>0</v>
       </c>
       <c r="J53" s="2" t="n">
-        <v>45459</v>
+        <v>45087</v>
       </c>
       <c r="K53" t="inlineStr">
         <is>
-          <t>000050</t>
+          <t>A18</t>
         </is>
       </c>
       <c r="L53" t="inlineStr">
         <is>
-          <t>ebook</t>
-        </is>
-      </c>
-      <c r="M53" t="inlineStr"/>
+          <t>papier</t>
+        </is>
+      </c>
+      <c r="M53" t="n">
+        <v>1</v>
+      </c>
       <c r="N53" t="inlineStr">
         <is>
-          <t>Amal El-Mohtar</t>
+          <t>Glen Cook</t>
         </is>
       </c>
       <c r="O53" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P53" t="inlineStr">
         <is>
-          <t>Les Oiseaux du Temps - Amal El-Mohtar_x000D_
-Max Gladstone</t>
+          <t>fiction</t>
         </is>
       </c>
       <c r="Q53" t="inlineStr">
+        <is>
+          <t>fantasy</t>
+        </is>
+      </c>
+      <c r="R53" t="inlineStr">
+        <is>
+          <t>Moins de 250</t>
+        </is>
+      </c>
+      <c r="S53" t="inlineStr">
+        <is>
+          <t>Les Annales de la Compagnie Noire, Tome 3 - Glen Cook</t>
+        </is>
+      </c>
+      <c r="T53" t="inlineStr">
         <is>
           <t>fiction/fantasy</t>
         </is>
@@ -3968,24 +4761,25 @@
       <c r="A54" t="inlineStr"/>
       <c r="B54" t="inlineStr">
         <is>
-          <t>59</t>
+          <t>50</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>Les Variations Sebastian</t>
+          <t>Les Oiseaux du Temps</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>Emily St.John Mandel</t>
+          <t>Amal El-Mohtar_x000D_
+Max Gladstone</t>
         </is>
       </c>
       <c r="E54" t="n">
         <v>0</v>
       </c>
       <c r="F54" t="n">
-        <v>471</v>
+        <v>277</v>
       </c>
       <c r="G54" t="inlineStr"/>
       <c r="H54" t="inlineStr">
@@ -3994,14 +4788,14 @@
         </is>
       </c>
       <c r="I54" t="n">
-        <v>458</v>
+        <v>266</v>
       </c>
       <c r="J54" s="2" t="n">
-        <v>45506</v>
+        <v>45459</v>
       </c>
       <c r="K54" t="inlineStr">
         <is>
-          <t>000059</t>
+          <t>000050</t>
         </is>
       </c>
       <c r="L54" t="inlineStr">
@@ -4012,7 +4806,7 @@
       <c r="M54" t="inlineStr"/>
       <c r="N54" t="inlineStr">
         <is>
-          <t>Emily St.John</t>
+          <t>Amal El-Mohtar</t>
         </is>
       </c>
       <c r="O54" t="n">
@@ -4020,12 +4814,28 @@
       </c>
       <c r="P54" t="inlineStr">
         <is>
-          <t>Les Variations Sebastian - Emily St.John Mandel</t>
+          <t>fiction</t>
         </is>
       </c>
       <c r="Q54" t="inlineStr">
         <is>
-          <t>fiction/fantastique</t>
+          <t>fantasy</t>
+        </is>
+      </c>
+      <c r="R54" t="inlineStr">
+        <is>
+          <t>250-500</t>
+        </is>
+      </c>
+      <c r="S54" t="inlineStr">
+        <is>
+          <t>Les Oiseaux du Temps - Amal El-Mohtar_x000D_
+Max Gladstone</t>
+        </is>
+      </c>
+      <c r="T54" t="inlineStr">
+        <is>
+          <t>fiction/fantasy</t>
         </is>
       </c>
     </row>
@@ -4033,24 +4843,24 @@
       <c r="A55" t="inlineStr"/>
       <c r="B55" t="inlineStr">
         <is>
-          <t>A20</t>
+          <t>59</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>Les archives de Roshar, tome 4.1 : Rythme de guerre 1</t>
+          <t>Les Variations Sebastian</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>Brandon Sanderson</t>
+          <t>Emily St.John Mandel</t>
         </is>
       </c>
       <c r="E55" t="n">
         <v>0</v>
       </c>
       <c r="F55" t="n">
-        <v>736</v>
+        <v>471</v>
       </c>
       <c r="G55" t="inlineStr"/>
       <c r="H55" t="inlineStr">
@@ -4059,27 +4869,25 @@
         </is>
       </c>
       <c r="I55" t="n">
-        <v>736</v>
+        <v>458</v>
       </c>
       <c r="J55" s="2" t="n">
-        <v>45052</v>
+        <v>45506</v>
       </c>
       <c r="K55" t="inlineStr">
         <is>
-          <t>A20</t>
+          <t>000059</t>
         </is>
       </c>
       <c r="L55" t="inlineStr">
         <is>
-          <t>papier</t>
-        </is>
-      </c>
-      <c r="M55" t="n">
-        <v>1</v>
-      </c>
+          <t>ebook</t>
+        </is>
+      </c>
+      <c r="M55" t="inlineStr"/>
       <c r="N55" t="inlineStr">
         <is>
-          <t>Brandon Sanderson</t>
+          <t>Emily St.John</t>
         </is>
       </c>
       <c r="O55" t="n">
@@ -4087,12 +4895,27 @@
       </c>
       <c r="P55" t="inlineStr">
         <is>
-          <t>Les archives de Roshar, tome 4.1 : Rythme de guerre 1 - Brandon Sanderson</t>
+          <t>fiction</t>
         </is>
       </c>
       <c r="Q55" t="inlineStr">
         <is>
-          <t>fiction/fantasy</t>
+          <t>fantastique</t>
+        </is>
+      </c>
+      <c r="R55" t="inlineStr">
+        <is>
+          <t>250-500</t>
+        </is>
+      </c>
+      <c r="S55" t="inlineStr">
+        <is>
+          <t>Les Variations Sebastian - Emily St.John Mandel</t>
+        </is>
+      </c>
+      <c r="T55" t="inlineStr">
+        <is>
+          <t>fiction/fantastique</t>
         </is>
       </c>
     </row>
@@ -4100,12 +4923,12 @@
       <c r="A56" t="inlineStr"/>
       <c r="B56" t="inlineStr">
         <is>
-          <t>A16</t>
+          <t>A20</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>Les archives de Roshar, tome 4.2 : Rythme de guerre 2</t>
+          <t>Les archives de Roshar, tome 4.1 : Rythme de guerre 1</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
@@ -4117,7 +4940,7 @@
         <v>0</v>
       </c>
       <c r="F56" t="n">
-        <v>1200</v>
+        <v>736</v>
       </c>
       <c r="G56" t="inlineStr"/>
       <c r="H56" t="inlineStr">
@@ -4126,14 +4949,14 @@
         </is>
       </c>
       <c r="I56" t="n">
-        <v>1200</v>
+        <v>736</v>
       </c>
       <c r="J56" s="2" t="n">
-        <v>45133</v>
+        <v>45052</v>
       </c>
       <c r="K56" t="inlineStr">
         <is>
-          <t>A16</t>
+          <t>A20</t>
         </is>
       </c>
       <c r="L56" t="inlineStr">
@@ -4154,10 +4977,25 @@
       </c>
       <c r="P56" t="inlineStr">
         <is>
-          <t>Les archives de Roshar, tome 4.2 : Rythme de guerre 2 - Brandon Sanderson</t>
+          <t>fiction</t>
         </is>
       </c>
       <c r="Q56" t="inlineStr">
+        <is>
+          <t>fantasy</t>
+        </is>
+      </c>
+      <c r="R56" t="inlineStr">
+        <is>
+          <t>500-750</t>
+        </is>
+      </c>
+      <c r="S56" t="inlineStr">
+        <is>
+          <t>Les archives de Roshar, tome 4.1 : Rythme de guerre 1 - Brandon Sanderson</t>
+        </is>
+      </c>
+      <c r="T56" t="inlineStr">
         <is>
           <t>fiction/fantasy</t>
         </is>
@@ -4167,24 +5005,24 @@
       <c r="A57" t="inlineStr"/>
       <c r="B57" t="inlineStr">
         <is>
-          <t>A29</t>
+          <t>A16</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>Les enfants de Hurin</t>
+          <t>Les archives de Roshar, tome 4.2 : Rythme de guerre 2</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>J.R.R Tolkien</t>
+          <t>Brandon Sanderson</t>
         </is>
       </c>
       <c r="E57" t="n">
         <v>0</v>
       </c>
       <c r="F57" t="n">
-        <v>281</v>
+        <v>1200</v>
       </c>
       <c r="G57" t="inlineStr"/>
       <c r="H57" t="inlineStr">
@@ -4193,14 +5031,14 @@
         </is>
       </c>
       <c r="I57" t="n">
-        <v>281</v>
+        <v>1200</v>
       </c>
       <c r="J57" s="2" t="n">
-        <v>44913</v>
+        <v>45133</v>
       </c>
       <c r="K57" t="inlineStr">
         <is>
-          <t>A29</t>
+          <t>A16</t>
         </is>
       </c>
       <c r="L57" t="inlineStr">
@@ -4213,7 +5051,7 @@
       </c>
       <c r="N57" t="inlineStr">
         <is>
-          <t>J.R.R Tolkien</t>
+          <t>Brandon Sanderson</t>
         </is>
       </c>
       <c r="O57" t="n">
@@ -4221,10 +5059,25 @@
       </c>
       <c r="P57" t="inlineStr">
         <is>
-          <t>Les enfants de Hurin - J.R.R Tolkien</t>
+          <t>fiction</t>
         </is>
       </c>
       <c r="Q57" t="inlineStr">
+        <is>
+          <t>fantasy</t>
+        </is>
+      </c>
+      <c r="R57" t="inlineStr">
+        <is>
+          <t>1000-1250</t>
+        </is>
+      </c>
+      <c r="S57" t="inlineStr">
+        <is>
+          <t>Les archives de Roshar, tome 4.2 : Rythme de guerre 2 - Brandon Sanderson</t>
+        </is>
+      </c>
+      <c r="T57" t="inlineStr">
         <is>
           <t>fiction/fantasy</t>
         </is>
@@ -4234,24 +5087,24 @@
       <c r="A58" t="inlineStr"/>
       <c r="B58" t="inlineStr">
         <is>
-          <t>A42</t>
+          <t>A29</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>Les joueurs de Titan</t>
+          <t>Les enfants de Hurin</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>Philip K. Dick</t>
+          <t>J.R.R Tolkien</t>
         </is>
       </c>
       <c r="E58" t="n">
         <v>0</v>
       </c>
       <c r="F58" t="n">
-        <v>250</v>
+        <v>281</v>
       </c>
       <c r="G58" t="inlineStr"/>
       <c r="H58" t="inlineStr">
@@ -4260,14 +5113,14 @@
         </is>
       </c>
       <c r="I58" t="n">
-        <v>250</v>
+        <v>281</v>
       </c>
       <c r="J58" s="2" t="n">
-        <v>44559</v>
+        <v>44913</v>
       </c>
       <c r="K58" t="inlineStr">
         <is>
-          <t>A42</t>
+          <t>A29</t>
         </is>
       </c>
       <c r="L58" t="inlineStr">
@@ -4280,7 +5133,7 @@
       </c>
       <c r="N58" t="inlineStr">
         <is>
-          <t>Philip Dick</t>
+          <t>J.R.R Tolkien</t>
         </is>
       </c>
       <c r="O58" t="n">
@@ -4288,12 +5141,27 @@
       </c>
       <c r="P58" t="inlineStr">
         <is>
-          <t>Les joueurs de Titan - Philip K. Dick</t>
+          <t>fiction</t>
         </is>
       </c>
       <c r="Q58" t="inlineStr">
         <is>
-          <t>fiction/SF</t>
+          <t>fantasy</t>
+        </is>
+      </c>
+      <c r="R58" t="inlineStr">
+        <is>
+          <t>250-500</t>
+        </is>
+      </c>
+      <c r="S58" t="inlineStr">
+        <is>
+          <t>Les enfants de Hurin - J.R.R Tolkien</t>
+        </is>
+      </c>
+      <c r="T58" t="inlineStr">
+        <is>
+          <t>fiction/fantasy</t>
         </is>
       </c>
     </row>
@@ -4301,62 +5169,79 @@
       <c r="A59" t="inlineStr"/>
       <c r="B59" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>A42</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>Let's Get Together</t>
+          <t>Les joueurs de Titan</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>Isaac Asimov</t>
+          <t>Philip K. Dick</t>
         </is>
       </c>
       <c r="E59" t="n">
         <v>0</v>
       </c>
       <c r="F59" t="n">
-        <v>68</v>
+        <v>250</v>
       </c>
       <c r="G59" t="inlineStr"/>
       <c r="H59" t="inlineStr">
         <is>
-          <t>en</t>
+          <t>fr</t>
         </is>
       </c>
       <c r="I59" t="n">
-        <v>8</v>
+        <v>250</v>
       </c>
       <c r="J59" s="2" t="n">
-        <v>45257</v>
+        <v>44559</v>
       </c>
       <c r="K59" t="inlineStr">
         <is>
-          <t>00003</t>
+          <t>A42</t>
         </is>
       </c>
       <c r="L59" t="inlineStr">
         <is>
-          <t>ebook</t>
-        </is>
-      </c>
-      <c r="M59" t="inlineStr"/>
+          <t>papier</t>
+        </is>
+      </c>
+      <c r="M59" t="n">
+        <v>1</v>
+      </c>
       <c r="N59" t="inlineStr">
         <is>
-          <t>Isaac Asimov</t>
+          <t>Philip Dick</t>
         </is>
       </c>
       <c r="O59" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P59" t="inlineStr">
         <is>
-          <t>Let's Get Together - Isaac Asimov</t>
+          <t>fiction</t>
         </is>
       </c>
       <c r="Q59" t="inlineStr">
+        <is>
+          <t>SF</t>
+        </is>
+      </c>
+      <c r="R59" t="inlineStr">
+        <is>
+          <t>Moins de 250</t>
+        </is>
+      </c>
+      <c r="S59" t="inlineStr">
+        <is>
+          <t>Les joueurs de Titan - Philip K. Dick</t>
+        </is>
+      </c>
+      <c r="T59" t="inlineStr">
         <is>
           <t>fiction/SF</t>
         </is>
@@ -4366,44 +5251,40 @@
       <c r="A60" t="inlineStr"/>
       <c r="B60" t="inlineStr">
         <is>
-          <t>62</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>Leviathan Wakes - the expanse 1</t>
+          <t>Let's Get Together</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>James S. A. Corey</t>
+          <t>Isaac Asimov</t>
         </is>
       </c>
       <c r="E60" t="n">
         <v>0</v>
       </c>
       <c r="F60" t="n">
-        <v>823</v>
-      </c>
-      <c r="G60" t="inlineStr">
-        <is>
-          <t>The Expanse #1</t>
-        </is>
-      </c>
+        <v>68</v>
+      </c>
+      <c r="G60" t="inlineStr"/>
       <c r="H60" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
       <c r="I60" t="n">
-        <v>815</v>
+        <v>8</v>
       </c>
       <c r="J60" s="2" t="n">
-        <v>45515</v>
+        <v>45257</v>
       </c>
       <c r="K60" t="inlineStr">
         <is>
-          <t>000062</t>
+          <t>00003</t>
         </is>
       </c>
       <c r="L60" t="inlineStr">
@@ -4414,18 +5295,33 @@
       <c r="M60" t="inlineStr"/>
       <c r="N60" t="inlineStr">
         <is>
-          <t>James Corey</t>
+          <t>Isaac Asimov</t>
         </is>
       </c>
       <c r="O60" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P60" t="inlineStr">
         <is>
-          <t>Leviathan Wakes - the expanse 1 - James S. A. Corey</t>
+          <t>fiction</t>
         </is>
       </c>
       <c r="Q60" t="inlineStr">
+        <is>
+          <t>SF</t>
+        </is>
+      </c>
+      <c r="R60" t="inlineStr">
+        <is>
+          <t>Moins de 250</t>
+        </is>
+      </c>
+      <c r="S60" t="inlineStr">
+        <is>
+          <t>Let's Get Together - Isaac Asimov</t>
+        </is>
+      </c>
+      <c r="T60" t="inlineStr">
         <is>
           <t>fiction/SF</t>
         </is>
@@ -4435,53 +5331,55 @@
       <c r="A61" t="inlineStr"/>
       <c r="B61" t="inlineStr">
         <is>
-          <t>A35</t>
+          <t>62</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>Légion</t>
+          <t>Leviathan Wakes - the expanse 1</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>Brandon Sanderson</t>
+          <t>James S. A. Corey</t>
         </is>
       </c>
       <c r="E61" t="n">
         <v>0</v>
       </c>
       <c r="F61" t="n">
-        <v>512</v>
-      </c>
-      <c r="G61" t="inlineStr"/>
+        <v>823</v>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>The Expanse #1</t>
+        </is>
+      </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>fr</t>
+          <t>en</t>
         </is>
       </c>
       <c r="I61" t="n">
-        <v>512</v>
+        <v>815</v>
       </c>
       <c r="J61" s="2" t="n">
-        <v>44742</v>
+        <v>45515</v>
       </c>
       <c r="K61" t="inlineStr">
         <is>
-          <t>A35</t>
+          <t>000062</t>
         </is>
       </c>
       <c r="L61" t="inlineStr">
         <is>
-          <t>papier</t>
-        </is>
-      </c>
-      <c r="M61" t="n">
-        <v>1</v>
-      </c>
+          <t>ebook</t>
+        </is>
+      </c>
+      <c r="M61" t="inlineStr"/>
       <c r="N61" t="inlineStr">
         <is>
-          <t>Brandon Sanderson</t>
+          <t>James Corey</t>
         </is>
       </c>
       <c r="O61" t="n">
@@ -4489,10 +5387,25 @@
       </c>
       <c r="P61" t="inlineStr">
         <is>
-          <t>Légion - Brandon Sanderson</t>
+          <t>fiction</t>
         </is>
       </c>
       <c r="Q61" t="inlineStr">
+        <is>
+          <t>SF</t>
+        </is>
+      </c>
+      <c r="R61" t="inlineStr">
+        <is>
+          <t>750-1000</t>
+        </is>
+      </c>
+      <c r="S61" t="inlineStr">
+        <is>
+          <t>Leviathan Wakes - the expanse 1 - James S. A. Corey</t>
+        </is>
+      </c>
+      <c r="T61" t="inlineStr">
         <is>
           <t>fiction/SF</t>
         </is>
@@ -4502,24 +5415,24 @@
       <c r="A62" t="inlineStr"/>
       <c r="B62" t="inlineStr">
         <is>
-          <t>A33</t>
+          <t>A35</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>Mirroirs et fumée</t>
+          <t>Légion</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>Neil Gaiman</t>
+          <t>Brandon Sanderson</t>
         </is>
       </c>
       <c r="E62" t="n">
         <v>0</v>
       </c>
       <c r="F62" t="n">
-        <v>372</v>
+        <v>512</v>
       </c>
       <c r="G62" t="inlineStr"/>
       <c r="H62" t="inlineStr">
@@ -4528,14 +5441,14 @@
         </is>
       </c>
       <c r="I62" t="n">
-        <v>372</v>
+        <v>512</v>
       </c>
       <c r="J62" s="2" t="n">
-        <v>44857</v>
+        <v>44742</v>
       </c>
       <c r="K62" t="inlineStr">
         <is>
-          <t>A33</t>
+          <t>A35</t>
         </is>
       </c>
       <c r="L62" t="inlineStr">
@@ -4548,7 +5461,7 @@
       </c>
       <c r="N62" t="inlineStr">
         <is>
-          <t>Neil Gaiman</t>
+          <t>Brandon Sanderson</t>
         </is>
       </c>
       <c r="O62" t="n">
@@ -4556,12 +5469,27 @@
       </c>
       <c r="P62" t="inlineStr">
         <is>
-          <t>Mirroirs et fumée - Neil Gaiman</t>
+          <t>fiction</t>
         </is>
       </c>
       <c r="Q62" t="inlineStr">
         <is>
-          <t>fiction/fantastique</t>
+          <t>SF</t>
+        </is>
+      </c>
+      <c r="R62" t="inlineStr">
+        <is>
+          <t>500-750</t>
+        </is>
+      </c>
+      <c r="S62" t="inlineStr">
+        <is>
+          <t>Légion - Brandon Sanderson</t>
+        </is>
+      </c>
+      <c r="T62" t="inlineStr">
+        <is>
+          <t>fiction/SF</t>
         </is>
       </c>
     </row>
@@ -4569,24 +5497,24 @@
       <c r="A63" t="inlineStr"/>
       <c r="B63" t="inlineStr">
         <is>
-          <t>A40</t>
+          <t>A33</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>Neuromancien</t>
+          <t>Mirroirs et fumée</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>William Gibson.</t>
+          <t>Neil Gaiman</t>
         </is>
       </c>
       <c r="E63" t="n">
         <v>0</v>
       </c>
       <c r="F63" t="n">
-        <v>438</v>
+        <v>372</v>
       </c>
       <c r="G63" t="inlineStr"/>
       <c r="H63" t="inlineStr">
@@ -4595,14 +5523,14 @@
         </is>
       </c>
       <c r="I63" t="n">
-        <v>438</v>
+        <v>372</v>
       </c>
       <c r="J63" s="2" t="n">
-        <v>44575</v>
+        <v>44857</v>
       </c>
       <c r="K63" t="inlineStr">
         <is>
-          <t>A40</t>
+          <t>A33</t>
         </is>
       </c>
       <c r="L63" t="inlineStr">
@@ -4615,7 +5543,7 @@
       </c>
       <c r="N63" t="inlineStr">
         <is>
-          <t>William Gibson.</t>
+          <t>Neil Gaiman</t>
         </is>
       </c>
       <c r="O63" t="n">
@@ -4623,12 +5551,27 @@
       </c>
       <c r="P63" t="inlineStr">
         <is>
-          <t>Neuromancien - William Gibson.</t>
+          <t>fiction</t>
         </is>
       </c>
       <c r="Q63" t="inlineStr">
         <is>
-          <t>fiction/SF</t>
+          <t>fantastique</t>
+        </is>
+      </c>
+      <c r="R63" t="inlineStr">
+        <is>
+          <t>250-500</t>
+        </is>
+      </c>
+      <c r="S63" t="inlineStr">
+        <is>
+          <t>Mirroirs et fumée - Neil Gaiman</t>
+        </is>
+      </c>
+      <c r="T63" t="inlineStr">
+        <is>
+          <t>fiction/fantastique</t>
         </is>
       </c>
     </row>
@@ -4636,24 +5579,24 @@
       <c r="A64" t="inlineStr"/>
       <c r="B64" t="inlineStr">
         <is>
-          <t>A39</t>
+          <t>A40</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>Neverwhere</t>
+          <t>Neuromancien</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>Neil Gaiman</t>
+          <t>William Gibson.</t>
         </is>
       </c>
       <c r="E64" t="n">
         <v>0</v>
       </c>
       <c r="F64" t="n">
-        <v>374</v>
+        <v>438</v>
       </c>
       <c r="G64" t="inlineStr"/>
       <c r="H64" t="inlineStr">
@@ -4662,14 +5605,14 @@
         </is>
       </c>
       <c r="I64" t="n">
-        <v>374</v>
+        <v>438</v>
       </c>
       <c r="J64" s="2" t="n">
-        <v>44614</v>
+        <v>44575</v>
       </c>
       <c r="K64" t="inlineStr">
         <is>
-          <t>A39</t>
+          <t>A40</t>
         </is>
       </c>
       <c r="L64" t="inlineStr">
@@ -4682,7 +5625,7 @@
       </c>
       <c r="N64" t="inlineStr">
         <is>
-          <t>Neil Gaiman</t>
+          <t>William Gibson.</t>
         </is>
       </c>
       <c r="O64" t="n">
@@ -4690,12 +5633,27 @@
       </c>
       <c r="P64" t="inlineStr">
         <is>
-          <t>Neverwhere - Neil Gaiman</t>
+          <t>fiction</t>
         </is>
       </c>
       <c r="Q64" t="inlineStr">
         <is>
-          <t>fiction/fantasy</t>
+          <t>SF</t>
+        </is>
+      </c>
+      <c r="R64" t="inlineStr">
+        <is>
+          <t>250-500</t>
+        </is>
+      </c>
+      <c r="S64" t="inlineStr">
+        <is>
+          <t>Neuromancien - William Gibson.</t>
+        </is>
+      </c>
+      <c r="T64" t="inlineStr">
+        <is>
+          <t>fiction/SF</t>
         </is>
       </c>
     </row>
@@ -4703,24 +5661,24 @@
       <c r="A65" t="inlineStr"/>
       <c r="B65" t="inlineStr">
         <is>
-          <t>47</t>
+          <t>A39</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>Poudlard : Le Guide pas complet et pas fiable du tout</t>
+          <t>Neverwhere</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>J. K. Rowling</t>
+          <t>Neil Gaiman</t>
         </is>
       </c>
       <c r="E65" t="n">
         <v>0</v>
       </c>
       <c r="F65" t="n">
-        <v>1</v>
+        <v>374</v>
       </c>
       <c r="G65" t="inlineStr"/>
       <c r="H65" t="inlineStr">
@@ -4729,25 +5687,27 @@
         </is>
       </c>
       <c r="I65" t="n">
-        <v>1</v>
+        <v>374</v>
       </c>
       <c r="J65" s="2" t="n">
-        <v>45453</v>
+        <v>44614</v>
       </c>
       <c r="K65" t="inlineStr">
         <is>
-          <t>000047</t>
+          <t>A39</t>
         </is>
       </c>
       <c r="L65" t="inlineStr">
         <is>
-          <t>ebook</t>
-        </is>
-      </c>
-      <c r="M65" t="inlineStr"/>
+          <t>papier</t>
+        </is>
+      </c>
+      <c r="M65" t="n">
+        <v>1</v>
+      </c>
       <c r="N65" t="inlineStr">
         <is>
-          <t>Rowling J.</t>
+          <t>Neil Gaiman</t>
         </is>
       </c>
       <c r="O65" t="n">
@@ -4755,12 +5715,27 @@
       </c>
       <c r="P65" t="inlineStr">
         <is>
-          <t>Poudlard : Le Guide pas complet et pas fiable du tout - J. K. Rowling</t>
+          <t>fiction</t>
         </is>
       </c>
       <c r="Q65" t="inlineStr">
         <is>
-          <t>fiction/fantastique</t>
+          <t>fantasy</t>
+        </is>
+      </c>
+      <c r="R65" t="inlineStr">
+        <is>
+          <t>250-500</t>
+        </is>
+      </c>
+      <c r="S65" t="inlineStr">
+        <is>
+          <t>Neverwhere - Neil Gaiman</t>
+        </is>
+      </c>
+      <c r="T65" t="inlineStr">
+        <is>
+          <t>fiction/fantasy</t>
         </is>
       </c>
     </row>
@@ -4768,12 +5743,12 @@
       <c r="A66" t="inlineStr"/>
       <c r="B66" t="inlineStr">
         <is>
-          <t>60</t>
+          <t>47</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>Pouvoir, politique et esprits frappeurs enquiquinants</t>
+          <t>Poudlard : Le Guide pas complet et pas fiable du tout</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
@@ -4785,19 +5760,23 @@
         <v>0</v>
       </c>
       <c r="F66" t="n">
-        <v>59</v>
+        <v>1</v>
       </c>
       <c r="G66" t="inlineStr"/>
-      <c r="H66" t="inlineStr"/>
+      <c r="H66" t="inlineStr">
+        <is>
+          <t>fr</t>
+        </is>
+      </c>
       <c r="I66" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J66" s="2" t="n">
-        <v>45507</v>
+        <v>45453</v>
       </c>
       <c r="K66" t="inlineStr">
         <is>
-          <t>000060</t>
+          <t>000047</t>
         </is>
       </c>
       <c r="L66" t="inlineStr">
@@ -4812,14 +5791,29 @@
         </is>
       </c>
       <c r="O66" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P66" t="inlineStr">
         <is>
-          <t>Pouvoir, politique et esprits frappeurs enquiquinants - J. K. Rowling</t>
+          <t>fiction</t>
         </is>
       </c>
       <c r="Q66" t="inlineStr">
+        <is>
+          <t>fantastique</t>
+        </is>
+      </c>
+      <c r="R66" t="inlineStr">
+        <is>
+          <t>Moins de 250</t>
+        </is>
+      </c>
+      <c r="S66" t="inlineStr">
+        <is>
+          <t>Poudlard : Le Guide pas complet et pas fiable du tout - J. K. Rowling</t>
+        </is>
+      </c>
+      <c r="T66" t="inlineStr">
         <is>
           <t>fiction/fantastique</t>
         </is>
@@ -4829,40 +5823,36 @@
       <c r="A67" t="inlineStr"/>
       <c r="B67" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>60</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>Ravage</t>
+          <t>Pouvoir, politique et esprits frappeurs enquiquinants</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>René Barjavel</t>
+          <t>J. K. Rowling</t>
         </is>
       </c>
       <c r="E67" t="n">
         <v>0</v>
       </c>
       <c r="F67" t="n">
-        <v>330</v>
+        <v>59</v>
       </c>
       <c r="G67" t="inlineStr"/>
-      <c r="H67" t="inlineStr">
-        <is>
-          <t>fr</t>
-        </is>
-      </c>
+      <c r="H67" t="inlineStr"/>
       <c r="I67" t="n">
-        <v>41</v>
+        <v>4</v>
       </c>
       <c r="J67" s="2" t="n">
-        <v>45369</v>
+        <v>45507</v>
       </c>
       <c r="K67" t="inlineStr">
         <is>
-          <t>000031</t>
+          <t>000060</t>
         </is>
       </c>
       <c r="L67" t="inlineStr">
@@ -4873,7 +5863,7 @@
       <c r="M67" t="inlineStr"/>
       <c r="N67" t="inlineStr">
         <is>
-          <t>René Barjavel</t>
+          <t>Rowling J.</t>
         </is>
       </c>
       <c r="O67" t="n">
@@ -4881,12 +5871,27 @@
       </c>
       <c r="P67" t="inlineStr">
         <is>
-          <t>Ravage - René Barjavel</t>
+          <t>fiction</t>
         </is>
       </c>
       <c r="Q67" t="inlineStr">
         <is>
-          <t>fiction/SF</t>
+          <t>fantastique</t>
+        </is>
+      </c>
+      <c r="R67" t="inlineStr">
+        <is>
+          <t>Moins de 250</t>
+        </is>
+      </c>
+      <c r="S67" t="inlineStr">
+        <is>
+          <t>Pouvoir, politique et esprits frappeurs enquiquinants - J. K. Rowling</t>
+        </is>
+      </c>
+      <c r="T67" t="inlineStr">
+        <is>
+          <t>fiction/fantastique</t>
         </is>
       </c>
     </row>
@@ -4894,24 +5899,24 @@
       <c r="A68" t="inlineStr"/>
       <c r="B68" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>31</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>Red Rising</t>
+          <t>Ravage</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>Pierce Brown</t>
+          <t>René Barjavel</t>
         </is>
       </c>
       <c r="E68" t="n">
         <v>0</v>
       </c>
       <c r="F68" t="n">
-        <v>636</v>
+        <v>330</v>
       </c>
       <c r="G68" t="inlineStr"/>
       <c r="H68" t="inlineStr">
@@ -4920,14 +5925,14 @@
         </is>
       </c>
       <c r="I68" t="n">
-        <v>625</v>
+        <v>41</v>
       </c>
       <c r="J68" s="2" t="n">
-        <v>45351</v>
+        <v>45369</v>
       </c>
       <c r="K68" t="inlineStr">
         <is>
-          <t>000024</t>
+          <t>000031</t>
         </is>
       </c>
       <c r="L68" t="inlineStr">
@@ -4938,18 +5943,33 @@
       <c r="M68" t="inlineStr"/>
       <c r="N68" t="inlineStr">
         <is>
-          <t>Pierce Brown</t>
+          <t>René Barjavel</t>
         </is>
       </c>
       <c r="O68" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P68" t="inlineStr">
         <is>
-          <t>Red Rising - Pierce Brown</t>
+          <t>fiction</t>
         </is>
       </c>
       <c r="Q68" t="inlineStr">
+        <is>
+          <t>SF</t>
+        </is>
+      </c>
+      <c r="R68" t="inlineStr">
+        <is>
+          <t>250-500</t>
+        </is>
+      </c>
+      <c r="S68" t="inlineStr">
+        <is>
+          <t>Ravage - René Barjavel</t>
+        </is>
+      </c>
+      <c r="T68" t="inlineStr">
         <is>
           <t>fiction/SF</t>
         </is>
@@ -4959,24 +5979,24 @@
       <c r="A69" t="inlineStr"/>
       <c r="B69" t="inlineStr">
         <is>
-          <t>58</t>
+          <t>24</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>Roman secret 3 - Yumi et le peintre de cauchemars</t>
+          <t>Red Rising</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>Brandon Sanderson</t>
+          <t>Pierce Brown</t>
         </is>
       </c>
       <c r="E69" t="n">
         <v>0</v>
       </c>
       <c r="F69" t="n">
-        <v>798</v>
+        <v>636</v>
       </c>
       <c r="G69" t="inlineStr"/>
       <c r="H69" t="inlineStr">
@@ -4985,14 +6005,14 @@
         </is>
       </c>
       <c r="I69" t="n">
-        <v>768</v>
+        <v>625</v>
       </c>
       <c r="J69" s="2" t="n">
-        <v>45502</v>
+        <v>45351</v>
       </c>
       <c r="K69" t="inlineStr">
         <is>
-          <t>000058</t>
+          <t>000024</t>
         </is>
       </c>
       <c r="L69" t="inlineStr">
@@ -5003,7 +6023,7 @@
       <c r="M69" t="inlineStr"/>
       <c r="N69" t="inlineStr">
         <is>
-          <t>Brandon Sanderson</t>
+          <t>Pierce Brown</t>
         </is>
       </c>
       <c r="O69" t="n">
@@ -5011,12 +6031,27 @@
       </c>
       <c r="P69" t="inlineStr">
         <is>
-          <t>Roman secret 3 - Yumi et le peintre de cauchemars - Brandon Sanderson</t>
+          <t>fiction</t>
         </is>
       </c>
       <c r="Q69" t="inlineStr">
         <is>
-          <t>fiction/fantasy</t>
+          <t>SF</t>
+        </is>
+      </c>
+      <c r="R69" t="inlineStr">
+        <is>
+          <t>500-750</t>
+        </is>
+      </c>
+      <c r="S69" t="inlineStr">
+        <is>
+          <t>Red Rising - Pierce Brown</t>
+        </is>
+      </c>
+      <c r="T69" t="inlineStr">
+        <is>
+          <t>fiction/SF</t>
         </is>
       </c>
     </row>
@@ -5024,24 +6059,24 @@
       <c r="A70" t="inlineStr"/>
       <c r="B70" t="inlineStr">
         <is>
-          <t>52</t>
+          <t>58</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>Récursion</t>
+          <t>Roman secret 3 - Yumi et le peintre de cauchemars</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>Blake Crouch</t>
+          <t>Brandon Sanderson</t>
         </is>
       </c>
       <c r="E70" t="n">
         <v>0</v>
       </c>
       <c r="F70" t="n">
-        <v>523</v>
+        <v>798</v>
       </c>
       <c r="G70" t="inlineStr"/>
       <c r="H70" t="inlineStr">
@@ -5050,14 +6085,14 @@
         </is>
       </c>
       <c r="I70" t="n">
-        <v>25</v>
+        <v>768</v>
       </c>
       <c r="J70" s="2" t="n">
-        <v>45464</v>
+        <v>45502</v>
       </c>
       <c r="K70" t="inlineStr">
         <is>
-          <t>000052</t>
+          <t>000058</t>
         </is>
       </c>
       <c r="L70" t="inlineStr">
@@ -5068,20 +6103,35 @@
       <c r="M70" t="inlineStr"/>
       <c r="N70" t="inlineStr">
         <is>
-          <t>Blake Crouch</t>
+          <t>Brandon Sanderson</t>
         </is>
       </c>
       <c r="O70" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P70" t="inlineStr">
         <is>
-          <t>Récursion - Blake Crouch</t>
+          <t>fiction</t>
         </is>
       </c>
       <c r="Q70" t="inlineStr">
         <is>
-          <t>fiction/SF</t>
+          <t>fantasy</t>
+        </is>
+      </c>
+      <c r="R70" t="inlineStr">
+        <is>
+          <t>750-1000</t>
+        </is>
+      </c>
+      <c r="S70" t="inlineStr">
+        <is>
+          <t>Roman secret 3 - Yumi et le peintre de cauchemars - Brandon Sanderson</t>
+        </is>
+      </c>
+      <c r="T70" t="inlineStr">
+        <is>
+          <t>fiction/fantasy</t>
         </is>
       </c>
     </row>
@@ -5089,32 +6139,40 @@
       <c r="A71" t="inlineStr"/>
       <c r="B71" t="inlineStr">
         <is>
-          <t>41</t>
+          <t>52</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>Siblings Without Rivalry - Adele Faber &amp; Elaine Mazlish</t>
-        </is>
-      </c>
-      <c r="D71" t="inlineStr"/>
+          <t>Récursion</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>Blake Crouch</t>
+        </is>
+      </c>
       <c r="E71" t="n">
         <v>0</v>
       </c>
       <c r="F71" t="n">
-        <v>5586</v>
+        <v>523</v>
       </c>
       <c r="G71" t="inlineStr"/>
-      <c r="H71" t="inlineStr"/>
+      <c r="H71" t="inlineStr">
+        <is>
+          <t>fr</t>
+        </is>
+      </c>
       <c r="I71" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="J71" s="2" t="n">
-        <v>45439</v>
+        <v>45464</v>
       </c>
       <c r="K71" t="inlineStr">
         <is>
-          <t>000041</t>
+          <t>000052</t>
         </is>
       </c>
       <c r="L71" t="inlineStr">
@@ -5123,18 +6181,37 @@
         </is>
       </c>
       <c r="M71" t="inlineStr"/>
-      <c r="N71" t="inlineStr"/>
+      <c r="N71" t="inlineStr">
+        <is>
+          <t>Blake Crouch</t>
+        </is>
+      </c>
       <c r="O71" t="n">
         <v>0</v>
       </c>
       <c r="P71" t="inlineStr">
         <is>
-          <t>Siblings Without Rivalry - Adele Faber &amp; Elaine Mazlish - nan</t>
+          <t>fiction</t>
         </is>
       </c>
       <c r="Q71" t="inlineStr">
         <is>
-          <t>non-fiction/parenting</t>
+          <t>SF</t>
+        </is>
+      </c>
+      <c r="R71" t="inlineStr">
+        <is>
+          <t>500-750</t>
+        </is>
+      </c>
+      <c r="S71" t="inlineStr">
+        <is>
+          <t>Récursion - Blake Crouch</t>
+        </is>
+      </c>
+      <c r="T71" t="inlineStr">
+        <is>
+          <t>fiction/SF</t>
         </is>
       </c>
     </row>
@@ -5142,40 +6219,32 @@
       <c r="A72" t="inlineStr"/>
       <c r="B72" t="inlineStr">
         <is>
-          <t>48</t>
+          <t>41</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>Skyward 0.5 - Un paradis à défendre</t>
-        </is>
-      </c>
-      <c r="D72" t="inlineStr">
-        <is>
-          <t>Brandon Sanderson</t>
-        </is>
-      </c>
+          <t>Siblings Without Rivalry - Adele Faber &amp; Elaine Mazlish</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr"/>
       <c r="E72" t="n">
         <v>0</v>
       </c>
       <c r="F72" t="n">
-        <v>86</v>
+        <v>5586</v>
       </c>
       <c r="G72" t="inlineStr"/>
-      <c r="H72" t="inlineStr">
-        <is>
-          <t>fr</t>
-        </is>
-      </c>
+      <c r="H72" t="inlineStr"/>
       <c r="I72" t="n">
-        <v>82</v>
+        <v>0</v>
       </c>
       <c r="J72" s="2" t="n">
-        <v>45453</v>
+        <v>45439</v>
       </c>
       <c r="K72" t="inlineStr">
         <is>
-          <t>000048</t>
+          <t>000041</t>
         </is>
       </c>
       <c r="L72" t="inlineStr">
@@ -5184,22 +6253,33 @@
         </is>
       </c>
       <c r="M72" t="inlineStr"/>
-      <c r="N72" t="inlineStr">
-        <is>
-          <t>Brandon Sanderson</t>
-        </is>
-      </c>
+      <c r="N72" t="inlineStr"/>
       <c r="O72" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P72" t="inlineStr">
         <is>
-          <t>Skyward 0.5 - Un paradis à défendre - Brandon Sanderson</t>
+          <t>non-fiction</t>
         </is>
       </c>
       <c r="Q72" t="inlineStr">
         <is>
-          <t>fiction/SF</t>
+          <t>parenting</t>
+        </is>
+      </c>
+      <c r="R72" t="inlineStr">
+        <is>
+          <t>&gt; 1250, WTF</t>
+        </is>
+      </c>
+      <c r="S72" t="inlineStr">
+        <is>
+          <t>Siblings Without Rivalry - Adele Faber &amp; Elaine Mazlish - nan</t>
+        </is>
+      </c>
+      <c r="T72" t="inlineStr">
+        <is>
+          <t>non-fiction/parenting</t>
         </is>
       </c>
     </row>
@@ -5207,12 +6287,12 @@
       <c r="A73" t="inlineStr"/>
       <c r="B73" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>48</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>Skyward T3 : Cytonique</t>
+          <t>Skyward 0.5 - Un paradis à défendre</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
@@ -5224,7 +6304,7 @@
         <v>0</v>
       </c>
       <c r="F73" t="n">
-        <v>766</v>
+        <v>86</v>
       </c>
       <c r="G73" t="inlineStr"/>
       <c r="H73" t="inlineStr">
@@ -5233,14 +6313,14 @@
         </is>
       </c>
       <c r="I73" t="n">
-        <v>741</v>
+        <v>82</v>
       </c>
       <c r="J73" s="2" t="n">
-        <v>45436</v>
+        <v>45453</v>
       </c>
       <c r="K73" t="inlineStr">
         <is>
-          <t>000039</t>
+          <t>000048</t>
         </is>
       </c>
       <c r="L73" t="inlineStr">
@@ -5259,10 +6339,25 @@
       </c>
       <c r="P73" t="inlineStr">
         <is>
-          <t>Skyward T3 : Cytonique - Brandon Sanderson</t>
+          <t>fiction</t>
         </is>
       </c>
       <c r="Q73" t="inlineStr">
+        <is>
+          <t>SF</t>
+        </is>
+      </c>
+      <c r="R73" t="inlineStr">
+        <is>
+          <t>Moins de 250</t>
+        </is>
+      </c>
+      <c r="S73" t="inlineStr">
+        <is>
+          <t>Skyward 0.5 - Un paradis à défendre - Brandon Sanderson</t>
+        </is>
+      </c>
+      <c r="T73" t="inlineStr">
         <is>
           <t>fiction/SF</t>
         </is>
@@ -5272,12 +6367,12 @@
       <c r="A74" t="inlineStr"/>
       <c r="B74" t="inlineStr">
         <is>
-          <t>A44</t>
+          <t>39</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>Skyward, tome 1 : Vers les étoiles</t>
+          <t>Skyward T3 : Cytonique</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
@@ -5289,7 +6384,7 @@
         <v>0</v>
       </c>
       <c r="F74" t="n">
-        <v>736</v>
+        <v>766</v>
       </c>
       <c r="G74" t="inlineStr"/>
       <c r="H74" t="inlineStr">
@@ -5298,24 +6393,22 @@
         </is>
       </c>
       <c r="I74" t="n">
-        <v>736</v>
+        <v>741</v>
       </c>
       <c r="J74" s="2" t="n">
-        <v>44542</v>
+        <v>45436</v>
       </c>
       <c r="K74" t="inlineStr">
         <is>
-          <t>A44</t>
+          <t>000039</t>
         </is>
       </c>
       <c r="L74" t="inlineStr">
         <is>
-          <t>papier</t>
-        </is>
-      </c>
-      <c r="M74" t="n">
-        <v>1</v>
-      </c>
+          <t>ebook</t>
+        </is>
+      </c>
+      <c r="M74" t="inlineStr"/>
       <c r="N74" t="inlineStr">
         <is>
           <t>Brandon Sanderson</t>
@@ -5326,10 +6419,25 @@
       </c>
       <c r="P74" t="inlineStr">
         <is>
-          <t>Skyward, tome 1 : Vers les étoiles - Brandon Sanderson</t>
+          <t>fiction</t>
         </is>
       </c>
       <c r="Q74" t="inlineStr">
+        <is>
+          <t>SF</t>
+        </is>
+      </c>
+      <c r="R74" t="inlineStr">
+        <is>
+          <t>750-1000</t>
+        </is>
+      </c>
+      <c r="S74" t="inlineStr">
+        <is>
+          <t>Skyward T3 : Cytonique - Brandon Sanderson</t>
+        </is>
+      </c>
+      <c r="T74" t="inlineStr">
         <is>
           <t>fiction/SF</t>
         </is>
@@ -5339,12 +6447,12 @@
       <c r="A75" t="inlineStr"/>
       <c r="B75" t="inlineStr">
         <is>
-          <t>A34</t>
+          <t>A44</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>Skyward, tome 2 : Astrevise</t>
+          <t>Skyward, tome 1 : Vers les étoiles</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
@@ -5356,7 +6464,7 @@
         <v>0</v>
       </c>
       <c r="F75" t="n">
-        <v>659</v>
+        <v>736</v>
       </c>
       <c r="G75" t="inlineStr"/>
       <c r="H75" t="inlineStr">
@@ -5365,14 +6473,14 @@
         </is>
       </c>
       <c r="I75" t="n">
-        <v>659</v>
+        <v>736</v>
       </c>
       <c r="J75" s="2" t="n">
-        <v>44795</v>
+        <v>44542</v>
       </c>
       <c r="K75" t="inlineStr">
         <is>
-          <t>A34</t>
+          <t>A44</t>
         </is>
       </c>
       <c r="L75" t="inlineStr">
@@ -5393,10 +6501,25 @@
       </c>
       <c r="P75" t="inlineStr">
         <is>
-          <t>Skyward, tome 2 : Astrevise - Brandon Sanderson</t>
+          <t>fiction</t>
         </is>
       </c>
       <c r="Q75" t="inlineStr">
+        <is>
+          <t>SF</t>
+        </is>
+      </c>
+      <c r="R75" t="inlineStr">
+        <is>
+          <t>500-750</t>
+        </is>
+      </c>
+      <c r="S75" t="inlineStr">
+        <is>
+          <t>Skyward, tome 1 : Vers les étoiles - Brandon Sanderson</t>
+        </is>
+      </c>
+      <c r="T75" t="inlineStr">
         <is>
           <t>fiction/SF</t>
         </is>
@@ -5406,24 +6529,24 @@
       <c r="A76" t="inlineStr"/>
       <c r="B76" t="inlineStr">
         <is>
-          <t>A37</t>
+          <t>A34</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>Stardust</t>
+          <t>Skyward, tome 2 : Astrevise</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>Neil Gaiman</t>
+          <t>Brandon Sanderson</t>
         </is>
       </c>
       <c r="E76" t="n">
         <v>0</v>
       </c>
       <c r="F76" t="n">
-        <v>234</v>
+        <v>659</v>
       </c>
       <c r="G76" t="inlineStr"/>
       <c r="H76" t="inlineStr">
@@ -5432,14 +6555,14 @@
         </is>
       </c>
       <c r="I76" t="n">
-        <v>234</v>
+        <v>659</v>
       </c>
       <c r="J76" s="2" t="n">
-        <v>44730</v>
+        <v>44795</v>
       </c>
       <c r="K76" t="inlineStr">
         <is>
-          <t>A37</t>
+          <t>A34</t>
         </is>
       </c>
       <c r="L76" t="inlineStr">
@@ -5452,7 +6575,7 @@
       </c>
       <c r="N76" t="inlineStr">
         <is>
-          <t>Neil Gaiman</t>
+          <t>Brandon Sanderson</t>
         </is>
       </c>
       <c r="O76" t="n">
@@ -5460,12 +6583,27 @@
       </c>
       <c r="P76" t="inlineStr">
         <is>
-          <t>Stardust - Neil Gaiman</t>
+          <t>fiction</t>
         </is>
       </c>
       <c r="Q76" t="inlineStr">
         <is>
-          <t>fiction/fantasy</t>
+          <t>SF</t>
+        </is>
+      </c>
+      <c r="R76" t="inlineStr">
+        <is>
+          <t>500-750</t>
+        </is>
+      </c>
+      <c r="S76" t="inlineStr">
+        <is>
+          <t>Skyward, tome 2 : Astrevise - Brandon Sanderson</t>
+        </is>
+      </c>
+      <c r="T76" t="inlineStr">
+        <is>
+          <t>fiction/SF</t>
         </is>
       </c>
     </row>
@@ -5473,24 +6611,24 @@
       <c r="A77" t="inlineStr"/>
       <c r="B77" t="inlineStr">
         <is>
-          <t>44</t>
+          <t>A37</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>Station Eleven</t>
+          <t>Stardust</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>Emily St. John Mandel</t>
+          <t>Neil Gaiman</t>
         </is>
       </c>
       <c r="E77" t="n">
         <v>0</v>
       </c>
       <c r="F77" t="n">
-        <v>568</v>
+        <v>234</v>
       </c>
       <c r="G77" t="inlineStr"/>
       <c r="H77" t="inlineStr">
@@ -5499,25 +6637,27 @@
         </is>
       </c>
       <c r="I77" t="n">
-        <v>546</v>
+        <v>234</v>
       </c>
       <c r="J77" s="2" t="n">
-        <v>45445</v>
+        <v>44730</v>
       </c>
       <c r="K77" t="inlineStr">
         <is>
-          <t>000044</t>
+          <t>A37</t>
         </is>
       </c>
       <c r="L77" t="inlineStr">
         <is>
-          <t>ebook</t>
-        </is>
-      </c>
-      <c r="M77" t="inlineStr"/>
+          <t>papier</t>
+        </is>
+      </c>
+      <c r="M77" t="n">
+        <v>1</v>
+      </c>
       <c r="N77" t="inlineStr">
         <is>
-          <t>Emily St.</t>
+          <t>Neil Gaiman</t>
         </is>
       </c>
       <c r="O77" t="n">
@@ -5525,12 +6665,27 @@
       </c>
       <c r="P77" t="inlineStr">
         <is>
-          <t>Station Eleven - Emily St. John Mandel</t>
+          <t>fiction</t>
         </is>
       </c>
       <c r="Q77" t="inlineStr">
         <is>
-          <t>fiction/SF</t>
+          <t>fantasy</t>
+        </is>
+      </c>
+      <c r="R77" t="inlineStr">
+        <is>
+          <t>Moins de 250</t>
+        </is>
+      </c>
+      <c r="S77" t="inlineStr">
+        <is>
+          <t>Stardust - Neil Gaiman</t>
+        </is>
+      </c>
+      <c r="T77" t="inlineStr">
+        <is>
+          <t>fiction/fantasy</t>
         </is>
       </c>
     </row>
@@ -5538,44 +6693,40 @@
       <c r="A78" t="inlineStr"/>
       <c r="B78" t="inlineStr">
         <is>
-          <t>56</t>
+          <t>44</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>Terremer 2 Tehanu</t>
+          <t>Station Eleven</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>Ursula Le Guin</t>
+          <t>Emily St. John Mandel</t>
         </is>
       </c>
       <c r="E78" t="n">
         <v>0</v>
       </c>
       <c r="F78" t="n">
-        <v>351</v>
-      </c>
-      <c r="G78" t="inlineStr">
-        <is>
-          <t>Terremer #2</t>
-        </is>
-      </c>
+        <v>568</v>
+      </c>
+      <c r="G78" t="inlineStr"/>
       <c r="H78" t="inlineStr">
         <is>
           <t>fr</t>
         </is>
       </c>
       <c r="I78" t="n">
-        <v>1</v>
+        <v>546</v>
       </c>
       <c r="J78" s="2" t="n">
-        <v>45480</v>
+        <v>45445</v>
       </c>
       <c r="K78" t="inlineStr">
         <is>
-          <t>000056</t>
+          <t>000044</t>
         </is>
       </c>
       <c r="L78" t="inlineStr">
@@ -5586,20 +6737,35 @@
       <c r="M78" t="inlineStr"/>
       <c r="N78" t="inlineStr">
         <is>
-          <t>Ursula Guin</t>
+          <t>Emily St.</t>
         </is>
       </c>
       <c r="O78" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P78" t="inlineStr">
         <is>
-          <t>Terremer 2 Tehanu - Ursula Le Guin</t>
+          <t>fiction</t>
         </is>
       </c>
       <c r="Q78" t="inlineStr">
         <is>
-          <t>fiction/fantasy</t>
+          <t>SF</t>
+        </is>
+      </c>
+      <c r="R78" t="inlineStr">
+        <is>
+          <t>500-750</t>
+        </is>
+      </c>
+      <c r="S78" t="inlineStr">
+        <is>
+          <t>Station Eleven - Emily St. John Mandel</t>
+        </is>
+      </c>
+      <c r="T78" t="inlineStr">
+        <is>
+          <t>fiction/SF</t>
         </is>
       </c>
     </row>
@@ -5607,40 +6773,44 @@
       <c r="A79" t="inlineStr"/>
       <c r="B79" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>56</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>The Drummer and the Great Mountain - a Guidebook to Transforming Adult ADD/ADHD</t>
+          <t>Terremer 2 Tehanu</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>Michael Joseph Ferguson</t>
+          <t>Ursula Le Guin</t>
         </is>
       </c>
       <c r="E79" t="n">
         <v>0</v>
       </c>
       <c r="F79" t="n">
-        <v>819</v>
-      </c>
-      <c r="G79" t="inlineStr"/>
+        <v>351</v>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>Terremer #2</t>
+        </is>
+      </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>en</t>
+          <t>fr</t>
         </is>
       </c>
       <c r="I79" t="n">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="J79" s="2" t="n">
-        <v>45450</v>
+        <v>45480</v>
       </c>
       <c r="K79" t="inlineStr">
         <is>
-          <t>000027</t>
+          <t>000056</t>
         </is>
       </c>
       <c r="L79" t="inlineStr">
@@ -5651,7 +6821,7 @@
       <c r="M79" t="inlineStr"/>
       <c r="N79" t="inlineStr">
         <is>
-          <t>Michael Joseph</t>
+          <t>Ursula Guin</t>
         </is>
       </c>
       <c r="O79" t="n">
@@ -5659,12 +6829,27 @@
       </c>
       <c r="P79" t="inlineStr">
         <is>
-          <t>The Drummer and the Great Mountain - a Guidebook to Transforming Adult ADD/ADHD - Michael Joseph Ferguson</t>
+          <t>fiction</t>
         </is>
       </c>
       <c r="Q79" t="inlineStr">
         <is>
-          <t>non-fiction/santé</t>
+          <t>fantasy</t>
+        </is>
+      </c>
+      <c r="R79" t="inlineStr">
+        <is>
+          <t>250-500</t>
+        </is>
+      </c>
+      <c r="S79" t="inlineStr">
+        <is>
+          <t>Terremer 2 Tehanu - Ursula Le Guin</t>
+        </is>
+      </c>
+      <c r="T79" t="inlineStr">
+        <is>
+          <t>fiction/fantasy</t>
         </is>
       </c>
     </row>
@@ -5672,24 +6857,24 @@
       <c r="A80" t="inlineStr"/>
       <c r="B80" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>27</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>The Everyday Parenting Toolkit</t>
+          <t>The Drummer and the Great Mountain - a Guidebook to Transforming Adult ADD/ADHD</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>Alan E. Kazdin</t>
+          <t>Michael Joseph Ferguson</t>
         </is>
       </c>
       <c r="E80" t="n">
         <v>0</v>
       </c>
       <c r="F80" t="n">
-        <v>390</v>
+        <v>819</v>
       </c>
       <c r="G80" t="inlineStr"/>
       <c r="H80" t="inlineStr">
@@ -5698,14 +6883,14 @@
         </is>
       </c>
       <c r="I80" t="n">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="J80" s="2" t="n">
-        <v>45473</v>
+        <v>45450</v>
       </c>
       <c r="K80" t="inlineStr">
         <is>
-          <t>000054</t>
+          <t>000027</t>
         </is>
       </c>
       <c r="L80" t="inlineStr">
@@ -5716,7 +6901,7 @@
       <c r="M80" t="inlineStr"/>
       <c r="N80" t="inlineStr">
         <is>
-          <t>Alan Kazdin</t>
+          <t>Michael Joseph</t>
         </is>
       </c>
       <c r="O80" t="n">
@@ -5724,12 +6909,27 @@
       </c>
       <c r="P80" t="inlineStr">
         <is>
-          <t>The Everyday Parenting Toolkit - Alan E. Kazdin</t>
+          <t>non-fiction</t>
         </is>
       </c>
       <c r="Q80" t="inlineStr">
         <is>
-          <t>non-fiction/parenting</t>
+          <t>santé</t>
+        </is>
+      </c>
+      <c r="R80" t="inlineStr">
+        <is>
+          <t>750-1000</t>
+        </is>
+      </c>
+      <c r="S80" t="inlineStr">
+        <is>
+          <t>The Drummer and the Great Mountain - a Guidebook to Transforming Adult ADD/ADHD - Michael Joseph Ferguson</t>
+        </is>
+      </c>
+      <c r="T80" t="inlineStr">
+        <is>
+          <t>non-fiction/santé</t>
         </is>
       </c>
     </row>
@@ -5737,45 +6937,40 @@
       <c r="A81" t="inlineStr"/>
       <c r="B81" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>54</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>Titus d'enfer</t>
+          <t>The Everyday Parenting Toolkit</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>Mervyn Peake_x000D_
-Patrick Reumaux</t>
+          <t>Alan E. Kazdin</t>
         </is>
       </c>
       <c r="E81" t="n">
         <v>0</v>
       </c>
       <c r="F81" t="n">
-        <v>883</v>
-      </c>
-      <c r="G81" t="inlineStr">
-        <is>
-          <t>Gormenghast #1</t>
-        </is>
-      </c>
+        <v>390</v>
+      </c>
+      <c r="G81" t="inlineStr"/>
       <c r="H81" t="inlineStr">
         <is>
-          <t>fr</t>
+          <t>en</t>
         </is>
       </c>
       <c r="I81" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J81" s="2" t="n">
-        <v>45410</v>
+        <v>45473</v>
       </c>
       <c r="K81" t="inlineStr">
         <is>
-          <t>000036</t>
+          <t>000054</t>
         </is>
       </c>
       <c r="L81" t="inlineStr">
@@ -5786,7 +6981,7 @@
       <c r="M81" t="inlineStr"/>
       <c r="N81" t="inlineStr">
         <is>
-          <t>Mervyn Peake</t>
+          <t>Alan Kazdin</t>
         </is>
       </c>
       <c r="O81" t="n">
@@ -5794,13 +6989,27 @@
       </c>
       <c r="P81" t="inlineStr">
         <is>
-          <t>Titus d'enfer - Mervyn Peake_x000D_
-Patrick Reumaux</t>
+          <t>non-fiction</t>
         </is>
       </c>
       <c r="Q81" t="inlineStr">
         <is>
-          <t>fiction/fantasy</t>
+          <t>parenting</t>
+        </is>
+      </c>
+      <c r="R81" t="inlineStr">
+        <is>
+          <t>250-500</t>
+        </is>
+      </c>
+      <c r="S81" t="inlineStr">
+        <is>
+          <t>The Everyday Parenting Toolkit - Alan E. Kazdin</t>
+        </is>
+      </c>
+      <c r="T81" t="inlineStr">
+        <is>
+          <t>non-fiction/parenting</t>
         </is>
       </c>
     </row>
@@ -5808,64 +7017,83 @@
       <c r="A82" t="inlineStr"/>
       <c r="B82" t="inlineStr">
         <is>
-          <t>A2</t>
+          <t>36</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>Tobie Lolness T1 - La Vie suspendue</t>
+          <t>Titus d'enfer</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>Timothée de Fombelle</t>
+          <t>Mervyn Peake_x000D_
+Patrick Reumaux</t>
         </is>
       </c>
       <c r="E82" t="n">
         <v>0</v>
       </c>
       <c r="F82" t="n">
-        <v>292</v>
-      </c>
-      <c r="G82" t="inlineStr"/>
+        <v>883</v>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>Gormenghast #1</t>
+        </is>
+      </c>
       <c r="H82" t="inlineStr">
         <is>
           <t>fr</t>
         </is>
       </c>
       <c r="I82" t="n">
-        <v>292</v>
+        <v>1</v>
       </c>
       <c r="J82" s="2" t="n">
-        <v>45473</v>
+        <v>45410</v>
       </c>
       <c r="K82" t="inlineStr">
         <is>
-          <t>A2</t>
+          <t>000036</t>
         </is>
       </c>
       <c r="L82" t="inlineStr">
         <is>
-          <t>papier</t>
-        </is>
-      </c>
-      <c r="M82" t="n">
-        <v>1</v>
-      </c>
+          <t>ebook</t>
+        </is>
+      </c>
+      <c r="M82" t="inlineStr"/>
       <c r="N82" t="inlineStr">
         <is>
-          <t>Timothée Fombelle</t>
+          <t>Mervyn Peake</t>
         </is>
       </c>
       <c r="O82" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P82" t="inlineStr">
         <is>
-          <t>Tobie Lolness T1 - La Vie suspendue - Timothée de Fombelle</t>
+          <t>fiction</t>
         </is>
       </c>
       <c r="Q82" t="inlineStr">
+        <is>
+          <t>fantasy</t>
+        </is>
+      </c>
+      <c r="R82" t="inlineStr">
+        <is>
+          <t>750-1000</t>
+        </is>
+      </c>
+      <c r="S82" t="inlineStr">
+        <is>
+          <t>Titus d'enfer - Mervyn Peake_x000D_
+Patrick Reumaux</t>
+        </is>
+      </c>
+      <c r="T82" t="inlineStr">
         <is>
           <t>fiction/fantasy</t>
         </is>
@@ -5875,12 +7103,12 @@
       <c r="A83" t="inlineStr"/>
       <c r="B83" t="inlineStr">
         <is>
-          <t>A1</t>
+          <t>A2</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>Tobie Lolness T2 - Les Yeux d’Elisha</t>
+          <t>Tobie Lolness T1 - La Vie suspendue</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
@@ -5892,7 +7120,7 @@
         <v>0</v>
       </c>
       <c r="F83" t="n">
-        <v>400</v>
+        <v>292</v>
       </c>
       <c r="G83" t="inlineStr"/>
       <c r="H83" t="inlineStr">
@@ -5901,14 +7129,14 @@
         </is>
       </c>
       <c r="I83" t="n">
-        <v>400</v>
+        <v>292</v>
       </c>
       <c r="J83" s="2" t="n">
-        <v>45488</v>
+        <v>45473</v>
       </c>
       <c r="K83" t="inlineStr">
         <is>
-          <t>A1</t>
+          <t>A2</t>
         </is>
       </c>
       <c r="L83" t="inlineStr">
@@ -5929,10 +7157,25 @@
       </c>
       <c r="P83" t="inlineStr">
         <is>
-          <t>Tobie Lolness T2 - Les Yeux d’Elisha - Timothée de Fombelle</t>
+          <t>fiction</t>
         </is>
       </c>
       <c r="Q83" t="inlineStr">
+        <is>
+          <t>fantasy</t>
+        </is>
+      </c>
+      <c r="R83" t="inlineStr">
+        <is>
+          <t>250-500</t>
+        </is>
+      </c>
+      <c r="S83" t="inlineStr">
+        <is>
+          <t>Tobie Lolness T1 - La Vie suspendue - Timothée de Fombelle</t>
+        </is>
+      </c>
+      <c r="T83" t="inlineStr">
         <is>
           <t>fiction/fantasy</t>
         </is>
@@ -5942,24 +7185,24 @@
       <c r="A84" t="inlineStr"/>
       <c r="B84" t="inlineStr">
         <is>
-          <t>A3</t>
+          <t>A1</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>Tress de la mer Emeraude</t>
+          <t>Tobie Lolness T2 - Les Yeux d’Elisha</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>Brandon Sanderson</t>
+          <t>Timothée de Fombelle</t>
         </is>
       </c>
       <c r="E84" t="n">
         <v>0</v>
       </c>
       <c r="F84" t="n">
-        <v>645</v>
+        <v>400</v>
       </c>
       <c r="G84" t="inlineStr"/>
       <c r="H84" t="inlineStr">
@@ -5968,14 +7211,14 @@
         </is>
       </c>
       <c r="I84" t="n">
-        <v>645</v>
+        <v>400</v>
       </c>
       <c r="J84" s="2" t="n">
-        <v>45463</v>
+        <v>45488</v>
       </c>
       <c r="K84" t="inlineStr">
         <is>
-          <t>A3</t>
+          <t>A1</t>
         </is>
       </c>
       <c r="L84" t="inlineStr">
@@ -5988,7 +7231,7 @@
       </c>
       <c r="N84" t="inlineStr">
         <is>
-          <t>Brandon Sanderson</t>
+          <t>Timothée Fombelle</t>
         </is>
       </c>
       <c r="O84" t="n">
@@ -5996,10 +7239,25 @@
       </c>
       <c r="P84" t="inlineStr">
         <is>
-          <t>Tress de la mer Emeraude - Brandon Sanderson</t>
+          <t>fiction</t>
         </is>
       </c>
       <c r="Q84" t="inlineStr">
+        <is>
+          <t>fantasy</t>
+        </is>
+      </c>
+      <c r="R84" t="inlineStr">
+        <is>
+          <t>250-500</t>
+        </is>
+      </c>
+      <c r="S84" t="inlineStr">
+        <is>
+          <t>Tobie Lolness T2 - Les Yeux d’Elisha - Timothée de Fombelle</t>
+        </is>
+      </c>
+      <c r="T84" t="inlineStr">
         <is>
           <t>fiction/fantasy</t>
         </is>
@@ -6009,24 +7267,24 @@
       <c r="A85" t="inlineStr"/>
       <c r="B85" t="inlineStr">
         <is>
-          <t>A17</t>
+          <t>A3</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>Tyrann</t>
+          <t>Tress de la mer Emeraude</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>Isaac Asimov</t>
+          <t>Brandon Sanderson</t>
         </is>
       </c>
       <c r="E85" t="n">
         <v>0</v>
       </c>
       <c r="F85" t="n">
-        <v>312</v>
+        <v>645</v>
       </c>
       <c r="G85" t="inlineStr"/>
       <c r="H85" t="inlineStr">
@@ -6035,14 +7293,14 @@
         </is>
       </c>
       <c r="I85" t="n">
-        <v>312</v>
+        <v>645</v>
       </c>
       <c r="J85" s="2" t="n">
-        <v>45116</v>
+        <v>45463</v>
       </c>
       <c r="K85" t="inlineStr">
         <is>
-          <t>A17</t>
+          <t>A3</t>
         </is>
       </c>
       <c r="L85" t="inlineStr">
@@ -6055,7 +7313,7 @@
       </c>
       <c r="N85" t="inlineStr">
         <is>
-          <t>Isaac Asimov</t>
+          <t>Brandon Sanderson</t>
         </is>
       </c>
       <c r="O85" t="n">
@@ -6063,12 +7321,27 @@
       </c>
       <c r="P85" t="inlineStr">
         <is>
-          <t>Tyrann - Isaac Asimov</t>
+          <t>fiction</t>
         </is>
       </c>
       <c r="Q85" t="inlineStr">
         <is>
-          <t>fiction/SF</t>
+          <t>fantasy</t>
+        </is>
+      </c>
+      <c r="R85" t="inlineStr">
+        <is>
+          <t>500-750</t>
+        </is>
+      </c>
+      <c r="S85" t="inlineStr">
+        <is>
+          <t>Tress de la mer Emeraude - Brandon Sanderson</t>
+        </is>
+      </c>
+      <c r="T85" t="inlineStr">
+        <is>
+          <t>fiction/fantasy</t>
         </is>
       </c>
     </row>
@@ -6076,24 +7349,24 @@
       <c r="A86" t="inlineStr"/>
       <c r="B86" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>A17</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>Un psaume pour les recyclés sauvages</t>
+          <t>Tyrann</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>Becky Chambers</t>
+          <t>Isaac Asimov</t>
         </is>
       </c>
       <c r="E86" t="n">
         <v>0</v>
       </c>
       <c r="F86" t="n">
-        <v>157</v>
+        <v>312</v>
       </c>
       <c r="G86" t="inlineStr"/>
       <c r="H86" t="inlineStr">
@@ -6102,25 +7375,27 @@
         </is>
       </c>
       <c r="I86" t="n">
-        <v>153</v>
+        <v>312</v>
       </c>
       <c r="J86" s="2" t="n">
-        <v>45463</v>
+        <v>45116</v>
       </c>
       <c r="K86" t="inlineStr">
         <is>
-          <t>000051</t>
+          <t>A17</t>
         </is>
       </c>
       <c r="L86" t="inlineStr">
         <is>
-          <t>ebook</t>
-        </is>
-      </c>
-      <c r="M86" t="inlineStr"/>
+          <t>papier</t>
+        </is>
+      </c>
+      <c r="M86" t="n">
+        <v>1</v>
+      </c>
       <c r="N86" t="inlineStr">
         <is>
-          <t>Becky Chambers</t>
+          <t>Isaac Asimov</t>
         </is>
       </c>
       <c r="O86" t="n">
@@ -6128,10 +7403,25 @@
       </c>
       <c r="P86" t="inlineStr">
         <is>
-          <t>Un psaume pour les recyclés sauvages - Becky Chambers</t>
+          <t>fiction</t>
         </is>
       </c>
       <c r="Q86" t="inlineStr">
+        <is>
+          <t>SF</t>
+        </is>
+      </c>
+      <c r="R86" t="inlineStr">
+        <is>
+          <t>250-500</t>
+        </is>
+      </c>
+      <c r="S86" t="inlineStr">
+        <is>
+          <t>Tyrann - Isaac Asimov</t>
+        </is>
+      </c>
+      <c r="T86" t="inlineStr">
         <is>
           <t>fiction/SF</t>
         </is>
@@ -6141,24 +7431,24 @@
       <c r="A87" t="inlineStr"/>
       <c r="B87" t="inlineStr">
         <is>
-          <t>A15</t>
+          <t>51</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>Une place à prendre</t>
+          <t>Un psaume pour les recyclés sauvages</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>J.K. Rowling</t>
+          <t>Becky Chambers</t>
         </is>
       </c>
       <c r="E87" t="n">
         <v>0</v>
       </c>
       <c r="F87" t="n">
-        <v>682</v>
+        <v>157</v>
       </c>
       <c r="G87" t="inlineStr"/>
       <c r="H87" t="inlineStr">
@@ -6167,27 +7457,25 @@
         </is>
       </c>
       <c r="I87" t="n">
-        <v>682</v>
+        <v>153</v>
       </c>
       <c r="J87" s="2" t="n">
-        <v>45147</v>
+        <v>45463</v>
       </c>
       <c r="K87" t="inlineStr">
         <is>
-          <t>A15</t>
+          <t>000051</t>
         </is>
       </c>
       <c r="L87" t="inlineStr">
         <is>
-          <t>papier</t>
-        </is>
-      </c>
-      <c r="M87" t="n">
-        <v>1</v>
-      </c>
+          <t>ebook</t>
+        </is>
+      </c>
+      <c r="M87" t="inlineStr"/>
       <c r="N87" t="inlineStr">
         <is>
-          <t>J.K. Rowling</t>
+          <t>Becky Chambers</t>
         </is>
       </c>
       <c r="O87" t="n">
@@ -6195,12 +7483,27 @@
       </c>
       <c r="P87" t="inlineStr">
         <is>
-          <t>Une place à prendre - J.K. Rowling</t>
+          <t>fiction</t>
         </is>
       </c>
       <c r="Q87" t="inlineStr">
         <is>
-          <t>fiction/littérature contemporaine</t>
+          <t>SF</t>
+        </is>
+      </c>
+      <c r="R87" t="inlineStr">
+        <is>
+          <t>Moins de 250</t>
+        </is>
+      </c>
+      <c r="S87" t="inlineStr">
+        <is>
+          <t>Un psaume pour les recyclés sauvages - Becky Chambers</t>
+        </is>
+      </c>
+      <c r="T87" t="inlineStr">
+        <is>
+          <t>fiction/SF</t>
         </is>
       </c>
     </row>
@@ -6208,68 +7511,81 @@
       <c r="A88" t="inlineStr"/>
       <c r="B88" t="inlineStr">
         <is>
-          <t>68</t>
+          <t>A15</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>Voyageur 2 : Libration</t>
+          <t>Une place à prendre</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>Becky Chambers</t>
+          <t>J.K. Rowling</t>
         </is>
       </c>
       <c r="E88" t="n">
         <v>0</v>
       </c>
       <c r="F88" t="n">
-        <v>504</v>
-      </c>
-      <c r="G88" t="inlineStr">
-        <is>
-          <t>Les voyageurs #2</t>
-        </is>
-      </c>
+        <v>682</v>
+      </c>
+      <c r="G88" t="inlineStr"/>
       <c r="H88" t="inlineStr">
         <is>
           <t>fr</t>
         </is>
       </c>
       <c r="I88" t="n">
-        <v>221</v>
+        <v>682</v>
       </c>
       <c r="J88" s="2" t="n">
-        <v>45565</v>
+        <v>45147</v>
       </c>
       <c r="K88" t="inlineStr">
         <is>
-          <t>000068</t>
+          <t>A15</t>
         </is>
       </c>
       <c r="L88" t="inlineStr">
         <is>
-          <t>ebook</t>
-        </is>
-      </c>
-      <c r="M88" t="inlineStr"/>
+          <t>papier</t>
+        </is>
+      </c>
+      <c r="M88" t="n">
+        <v>1</v>
+      </c>
       <c r="N88" t="inlineStr">
         <is>
-          <t>Becky Chambers</t>
+          <t>J.K. Rowling</t>
         </is>
       </c>
       <c r="O88" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P88" t="inlineStr">
         <is>
-          <t>Voyageur 2 : Libration - Becky Chambers</t>
+          <t>fiction</t>
         </is>
       </c>
       <c r="Q88" t="inlineStr">
         <is>
-          <t>fiction/SF</t>
+          <t>littérature contemporaine</t>
+        </is>
+      </c>
+      <c r="R88" t="inlineStr">
+        <is>
+          <t>500-750</t>
+        </is>
+      </c>
+      <c r="S88" t="inlineStr">
+        <is>
+          <t>Une place à prendre - J.K. Rowling</t>
+        </is>
+      </c>
+      <c r="T88" t="inlineStr">
+        <is>
+          <t>non-fiction/société</t>
         </is>
       </c>
     </row>
@@ -6277,121 +7593,167 @@
       <c r="A89" t="inlineStr"/>
       <c r="B89" t="inlineStr">
         <is>
+          <t>68</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>Voyageur 2 : Libration</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>Becky Chambers</t>
+        </is>
+      </c>
+      <c r="E89" t="n">
+        <v>0</v>
+      </c>
+      <c r="F89" t="n">
+        <v>504</v>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>Les voyageurs #2</t>
+        </is>
+      </c>
+      <c r="H89" t="inlineStr">
+        <is>
+          <t>fr</t>
+        </is>
+      </c>
+      <c r="I89" t="n">
+        <v>487</v>
+      </c>
+      <c r="J89" s="2" t="n">
+        <v>45568</v>
+      </c>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>000068</t>
+        </is>
+      </c>
+      <c r="L89" t="inlineStr">
+        <is>
+          <t>ebook</t>
+        </is>
+      </c>
+      <c r="M89" t="inlineStr"/>
+      <c r="N89" t="inlineStr">
+        <is>
+          <t>Becky Chambers</t>
+        </is>
+      </c>
+      <c r="O89" t="n">
+        <v>1</v>
+      </c>
+      <c r="P89" t="inlineStr">
+        <is>
+          <t>fiction</t>
+        </is>
+      </c>
+      <c r="Q89" t="inlineStr">
+        <is>
+          <t>SF</t>
+        </is>
+      </c>
+      <c r="R89" t="inlineStr">
+        <is>
+          <t>500-750</t>
+        </is>
+      </c>
+      <c r="S89" t="inlineStr">
+        <is>
+          <t>Voyageur 2 : Libration - Becky Chambers</t>
+        </is>
+      </c>
+      <c r="T89" t="inlineStr">
+        <is>
+          <t>fiction/SF</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr"/>
+      <c r="B90" t="inlineStr">
+        <is>
           <t>8</t>
         </is>
       </c>
-      <c r="C89" t="inlineStr">
+      <c r="C90" t="inlineStr">
         <is>
           <t>What to Expect the First Year</t>
         </is>
       </c>
-      <c r="D89" t="inlineStr">
+      <c r="D90" t="inlineStr">
         <is>
           <t>Arlene Eisenberg_x000D_
 Sharon Mazel_x000D_
 Sandee Hathaway, B.S.N.</t>
         </is>
       </c>
-      <c r="E89" t="n">
-        <v>0</v>
-      </c>
-      <c r="F89" t="n">
+      <c r="E90" t="n">
+        <v>0</v>
+      </c>
+      <c r="F90" t="n">
         <v>2473</v>
       </c>
-      <c r="G89" t="inlineStr"/>
-      <c r="H89" t="inlineStr">
+      <c r="G90" t="inlineStr"/>
+      <c r="H90" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="I89" t="n">
+      <c r="I90" t="n">
         <v>27</v>
       </c>
-      <c r="J89" s="2" t="n">
+      <c r="J90" s="2" t="n">
         <v>45299</v>
       </c>
-      <c r="K89" t="inlineStr">
+      <c r="K90" t="inlineStr">
         <is>
           <t>00008</t>
         </is>
       </c>
-      <c r="L89" t="inlineStr">
+      <c r="L90" t="inlineStr">
         <is>
           <t>ebook</t>
         </is>
       </c>
-      <c r="M89" t="inlineStr"/>
-      <c r="N89" t="inlineStr">
+      <c r="M90" t="inlineStr"/>
+      <c r="N90" t="inlineStr">
         <is>
           <t>Arlene Eisenberg</t>
         </is>
       </c>
-      <c r="O89" t="n">
-        <v>0</v>
-      </c>
-      <c r="P89" t="inlineStr">
+      <c r="O90" t="n">
+        <v>0</v>
+      </c>
+      <c r="P90" t="inlineStr">
+        <is>
+          <t>non-fiction</t>
+        </is>
+      </c>
+      <c r="Q90" t="inlineStr">
+        <is>
+          <t>parenting</t>
+        </is>
+      </c>
+      <c r="R90" t="inlineStr">
+        <is>
+          <t>&gt; 1250, WTF</t>
+        </is>
+      </c>
+      <c r="S90" t="inlineStr">
         <is>
           <t>What to Expect the First Year - Arlene Eisenberg_x000D_
 Sharon Mazel_x000D_
 Sandee Hathaway, B.S.N.</t>
         </is>
       </c>
-      <c r="Q89" t="inlineStr">
+      <c r="T90" t="inlineStr">
         <is>
           <t>non-fiction/parenting</t>
-        </is>
-      </c>
-    </row>
-    <row r="90">
-      <c r="A90" t="inlineStr"/>
-      <c r="B90" t="inlineStr">
-        <is>
-          <t>9</t>
-        </is>
-      </c>
-      <c r="C90" t="inlineStr">
-        <is>
-          <t>koreader</t>
-        </is>
-      </c>
-      <c r="D90" t="inlineStr"/>
-      <c r="E90" t="n">
-        <v>0</v>
-      </c>
-      <c r="F90" t="n">
-        <v>1</v>
-      </c>
-      <c r="G90" t="inlineStr"/>
-      <c r="H90" t="inlineStr"/>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
-      <c r="J90" s="2" t="n">
-        <v>45299</v>
-      </c>
-      <c r="K90" t="inlineStr">
-        <is>
-          <t>00009</t>
-        </is>
-      </c>
-      <c r="L90" t="inlineStr">
-        <is>
-          <t>ebook</t>
-        </is>
-      </c>
-      <c r="M90" t="inlineStr"/>
-      <c r="N90" t="inlineStr"/>
-      <c r="O90" t="n">
-        <v>0</v>
-      </c>
-      <c r="P90" t="inlineStr">
-        <is>
-          <t>koreader - nan</t>
-        </is>
-      </c>
-      <c r="Q90" t="inlineStr">
-        <is>
-          <t>non-fiction/technologie</t>
         </is>
       </c>
     </row>
@@ -6399,40 +7761,32 @@
       <c r="A91" t="inlineStr"/>
       <c r="B91" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>9</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>la route</t>
-        </is>
-      </c>
-      <c r="D91" t="inlineStr">
-        <is>
-          <t>Cormac McCarthy</t>
-        </is>
-      </c>
+          <t>koreader</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr"/>
       <c r="E91" t="n">
         <v>0</v>
       </c>
       <c r="F91" t="n">
-        <v>385</v>
+        <v>1</v>
       </c>
       <c r="G91" t="inlineStr"/>
-      <c r="H91" t="inlineStr">
-        <is>
-          <t>fr</t>
-        </is>
-      </c>
+      <c r="H91" t="inlineStr"/>
       <c r="I91" t="n">
-        <v>383</v>
+        <v>0</v>
       </c>
       <c r="J91" s="2" t="n">
-        <v>45370</v>
+        <v>45299</v>
       </c>
       <c r="K91" t="inlineStr">
         <is>
-          <t>000032</t>
+          <t>00009</t>
         </is>
       </c>
       <c r="L91" t="inlineStr">
@@ -6441,22 +7795,33 @@
         </is>
       </c>
       <c r="M91" t="inlineStr"/>
-      <c r="N91" t="inlineStr">
-        <is>
-          <t>Cormac McCarthy</t>
-        </is>
-      </c>
+      <c r="N91" t="inlineStr"/>
       <c r="O91" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P91" t="inlineStr">
         <is>
-          <t>la route - Cormac McCarthy</t>
+          <t>non-fiction</t>
         </is>
       </c>
       <c r="Q91" t="inlineStr">
         <is>
-          <t>fiction/SF</t>
+          <t>technologie</t>
+        </is>
+      </c>
+      <c r="R91" t="inlineStr">
+        <is>
+          <t>Moins de 250</t>
+        </is>
+      </c>
+      <c r="S91" t="inlineStr">
+        <is>
+          <t>koreader - nan</t>
+        </is>
+      </c>
+      <c r="T91" t="inlineStr">
+        <is>
+          <t>non-fiction/technologie</t>
         </is>
       </c>
     </row>
@@ -6464,44 +7829,40 @@
       <c r="A92" t="inlineStr"/>
       <c r="B92" t="inlineStr">
         <is>
-          <t>64</t>
+          <t>32</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>Blackwater 2 - La digue</t>
+          <t>la route</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>Michael McDowell</t>
+          <t>Cormac McCarthy</t>
         </is>
       </c>
       <c r="E92" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F92" t="n">
-        <v>225</v>
-      </c>
-      <c r="G92" t="inlineStr">
-        <is>
-          <t>Blackwater #2</t>
-        </is>
-      </c>
+        <v>385</v>
+      </c>
+      <c r="G92" t="inlineStr"/>
       <c r="H92" t="inlineStr">
         <is>
-          <t>it</t>
+          <t>fr</t>
         </is>
       </c>
       <c r="I92" t="n">
-        <v>208</v>
+        <v>383</v>
       </c>
       <c r="J92" s="2" t="n">
-        <v>45524</v>
+        <v>45370</v>
       </c>
       <c r="K92" t="inlineStr">
         <is>
-          <t>000064</t>
+          <t>000032</t>
         </is>
       </c>
       <c r="L92" t="inlineStr">
@@ -6512,7 +7873,7 @@
       <c r="M92" t="inlineStr"/>
       <c r="N92" t="inlineStr">
         <is>
-          <t>Michael McDowell</t>
+          <t>Cormac McCarthy</t>
         </is>
       </c>
       <c r="O92" t="n">
@@ -6520,12 +7881,27 @@
       </c>
       <c r="P92" t="inlineStr">
         <is>
-          <t>Blackwater 2 - La digue - Michael McDowell</t>
+          <t>fiction</t>
         </is>
       </c>
       <c r="Q92" t="inlineStr">
         <is>
-          <t>fiction/fantastique</t>
+          <t>SF</t>
+        </is>
+      </c>
+      <c r="R92" t="inlineStr">
+        <is>
+          <t>250-500</t>
+        </is>
+      </c>
+      <c r="S92" t="inlineStr">
+        <is>
+          <t>la route - Cormac McCarthy</t>
+        </is>
+      </c>
+      <c r="T92" t="inlineStr">
+        <is>
+          <t>fiction/SF</t>
         </is>
       </c>
     </row>
@@ -6533,40 +7909,44 @@
       <c r="A93" t="inlineStr"/>
       <c r="B93" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>64</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>Chasseur, cueilleur, parents</t>
+          <t>Blackwater 2 - La digue</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>Michaeleen Doucleff</t>
+          <t>Michael McDowell</t>
         </is>
       </c>
       <c r="E93" t="n">
-        <v>149</v>
+        <v>1</v>
       </c>
       <c r="F93" t="n">
-        <v>675</v>
-      </c>
-      <c r="G93" t="inlineStr"/>
+        <v>225</v>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>Blackwater #2</t>
+        </is>
+      </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>fr</t>
+          <t>it</t>
         </is>
       </c>
       <c r="I93" t="n">
-        <v>418</v>
+        <v>208</v>
       </c>
       <c r="J93" s="2" t="n">
-        <v>45300</v>
+        <v>45524</v>
       </c>
       <c r="K93" t="inlineStr">
         <is>
-          <t>00005</t>
+          <t>000064</t>
         </is>
       </c>
       <c r="L93" t="inlineStr">
@@ -6577,7 +7957,7 @@
       <c r="M93" t="inlineStr"/>
       <c r="N93" t="inlineStr">
         <is>
-          <t>Michaeleen Doucleff</t>
+          <t>Michael McDowell</t>
         </is>
       </c>
       <c r="O93" t="n">
@@ -6585,12 +7965,27 @@
       </c>
       <c r="P93" t="inlineStr">
         <is>
-          <t>Chasseur, cueilleur, parents - Michaeleen Doucleff</t>
+          <t>fiction</t>
         </is>
       </c>
       <c r="Q93" t="inlineStr">
         <is>
-          <t>non-fiction/parenting</t>
+          <t>fantastique</t>
+        </is>
+      </c>
+      <c r="R93" t="inlineStr">
+        <is>
+          <t>Moins de 250</t>
+        </is>
+      </c>
+      <c r="S93" t="inlineStr">
+        <is>
+          <t>Blackwater 2 - La digue - Michael McDowell</t>
+        </is>
+      </c>
+      <c r="T93" t="inlineStr">
+        <is>
+          <t>fiction/fantastique</t>
         </is>
       </c>
     </row>
@@ -6598,40 +7993,40 @@
       <c r="A94" t="inlineStr"/>
       <c r="B94" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>5</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>Dans la toile du temps</t>
+          <t>Chasseur, cueilleur, parents</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>Adrian Tchaikovsky</t>
+          <t>Michaeleen Doucleff</t>
         </is>
       </c>
       <c r="E94" t="n">
-        <v>1</v>
+        <v>149</v>
       </c>
       <c r="F94" t="n">
-        <v>888</v>
+        <v>675</v>
       </c>
       <c r="G94" t="inlineStr"/>
       <c r="H94" t="inlineStr">
         <is>
-          <t>fr-FR</t>
+          <t>fr</t>
         </is>
       </c>
       <c r="I94" t="n">
-        <v>870</v>
+        <v>418</v>
       </c>
       <c r="J94" s="2" t="n">
-        <v>45390</v>
+        <v>45300</v>
       </c>
       <c r="K94" t="inlineStr">
         <is>
-          <t>000033</t>
+          <t>00005</t>
         </is>
       </c>
       <c r="L94" t="inlineStr">
@@ -6642,7 +8037,7 @@
       <c r="M94" t="inlineStr"/>
       <c r="N94" t="inlineStr">
         <is>
-          <t>Adrian Tchaikovsky</t>
+          <t>Michaeleen Doucleff</t>
         </is>
       </c>
       <c r="O94" t="n">
@@ -6650,12 +8045,27 @@
       </c>
       <c r="P94" t="inlineStr">
         <is>
-          <t>Dans la toile du temps - Adrian Tchaikovsky</t>
+          <t>non-fiction</t>
         </is>
       </c>
       <c r="Q94" t="inlineStr">
         <is>
-          <t>fiction/SF</t>
+          <t>parenting</t>
+        </is>
+      </c>
+      <c r="R94" t="inlineStr">
+        <is>
+          <t>500-750</t>
+        </is>
+      </c>
+      <c r="S94" t="inlineStr">
+        <is>
+          <t>Chasseur, cueilleur, parents - Michaeleen Doucleff</t>
+        </is>
+      </c>
+      <c r="T94" t="inlineStr">
+        <is>
+          <t>non-fiction/parenting</t>
         </is>
       </c>
     </row>
@@ -6663,40 +8073,40 @@
       <c r="A95" t="inlineStr"/>
       <c r="B95" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>33</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>Des fleurs pour Algernon</t>
+          <t>Dans la toile du temps</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>Daniel Keyes</t>
+          <t>Adrian Tchaikovsky</t>
         </is>
       </c>
       <c r="E95" t="n">
         <v>1</v>
       </c>
       <c r="F95" t="n">
-        <v>456</v>
+        <v>888</v>
       </c>
       <c r="G95" t="inlineStr"/>
       <c r="H95" t="inlineStr">
         <is>
-          <t>fr</t>
+          <t>fr-FR</t>
         </is>
       </c>
       <c r="I95" t="n">
-        <v>447</v>
+        <v>870</v>
       </c>
       <c r="J95" s="2" t="n">
-        <v>45439</v>
+        <v>45390</v>
       </c>
       <c r="K95" t="inlineStr">
         <is>
-          <t>000040</t>
+          <t>000033</t>
         </is>
       </c>
       <c r="L95" t="inlineStr">
@@ -6707,7 +8117,7 @@
       <c r="M95" t="inlineStr"/>
       <c r="N95" t="inlineStr">
         <is>
-          <t>Daniel Keyes</t>
+          <t>Adrian Tchaikovsky</t>
         </is>
       </c>
       <c r="O95" t="n">
@@ -6715,10 +8125,25 @@
       </c>
       <c r="P95" t="inlineStr">
         <is>
-          <t>Des fleurs pour Algernon - Daniel Keyes</t>
+          <t>fiction</t>
         </is>
       </c>
       <c r="Q95" t="inlineStr">
+        <is>
+          <t>SF</t>
+        </is>
+      </c>
+      <c r="R95" t="inlineStr">
+        <is>
+          <t>750-1000</t>
+        </is>
+      </c>
+      <c r="S95" t="inlineStr">
+        <is>
+          <t>Dans la toile du temps - Adrian Tchaikovsky</t>
+        </is>
+      </c>
+      <c r="T95" t="inlineStr">
         <is>
           <t>fiction/SF</t>
         </is>
@@ -6728,41 +8153,40 @@
       <c r="A96" t="inlineStr"/>
       <c r="B96" t="inlineStr">
         <is>
-          <t>42</t>
+          <t>40</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>How to Talk So Little Kids Will Listen: A Survival Guide to Life With Children Ages 2-7</t>
+          <t>Des fleurs pour Algernon</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>Joanna Faber_x000D_
-Julie King</t>
+          <t>Daniel Keyes</t>
         </is>
       </c>
       <c r="E96" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F96" t="n">
-        <v>461</v>
+        <v>456</v>
       </c>
       <c r="G96" t="inlineStr"/>
       <c r="H96" t="inlineStr">
         <is>
-          <t>en</t>
+          <t>fr</t>
         </is>
       </c>
       <c r="I96" t="n">
-        <v>11</v>
+        <v>447</v>
       </c>
       <c r="J96" s="2" t="n">
-        <v>45480</v>
+        <v>45439</v>
       </c>
       <c r="K96" t="inlineStr">
         <is>
-          <t>000042</t>
+          <t>000040</t>
         </is>
       </c>
       <c r="L96" t="inlineStr">
@@ -6773,21 +8197,35 @@
       <c r="M96" t="inlineStr"/>
       <c r="N96" t="inlineStr">
         <is>
-          <t>Joanna Faber</t>
+          <t>Daniel Keyes</t>
         </is>
       </c>
       <c r="O96" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P96" t="inlineStr">
         <is>
-          <t>How to Talk So Little Kids Will Listen: A Survival Guide to Life With Children Ages 2-7 - Joanna Faber_x000D_
-Julie King</t>
+          <t>fiction</t>
         </is>
       </c>
       <c r="Q96" t="inlineStr">
         <is>
-          <t>non-fiction/parenting</t>
+          <t>SF</t>
+        </is>
+      </c>
+      <c r="R96" t="inlineStr">
+        <is>
+          <t>250-500</t>
+        </is>
+      </c>
+      <c r="S96" t="inlineStr">
+        <is>
+          <t>Des fleurs pour Algernon - Daniel Keyes</t>
+        </is>
+      </c>
+      <c r="T96" t="inlineStr">
+        <is>
+          <t>fiction/SF</t>
         </is>
       </c>
     </row>
@@ -6795,44 +8233,41 @@
       <c r="A97" t="inlineStr"/>
       <c r="B97" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>42</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>Hypérion 1</t>
+          <t>How to Talk So Little Kids Will Listen: A Survival Guide to Life With Children Ages 2-7</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>Dan Simmons</t>
+          <t>Joanna Faber_x000D_
+Julie King</t>
         </is>
       </c>
       <c r="E97" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F97" t="n">
-        <v>1034</v>
-      </c>
-      <c r="G97" t="inlineStr">
-        <is>
-          <t>Les Cantos d'Hypérion #1</t>
-        </is>
-      </c>
+        <v>461</v>
+      </c>
+      <c r="G97" t="inlineStr"/>
       <c r="H97" t="inlineStr">
         <is>
-          <t>fr</t>
+          <t>en</t>
         </is>
       </c>
       <c r="I97" t="n">
-        <v>1034</v>
+        <v>11</v>
       </c>
       <c r="J97" s="2" t="n">
-        <v>45319</v>
+        <v>45480</v>
       </c>
       <c r="K97" t="inlineStr">
         <is>
-          <t>000020</t>
+          <t>000042</t>
         </is>
       </c>
       <c r="L97" t="inlineStr">
@@ -6843,20 +8278,36 @@
       <c r="M97" t="inlineStr"/>
       <c r="N97" t="inlineStr">
         <is>
-          <t>Dan Simmons</t>
+          <t>Joanna Faber</t>
         </is>
       </c>
       <c r="O97" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P97" t="inlineStr">
         <is>
-          <t>Hypérion 1 - Dan Simmons</t>
+          <t>non-fiction</t>
         </is>
       </c>
       <c r="Q97" t="inlineStr">
         <is>
-          <t>fiction/SF</t>
+          <t>parenting</t>
+        </is>
+      </c>
+      <c r="R97" t="inlineStr">
+        <is>
+          <t>250-500</t>
+        </is>
+      </c>
+      <c r="S97" t="inlineStr">
+        <is>
+          <t>How to Talk So Little Kids Will Listen: A Survival Guide to Life With Children Ages 2-7 - Joanna Faber_x000D_
+Julie King</t>
+        </is>
+      </c>
+      <c r="T97" t="inlineStr">
+        <is>
+          <t>non-fiction/parenting</t>
         </is>
       </c>
     </row>
@@ -6920,10 +8371,25 @@
       </c>
       <c r="P98" t="inlineStr">
         <is>
+          <t>fiction</t>
+        </is>
+      </c>
+      <c r="Q98" t="inlineStr">
+        <is>
+          <t>SF</t>
+        </is>
+      </c>
+      <c r="R98" t="inlineStr">
+        <is>
+          <t>250-500</t>
+        </is>
+      </c>
+      <c r="S98" t="inlineStr">
+        <is>
           <t>Hypérion 1 - Dan Simmons</t>
         </is>
       </c>
-      <c r="Q98" t="inlineStr">
+      <c r="T98" t="inlineStr">
         <is>
           <t>fiction/SF</t>
         </is>
@@ -6933,40 +8399,44 @@
       <c r="A99" t="inlineStr"/>
       <c r="B99" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>20</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>Il n'y a pas de parent parfait</t>
+          <t>Hypérion 1</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>Isabelle Filliozat</t>
+          <t>Dan Simmons</t>
         </is>
       </c>
       <c r="E99" t="n">
-        <v>57</v>
+        <v>1</v>
       </c>
       <c r="F99" t="n">
-        <v>445</v>
-      </c>
-      <c r="G99" t="inlineStr"/>
+        <v>1034</v>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>Les Cantos d'Hypérion #1</t>
+        </is>
+      </c>
       <c r="H99" t="inlineStr">
         <is>
           <t>fr</t>
         </is>
       </c>
       <c r="I99" t="n">
-        <v>277</v>
+        <v>1034</v>
       </c>
       <c r="J99" s="2" t="n">
-        <v>45347</v>
+        <v>45319</v>
       </c>
       <c r="K99" t="inlineStr">
         <is>
-          <t>000019</t>
+          <t>000020</t>
         </is>
       </c>
       <c r="L99" t="inlineStr">
@@ -6977,7 +8447,7 @@
       <c r="M99" t="inlineStr"/>
       <c r="N99" t="inlineStr">
         <is>
-          <t>Isabelle Filliozat</t>
+          <t>Dan Simmons</t>
         </is>
       </c>
       <c r="O99" t="n">
@@ -6985,12 +8455,27 @@
       </c>
       <c r="P99" t="inlineStr">
         <is>
-          <t>Il n'y a pas de parent parfait - Isabelle Filliozat</t>
+          <t>fiction</t>
         </is>
       </c>
       <c r="Q99" t="inlineStr">
         <is>
-          <t>non-fiction/parenting</t>
+          <t>SF</t>
+        </is>
+      </c>
+      <c r="R99" t="inlineStr">
+        <is>
+          <t>1000-1250</t>
+        </is>
+      </c>
+      <c r="S99" t="inlineStr">
+        <is>
+          <t>Hypérion 1 - Dan Simmons</t>
+        </is>
+      </c>
+      <c r="T99" t="inlineStr">
+        <is>
+          <t>fiction/SF</t>
         </is>
       </c>
     </row>
@@ -6998,24 +8483,24 @@
       <c r="A100" t="inlineStr"/>
       <c r="B100" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>19</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>L'Enchanteur</t>
+          <t>Il n'y a pas de parent parfait</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>Barjavel, René</t>
+          <t>Isabelle Filliozat</t>
         </is>
       </c>
       <c r="E100" t="n">
-        <v>1</v>
+        <v>57</v>
       </c>
       <c r="F100" t="n">
-        <v>572</v>
+        <v>445</v>
       </c>
       <c r="G100" t="inlineStr"/>
       <c r="H100" t="inlineStr">
@@ -7024,14 +8509,14 @@
         </is>
       </c>
       <c r="I100" t="n">
-        <v>484</v>
+        <v>277</v>
       </c>
       <c r="J100" s="2" t="n">
-        <v>45404</v>
+        <v>45347</v>
       </c>
       <c r="K100" t="inlineStr">
         <is>
-          <t>000034</t>
+          <t>000019</t>
         </is>
       </c>
       <c r="L100" t="inlineStr">
@@ -7042,7 +8527,7 @@
       <c r="M100" t="inlineStr"/>
       <c r="N100" t="inlineStr">
         <is>
-          <t>Barjavel, René</t>
+          <t>Isabelle Filliozat</t>
         </is>
       </c>
       <c r="O100" t="n">
@@ -7050,12 +8535,27 @@
       </c>
       <c r="P100" t="inlineStr">
         <is>
-          <t>L'Enchanteur - Barjavel, René</t>
+          <t>non-fiction</t>
         </is>
       </c>
       <c r="Q100" t="inlineStr">
         <is>
-          <t>fiction/fantasy</t>
+          <t>parenting</t>
+        </is>
+      </c>
+      <c r="R100" t="inlineStr">
+        <is>
+          <t>250-500</t>
+        </is>
+      </c>
+      <c r="S100" t="inlineStr">
+        <is>
+          <t>Il n'y a pas de parent parfait - Isabelle Filliozat</t>
+        </is>
+      </c>
+      <c r="T100" t="inlineStr">
+        <is>
+          <t>non-fiction/parenting</t>
         </is>
       </c>
     </row>
@@ -7063,44 +8563,40 @@
       <c r="A101" t="inlineStr"/>
       <c r="B101" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>34</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>La cinquième saison</t>
+          <t>L'Enchanteur</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>Nora K. Jemisin</t>
+          <t>Barjavel, René</t>
         </is>
       </c>
       <c r="E101" t="n">
         <v>1</v>
       </c>
       <c r="F101" t="n">
-        <v>759</v>
-      </c>
-      <c r="G101" t="inlineStr">
-        <is>
-          <t>Les livres de la terre fracturée #1</t>
-        </is>
-      </c>
+        <v>572</v>
+      </c>
+      <c r="G101" t="inlineStr"/>
       <c r="H101" t="inlineStr">
         <is>
           <t>fr</t>
         </is>
       </c>
       <c r="I101" t="n">
-        <v>21</v>
+        <v>484</v>
       </c>
       <c r="J101" s="2" t="n">
-        <v>45363</v>
+        <v>45404</v>
       </c>
       <c r="K101" t="inlineStr">
         <is>
-          <t>000030</t>
+          <t>000034</t>
         </is>
       </c>
       <c r="L101" t="inlineStr">
@@ -7111,18 +8607,33 @@
       <c r="M101" t="inlineStr"/>
       <c r="N101" t="inlineStr">
         <is>
-          <t>Nora Jemisin</t>
+          <t>Barjavel, René</t>
         </is>
       </c>
       <c r="O101" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P101" t="inlineStr">
         <is>
-          <t>La cinquième saison - Nora K. Jemisin</t>
+          <t>fiction</t>
         </is>
       </c>
       <c r="Q101" t="inlineStr">
+        <is>
+          <t>fantasy</t>
+        </is>
+      </c>
+      <c r="R101" t="inlineStr">
+        <is>
+          <t>500-750</t>
+        </is>
+      </c>
+      <c r="S101" t="inlineStr">
+        <is>
+          <t>L'Enchanteur - Barjavel, René</t>
+        </is>
+      </c>
+      <c r="T101" t="inlineStr">
         <is>
           <t>fiction/fantasy</t>
         </is>
@@ -7132,28 +8643,28 @@
       <c r="A102" t="inlineStr"/>
       <c r="B102" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>30</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>Le Crime de l'Orient-Express</t>
+          <t>La cinquième saison</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>Christie, Agatha</t>
+          <t>Nora K. Jemisin</t>
         </is>
       </c>
       <c r="E102" t="n">
         <v>1</v>
       </c>
       <c r="F102" t="n">
-        <v>349</v>
+        <v>759</v>
       </c>
       <c r="G102" t="inlineStr">
         <is>
-          <t>l'Orient #1</t>
+          <t>Les livres de la terre fracturée #1</t>
         </is>
       </c>
       <c r="H102" t="inlineStr">
@@ -7162,14 +8673,14 @@
         </is>
       </c>
       <c r="I102" t="n">
-        <v>330</v>
+        <v>21</v>
       </c>
       <c r="J102" s="2" t="n">
-        <v>45257</v>
+        <v>45363</v>
       </c>
       <c r="K102" t="inlineStr">
         <is>
-          <t>00002</t>
+          <t>000030</t>
         </is>
       </c>
       <c r="L102" t="inlineStr">
@@ -7180,20 +8691,35 @@
       <c r="M102" t="inlineStr"/>
       <c r="N102" t="inlineStr">
         <is>
-          <t>Christie, Agatha</t>
+          <t>Nora Jemisin</t>
         </is>
       </c>
       <c r="O102" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P102" t="inlineStr">
         <is>
-          <t>Le Crime de l'Orient-Express - Christie, Agatha</t>
+          <t>fiction</t>
         </is>
       </c>
       <c r="Q102" t="inlineStr">
         <is>
-          <t>fiction/policier</t>
+          <t>fantasy</t>
+        </is>
+      </c>
+      <c r="R102" t="inlineStr">
+        <is>
+          <t>750-1000</t>
+        </is>
+      </c>
+      <c r="S102" t="inlineStr">
+        <is>
+          <t>La cinquième saison - Nora K. Jemisin</t>
+        </is>
+      </c>
+      <c r="T102" t="inlineStr">
+        <is>
+          <t>fiction/fantasy</t>
         </is>
       </c>
     </row>
@@ -7201,40 +8727,44 @@
       <c r="A103" t="inlineStr"/>
       <c r="B103" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>Le manuel de survie des parents</t>
+          <t>Le Crime de l'Orient-Express</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>Héloïse Junier</t>
+          <t>Christie, Agatha</t>
         </is>
       </c>
       <c r="E103" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F103" t="n">
-        <v>401</v>
-      </c>
-      <c r="G103" t="inlineStr"/>
+        <v>349</v>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>l'Orient #1</t>
+        </is>
+      </c>
       <c r="H103" t="inlineStr">
         <is>
           <t>fr</t>
         </is>
       </c>
       <c r="I103" t="n">
-        <v>10</v>
+        <v>330</v>
       </c>
       <c r="J103" s="2" t="n">
-        <v>45300</v>
+        <v>45257</v>
       </c>
       <c r="K103" t="inlineStr">
         <is>
-          <t>000014</t>
+          <t>00002</t>
         </is>
       </c>
       <c r="L103" t="inlineStr">
@@ -7245,20 +8775,35 @@
       <c r="M103" t="inlineStr"/>
       <c r="N103" t="inlineStr">
         <is>
-          <t>Héloïse Junier</t>
+          <t>Christie, Agatha</t>
         </is>
       </c>
       <c r="O103" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P103" t="inlineStr">
         <is>
-          <t>Le manuel de survie des parents - Héloïse Junier</t>
+          <t>fiction</t>
         </is>
       </c>
       <c r="Q103" t="inlineStr">
         <is>
-          <t>non-fiction/parenting</t>
+          <t>policier</t>
+        </is>
+      </c>
+      <c r="R103" t="inlineStr">
+        <is>
+          <t>250-500</t>
+        </is>
+      </c>
+      <c r="S103" t="inlineStr">
+        <is>
+          <t>Le Crime de l'Orient-Express - Christie, Agatha</t>
+        </is>
+      </c>
+      <c r="T103" t="inlineStr">
+        <is>
+          <t>fiction/policier</t>
         </is>
       </c>
     </row>
@@ -7318,10 +8863,25 @@
       </c>
       <c r="P104" t="inlineStr">
         <is>
+          <t>non-fiction</t>
+        </is>
+      </c>
+      <c r="Q104" t="inlineStr">
+        <is>
+          <t>parenting</t>
+        </is>
+      </c>
+      <c r="R104" t="inlineStr">
+        <is>
+          <t>250-500</t>
+        </is>
+      </c>
+      <c r="S104" t="inlineStr">
+        <is>
           <t>Le manuel de survie des parents - Héloïse Junier</t>
         </is>
       </c>
-      <c r="Q104" t="inlineStr">
+      <c r="T104" t="inlineStr">
         <is>
           <t>non-fiction/parenting</t>
         </is>
@@ -7331,44 +8891,40 @@
       <c r="A105" t="inlineStr"/>
       <c r="B105" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>14</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>Le problème à trois corps t1</t>
+          <t>Le manuel de survie des parents</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>Liu Cixin</t>
+          <t>Héloïse Junier</t>
         </is>
       </c>
       <c r="E105" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F105" t="n">
-        <v>745</v>
-      </c>
-      <c r="G105" t="inlineStr">
-        <is>
-          <t>Trois corps #1</t>
-        </is>
-      </c>
+        <v>401</v>
+      </c>
+      <c r="G105" t="inlineStr"/>
       <c r="H105" t="inlineStr">
         <is>
-          <t>en</t>
+          <t>fr</t>
         </is>
       </c>
       <c r="I105" t="n">
-        <v>708</v>
+        <v>10</v>
       </c>
       <c r="J105" s="2" t="n">
-        <v>45427</v>
+        <v>45300</v>
       </c>
       <c r="K105" t="inlineStr">
         <is>
-          <t>000038</t>
+          <t>000014</t>
         </is>
       </c>
       <c r="L105" t="inlineStr">
@@ -7379,20 +8935,35 @@
       <c r="M105" t="inlineStr"/>
       <c r="N105" t="inlineStr">
         <is>
-          <t>Liu Cixin</t>
+          <t>Héloïse Junier</t>
         </is>
       </c>
       <c r="O105" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P105" t="inlineStr">
         <is>
-          <t>Le problème à trois corps t1 - Liu Cixin</t>
+          <t>non-fiction</t>
         </is>
       </c>
       <c r="Q105" t="inlineStr">
         <is>
-          <t>fiction/SF</t>
+          <t>parenting</t>
+        </is>
+      </c>
+      <c r="R105" t="inlineStr">
+        <is>
+          <t>250-500</t>
+        </is>
+      </c>
+      <c r="S105" t="inlineStr">
+        <is>
+          <t>Le manuel de survie des parents - Héloïse Junier</t>
+        </is>
+      </c>
+      <c r="T105" t="inlineStr">
+        <is>
+          <t>non-fiction/parenting</t>
         </is>
       </c>
     </row>
@@ -7400,131 +8971,165 @@
       <c r="A106" t="inlineStr"/>
       <c r="B106" t="inlineStr">
         <is>
+          <t>38</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>Le problème à trois corps t1</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>Liu Cixin</t>
+        </is>
+      </c>
+      <c r="E106" t="n">
+        <v>1</v>
+      </c>
+      <c r="F106" t="n">
+        <v>745</v>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>Trois corps #1</t>
+        </is>
+      </c>
+      <c r="H106" t="inlineStr">
+        <is>
+          <t>en</t>
+        </is>
+      </c>
+      <c r="I106" t="n">
+        <v>708</v>
+      </c>
+      <c r="J106" s="2" t="n">
+        <v>45427</v>
+      </c>
+      <c r="K106" t="inlineStr">
+        <is>
+          <t>000038</t>
+        </is>
+      </c>
+      <c r="L106" t="inlineStr">
+        <is>
+          <t>ebook</t>
+        </is>
+      </c>
+      <c r="M106" t="inlineStr"/>
+      <c r="N106" t="inlineStr">
+        <is>
+          <t>Liu Cixin</t>
+        </is>
+      </c>
+      <c r="O106" t="n">
+        <v>1</v>
+      </c>
+      <c r="P106" t="inlineStr">
+        <is>
+          <t>fiction</t>
+        </is>
+      </c>
+      <c r="Q106" t="inlineStr">
+        <is>
+          <t>SF</t>
+        </is>
+      </c>
+      <c r="R106" t="inlineStr">
+        <is>
+          <t>500-750</t>
+        </is>
+      </c>
+      <c r="S106" t="inlineStr">
+        <is>
+          <t>Le problème à trois corps t1 - Liu Cixin</t>
+        </is>
+      </c>
+      <c r="T106" t="inlineStr">
+        <is>
+          <t>fiction/SF</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr"/>
+      <c r="B107" t="inlineStr">
+        <is>
           <t>26</t>
         </is>
       </c>
-      <c r="C106" t="inlineStr">
+      <c r="C107" t="inlineStr">
         <is>
           <t>Le sorcier de Terremer</t>
         </is>
       </c>
-      <c r="D106" t="inlineStr">
+      <c r="D107" t="inlineStr">
         <is>
           <t>Ursula K. le Guin_x000D_
 Philippe R. Hupp_x000D_
 Michel Lee Landa</t>
         </is>
       </c>
-      <c r="E106" t="n">
+      <c r="E107" t="n">
         <v>2</v>
       </c>
-      <c r="F106" t="n">
+      <c r="F107" t="n">
         <v>337</v>
       </c>
-      <c r="G106" t="inlineStr"/>
-      <c r="H106" t="inlineStr">
+      <c r="G107" t="inlineStr"/>
+      <c r="H107" t="inlineStr">
         <is>
           <t>fr</t>
         </is>
       </c>
-      <c r="I106" t="n">
+      <c r="I107" t="n">
         <v>329</v>
       </c>
-      <c r="J106" s="2" t="n">
+      <c r="J107" s="2" t="n">
         <v>45358</v>
       </c>
-      <c r="K106" t="inlineStr">
+      <c r="K107" t="inlineStr">
         <is>
           <t>000026</t>
         </is>
       </c>
-      <c r="L106" t="inlineStr">
+      <c r="L107" t="inlineStr">
         <is>
           <t>ebook</t>
         </is>
       </c>
-      <c r="M106" t="inlineStr"/>
-      <c r="N106" t="inlineStr">
+      <c r="M107" t="inlineStr"/>
+      <c r="N107" t="inlineStr">
         <is>
           <t>Ursula Guin</t>
         </is>
       </c>
-      <c r="O106" t="n">
-        <v>1</v>
-      </c>
-      <c r="P106" t="inlineStr">
+      <c r="O107" t="n">
+        <v>1</v>
+      </c>
+      <c r="P107" t="inlineStr">
+        <is>
+          <t>fiction</t>
+        </is>
+      </c>
+      <c r="Q107" t="inlineStr">
+        <is>
+          <t>fantasy</t>
+        </is>
+      </c>
+      <c r="R107" t="inlineStr">
+        <is>
+          <t>250-500</t>
+        </is>
+      </c>
+      <c r="S107" t="inlineStr">
         <is>
           <t>Le sorcier de Terremer - Ursula K. le Guin_x000D_
 Philippe R. Hupp_x000D_
 Michel Lee Landa</t>
         </is>
       </c>
-      <c r="Q106" t="inlineStr">
-        <is>
-          <t>fiction/fantasy</t>
-        </is>
-      </c>
-    </row>
-    <row r="107">
-      <c r="A107" t="inlineStr"/>
-      <c r="B107" t="inlineStr">
-        <is>
-          <t>57</t>
-        </is>
-      </c>
-      <c r="C107" t="inlineStr">
-        <is>
-          <t>Légendes et lattes</t>
-        </is>
-      </c>
-      <c r="D107" t="inlineStr">
-        <is>
-          <t>Travis Baldree</t>
-        </is>
-      </c>
-      <c r="E107" t="n">
-        <v>1</v>
-      </c>
-      <c r="F107" t="n">
-        <v>397</v>
-      </c>
-      <c r="G107" t="inlineStr"/>
-      <c r="H107" t="inlineStr">
-        <is>
-          <t>fr</t>
-        </is>
-      </c>
-      <c r="I107" t="n">
-        <v>387</v>
-      </c>
-      <c r="J107" s="2" t="n">
-        <v>45491</v>
-      </c>
-      <c r="K107" t="inlineStr">
-        <is>
-          <t>000057</t>
-        </is>
-      </c>
-      <c r="L107" t="inlineStr">
-        <is>
-          <t>ebook</t>
-        </is>
-      </c>
-      <c r="M107" t="inlineStr"/>
-      <c r="N107" t="inlineStr">
-        <is>
-          <t>Travis Baldree</t>
-        </is>
-      </c>
-      <c r="O107" t="n">
-        <v>1</v>
-      </c>
-      <c r="P107" t="inlineStr">
-        <is>
-          <t>Légendes et lattes - Travis Baldree</t>
-        </is>
-      </c>
-      <c r="Q107" t="inlineStr">
+      <c r="T107" t="inlineStr">
         <is>
           <t>fiction/fantasy</t>
         </is>
@@ -7534,24 +9139,24 @@
       <c r="A108" t="inlineStr"/>
       <c r="B108" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>57</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>Marche ou crève</t>
+          <t>Légendes et lattes</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>King,Stephen</t>
+          <t>Travis Baldree</t>
         </is>
       </c>
       <c r="E108" t="n">
         <v>1</v>
       </c>
       <c r="F108" t="n">
-        <v>429</v>
+        <v>397</v>
       </c>
       <c r="G108" t="inlineStr"/>
       <c r="H108" t="inlineStr">
@@ -7560,14 +9165,14 @@
         </is>
       </c>
       <c r="I108" t="n">
-        <v>419</v>
+        <v>387</v>
       </c>
       <c r="J108" s="2" t="n">
-        <v>45410</v>
+        <v>45491</v>
       </c>
       <c r="K108" t="inlineStr">
         <is>
-          <t>000035</t>
+          <t>000057</t>
         </is>
       </c>
       <c r="L108" t="inlineStr">
@@ -7578,7 +9183,7 @@
       <c r="M108" t="inlineStr"/>
       <c r="N108" t="inlineStr">
         <is>
-          <t>King,Stephen</t>
+          <t>Travis Baldree</t>
         </is>
       </c>
       <c r="O108" t="n">
@@ -7586,12 +9191,27 @@
       </c>
       <c r="P108" t="inlineStr">
         <is>
-          <t>Marche ou crève - King,Stephen</t>
+          <t>fiction</t>
         </is>
       </c>
       <c r="Q108" t="inlineStr">
         <is>
-          <t>fiction/SF</t>
+          <t>fantasy</t>
+        </is>
+      </c>
+      <c r="R108" t="inlineStr">
+        <is>
+          <t>250-500</t>
+        </is>
+      </c>
+      <c r="S108" t="inlineStr">
+        <is>
+          <t>Légendes et lattes - Travis Baldree</t>
+        </is>
+      </c>
+      <c r="T108" t="inlineStr">
+        <is>
+          <t>fiction/fantasy</t>
         </is>
       </c>
     </row>
@@ -7599,44 +9219,40 @@
       <c r="A109" t="inlineStr"/>
       <c r="B109" t="inlineStr">
         <is>
-          <t>67</t>
+          <t>35</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>Voyageur 1 : L'Espace d'un an</t>
+          <t>Marche ou crève</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>Becky Chambers</t>
+          <t>King,Stephen</t>
         </is>
       </c>
       <c r="E109" t="n">
         <v>1</v>
       </c>
       <c r="F109" t="n">
-        <v>789</v>
-      </c>
-      <c r="G109" t="inlineStr">
-        <is>
-          <t>Les voyageurs #1</t>
-        </is>
-      </c>
+        <v>429</v>
+      </c>
+      <c r="G109" t="inlineStr"/>
       <c r="H109" t="inlineStr">
         <is>
           <t>fr</t>
         </is>
       </c>
       <c r="I109" t="n">
-        <v>779</v>
+        <v>419</v>
       </c>
       <c r="J109" s="2" t="n">
-        <v>45564</v>
+        <v>45410</v>
       </c>
       <c r="K109" t="inlineStr">
         <is>
-          <t>000067</t>
+          <t>000035</t>
         </is>
       </c>
       <c r="L109" t="inlineStr">
@@ -7647,7 +9263,7 @@
       <c r="M109" t="inlineStr"/>
       <c r="N109" t="inlineStr">
         <is>
-          <t>Becky Chambers</t>
+          <t>King,Stephen</t>
         </is>
       </c>
       <c r="O109" t="n">
@@ -7655,10 +9271,25 @@
       </c>
       <c r="P109" t="inlineStr">
         <is>
-          <t>Voyageur 1 : L'Espace d'un an - Becky Chambers</t>
+          <t>fiction</t>
         </is>
       </c>
       <c r="Q109" t="inlineStr">
+        <is>
+          <t>SF</t>
+        </is>
+      </c>
+      <c r="R109" t="inlineStr">
+        <is>
+          <t>250-500</t>
+        </is>
+      </c>
+      <c r="S109" t="inlineStr">
+        <is>
+          <t>Marche ou crève - King,Stephen</t>
+        </is>
+      </c>
+      <c r="T109" t="inlineStr">
         <is>
           <t>fiction/SF</t>
         </is>
@@ -7668,40 +9299,44 @@
       <c r="A110" t="inlineStr"/>
       <c r="B110" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>67</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>Your Brain’s Not Broken</t>
+          <t>Voyageur 1 : L'Espace d'un an</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>Tamara Rosier</t>
+          <t>Becky Chambers</t>
         </is>
       </c>
       <c r="E110" t="n">
-        <v>108</v>
+        <v>1</v>
       </c>
       <c r="F110" t="n">
-        <v>299</v>
-      </c>
-      <c r="G110" t="inlineStr"/>
+        <v>789</v>
+      </c>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>Les voyageurs #1</t>
+        </is>
+      </c>
       <c r="H110" t="inlineStr">
         <is>
-          <t>en</t>
+          <t>fr</t>
         </is>
       </c>
       <c r="I110" t="n">
-        <v>263</v>
+        <v>779</v>
       </c>
       <c r="J110" s="2" t="n">
-        <v>45305</v>
+        <v>45564</v>
       </c>
       <c r="K110" t="inlineStr">
         <is>
-          <t>000016</t>
+          <t>000067</t>
         </is>
       </c>
       <c r="L110" t="inlineStr">
@@ -7712,18 +9347,113 @@
       <c r="M110" t="inlineStr"/>
       <c r="N110" t="inlineStr">
         <is>
+          <t>Becky Chambers</t>
+        </is>
+      </c>
+      <c r="O110" t="n">
+        <v>1</v>
+      </c>
+      <c r="P110" t="inlineStr">
+        <is>
+          <t>fiction</t>
+        </is>
+      </c>
+      <c r="Q110" t="inlineStr">
+        <is>
+          <t>SF</t>
+        </is>
+      </c>
+      <c r="R110" t="inlineStr">
+        <is>
+          <t>750-1000</t>
+        </is>
+      </c>
+      <c r="S110" t="inlineStr">
+        <is>
+          <t>Voyageur 1 : L'Espace d'un an - Becky Chambers</t>
+        </is>
+      </c>
+      <c r="T110" t="inlineStr">
+        <is>
+          <t>fiction/SF</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr"/>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>Your Brain’s Not Broken</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
           <t>Tamara Rosier</t>
         </is>
       </c>
-      <c r="O110" t="n">
-        <v>1</v>
-      </c>
-      <c r="P110" t="inlineStr">
+      <c r="E111" t="n">
+        <v>108</v>
+      </c>
+      <c r="F111" t="n">
+        <v>299</v>
+      </c>
+      <c r="G111" t="inlineStr"/>
+      <c r="H111" t="inlineStr">
+        <is>
+          <t>en</t>
+        </is>
+      </c>
+      <c r="I111" t="n">
+        <v>263</v>
+      </c>
+      <c r="J111" s="2" t="n">
+        <v>45305</v>
+      </c>
+      <c r="K111" t="inlineStr">
+        <is>
+          <t>000016</t>
+        </is>
+      </c>
+      <c r="L111" t="inlineStr">
+        <is>
+          <t>ebook</t>
+        </is>
+      </c>
+      <c r="M111" t="inlineStr"/>
+      <c r="N111" t="inlineStr">
+        <is>
+          <t>Tamara Rosier</t>
+        </is>
+      </c>
+      <c r="O111" t="n">
+        <v>1</v>
+      </c>
+      <c r="P111" t="inlineStr">
+        <is>
+          <t>non-fiction</t>
+        </is>
+      </c>
+      <c r="Q111" t="inlineStr">
+        <is>
+          <t>santé</t>
+        </is>
+      </c>
+      <c r="R111" t="inlineStr">
+        <is>
+          <t>250-500</t>
+        </is>
+      </c>
+      <c r="S111" t="inlineStr">
         <is>
           <t>Your Brain’s Not Broken - Tamara Rosier</t>
         </is>
       </c>
-      <c r="Q110" t="inlineStr">
+      <c r="T111" t="inlineStr">
         <is>
           <t>non-fiction/santé</t>
         </is>
